--- a/Logpie.xlsx
+++ b/Logpie.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14475" windowHeight="8250" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="护肤品1000" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="食品3000" sheetId="2" r:id="rId3"/>
     <sheet name="母婴4000" sheetId="3" r:id="rId4"/>
     <sheet name="保健品5000" sheetId="5" r:id="rId5"/>
+    <sheet name="服饰6000" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="331">
   <si>
     <t>Fresh</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,20 +1208,153 @@
     <t>三倍强度鱼油</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Columbia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/M/L/XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XS/S/M/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/M/L/XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L/XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士白色平角内裤(3件装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士黑色平角内裤(3件装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士白色长款内裤(3件装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士黑色长款内裤(4件装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女士黑色三角内裤(3件装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女士白色三角内裤(3件装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女士黑色平角内裤(3件装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女士白色平角内裤(3件装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士黑色三角内裤(3件装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士防雨防风冲锋衣-黑色</t>
+  </si>
+  <si>
+    <t>男士防雨防风冲锋衣-灰色</t>
+  </si>
+  <si>
+    <t>男士防雨防风冲锋衣-亮红</t>
+  </si>
+  <si>
+    <t>男士羽绒内胆冲锋衣-黄灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士羽绒内胆冲锋衣-橙色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士羽绒内胆冲锋衣-红橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士羽绒内胆冲锋衣-深蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士羽绒内胆冲锋衣-红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士防雨防风冲锋衣-暗红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男士柔软内绒外套-深蓝</t>
+  </si>
+  <si>
+    <t>男士柔软内绒外套-灰色</t>
+  </si>
+  <si>
+    <t>女士防雨防风冲锋衣-白色</t>
+  </si>
+  <si>
+    <t>女士防雨防风冲锋衣-玫红</t>
+  </si>
+  <si>
+    <t>女士防雨防风冲锋衣-红色</t>
+  </si>
+  <si>
+    <t>女士防雨防风冲锋衣-蓝色</t>
+  </si>
+  <si>
+    <t>女士柔软内绒外套-玫红</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="7">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="179" formatCode="_ [$￥-804]* #,##0.00_ ;_ [$￥-804]* \-#,##0.00_ ;_ [$￥-804]* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    <numFmt numFmtId="186" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="178" formatCode="_ [$￥-804]* #,##0.00_ ;_ [$￥-804]* \-#,##0.00_ ;_ [$￥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1350,7 +1484,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1489,8 +1623,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1539,13 +1682,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1560,12 +1714,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1575,36 +1729,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="24" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="24" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="24" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="26" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1614,15 +1768,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1707,85 +1861,85 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,10 +1951,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1809,31 +1963,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1855,7 +1988,7 @@
     <xf numFmtId="24" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="24" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1883,22 +2016,134 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="48">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="59">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1913,39 +2158,6 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2284,39 +2496,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y93"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="T64" sqref="T64"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="82"/>
-    <col min="11" max="11" width="10.875" style="1"/>
-    <col min="12" max="12" width="10.875" style="79"/>
-    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="82"/>
+    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="79"/>
+    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11"/>
-    <col min="18" max="18" width="11" style="115"/>
-    <col min="19" max="20" width="10.875" style="1"/>
-    <col min="21" max="21" width="16.375" style="1" customWidth="1"/>
-    <col min="22" max="24" width="10.875" style="1"/>
-    <col min="25" max="25" width="20.125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.875" style="1"/>
+    <col min="15" max="15" width="13.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="108"/>
+    <col min="19" max="20" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="16.33203125" style="1" customWidth="1"/>
+    <col min="22" max="24" width="10.83203125" style="1"/>
+    <col min="25" max="25" width="20.1640625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:25" s="3" customFormat="1" ht="36" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2329,14 +2539,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="114" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89" t="s">
+      <c r="G1" s="114"/>
+      <c r="H1" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="89"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -2349,17 +2559,17 @@
       <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="N1" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="O1" s="89"/>
+      <c r="O1" s="114"/>
       <c r="P1" s="88" t="s">
         <v>273</v>
       </c>
       <c r="Q1" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="R1" s="111" t="s">
+      <c r="R1" s="104" t="s">
         <v>276</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -2381,7 +2591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="2:25" s="3" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:25" s="3" customFormat="1" ht="55.5" customHeight="1">
       <c r="F2" s="76" t="s">
         <v>247</v>
       </c>
@@ -2411,9 +2621,9 @@
       <c r="Q2" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="R2" s="111"/>
-    </row>
-    <row r="3" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="104"/>
+    </row>
+    <row r="3" spans="2:25" ht="22" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2659,7 @@
         <v>125</v>
       </c>
       <c r="L3" s="78">
-        <f>K3-I3</f>
+        <f t="shared" ref="L3:L10" si="3">K3-I3</f>
         <v>24.232624999999999</v>
       </c>
       <c r="M3" s="5"/>
@@ -2462,7 +2672,7 @@
         <f>P3*6.125*1.2+8</f>
         <v>8</v>
       </c>
-      <c r="R3" s="120"/>
+      <c r="R3" s="113"/>
       <c r="S3" s="9"/>
       <c r="U3" s="1" t="s">
         <v>183</v>
@@ -2480,7 +2690,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" ht="22" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2509,14 +2719,14 @@
         <v>255.27734999999998</v>
       </c>
       <c r="J4" s="81">
-        <f t="shared" ref="J4:J67" si="3">I4*1.15+8</f>
+        <f t="shared" ref="J4:J67" si="4">I4*1.15+8</f>
         <v>301.56895249999997</v>
       </c>
       <c r="K4" s="83">
         <v>299</v>
       </c>
       <c r="L4" s="78">
-        <f>K4-I4</f>
+        <f t="shared" si="3"/>
         <v>43.722650000000016</v>
       </c>
       <c r="M4" s="11"/>
@@ -2528,10 +2738,10 @@
       </c>
       <c r="P4" s="11"/>
       <c r="Q4" s="11">
-        <f t="shared" ref="Q4:Q67" si="4">P4*6.125*1.2+8</f>
+        <f t="shared" ref="Q4:Q67" si="5">P4*6.125*1.2+8</f>
         <v>8</v>
       </c>
-      <c r="R4" s="120"/>
+      <c r="R4" s="113"/>
       <c r="S4" s="14"/>
       <c r="U4" s="1" t="s">
         <v>215</v>
@@ -2549,7 +2759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" ht="22" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2578,14 +2788,14 @@
         <v>255.27734999999998</v>
       </c>
       <c r="J5" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>301.56895249999997</v>
       </c>
       <c r="K5" s="83">
         <v>299</v>
       </c>
       <c r="L5" s="78">
-        <f>K5-I5</f>
+        <f t="shared" si="3"/>
         <v>43.722650000000016</v>
       </c>
       <c r="M5" s="11"/>
@@ -2597,13 +2807,13 @@
       </c>
       <c r="P5" s="11"/>
       <c r="Q5" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R5" s="120"/>
+      <c r="R5" s="113"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" ht="22" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
@@ -2632,14 +2842,14 @@
         <v>282.14864999999998</v>
       </c>
       <c r="J6" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>332.47094749999997</v>
       </c>
       <c r="K6" s="83">
         <v>329</v>
       </c>
       <c r="L6" s="78">
-        <f>K6-I6</f>
+        <f t="shared" si="3"/>
         <v>46.851350000000025</v>
       </c>
       <c r="M6" s="11"/>
@@ -2651,13 +2861,13 @@
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R6" s="120"/>
+      <c r="R6" s="113"/>
       <c r="S6" s="14"/>
     </row>
-    <row r="7" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" ht="22" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
@@ -2686,14 +2896,14 @@
         <v>571.01512500000001</v>
       </c>
       <c r="J7" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>664.66739374999997</v>
       </c>
       <c r="K7" s="83">
         <v>639</v>
       </c>
       <c r="L7" s="78">
-        <f>K7-I7</f>
+        <f t="shared" si="3"/>
         <v>67.984874999999988</v>
       </c>
       <c r="M7" s="11"/>
@@ -2705,13 +2915,13 @@
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R7" s="120"/>
+      <c r="R7" s="113"/>
       <c r="S7" s="14"/>
     </row>
-    <row r="8" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" ht="22" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -2740,14 +2950,14 @@
         <v>389.63385</v>
       </c>
       <c r="J8" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>456.07892749999996</v>
       </c>
       <c r="K8" s="83">
         <v>439</v>
       </c>
       <c r="L8" s="78">
-        <f>K8-I8</f>
+        <f t="shared" si="3"/>
         <v>49.366150000000005</v>
       </c>
       <c r="M8" s="11"/>
@@ -2759,13 +2969,13 @@
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R8" s="120"/>
+      <c r="R8" s="113"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" ht="22" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -2794,14 +3004,14 @@
         <v>591.16859999999997</v>
       </c>
       <c r="J9" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>687.84388999999987</v>
       </c>
       <c r="K9" s="83">
         <v>649</v>
       </c>
       <c r="L9" s="78">
-        <f>K9-I9</f>
+        <f t="shared" si="3"/>
         <v>57.831400000000031</v>
       </c>
       <c r="M9" s="11"/>
@@ -2813,13 +3023,13 @@
       </c>
       <c r="P9" s="11"/>
       <c r="Q9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R9" s="120"/>
+      <c r="R9" s="113"/>
       <c r="S9" s="14"/>
     </row>
-    <row r="10" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" ht="22" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
@@ -2848,14 +3058,14 @@
         <v>389.63385</v>
       </c>
       <c r="J10" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>456.07892749999996</v>
       </c>
       <c r="K10" s="83">
         <v>439</v>
       </c>
       <c r="L10" s="78">
-        <f>K10-I10</f>
+        <f t="shared" si="3"/>
         <v>49.366150000000005</v>
       </c>
       <c r="M10" s="11"/>
@@ -2867,13 +3077,13 @@
       </c>
       <c r="P10" s="11"/>
       <c r="Q10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R10" s="120"/>
+      <c r="R10" s="113"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" ht="22" customHeight="1">
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -2890,10 +3100,10 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="120"/>
+      <c r="R11" s="113"/>
       <c r="S11" s="14"/>
     </row>
-    <row r="12" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:25" ht="22" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
@@ -2910,29 +3120,29 @@
         <v>26.5</v>
       </c>
       <c r="G12" s="13">
-        <f t="shared" ref="G12:G28" si="5">F12*6.135</f>
+        <f t="shared" ref="G12:G28" si="6">F12*6.135</f>
         <v>162.57749999999999</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" ref="H12:H28" si="6">F12*(1+0.095)</f>
+        <f t="shared" ref="H12:H28" si="7">F12*(1+0.095)</f>
         <v>29.017499999999998</v>
       </c>
       <c r="I12" s="13">
-        <f t="shared" ref="I12:I28" si="7">H12*6.135</f>
+        <f t="shared" ref="I12:I28" si="8">H12*6.135</f>
         <v>178.02236249999999</v>
       </c>
       <c r="J12" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212.72571687499996</v>
       </c>
       <c r="K12" s="9">
         <v>219</v>
       </c>
       <c r="L12" s="78">
-        <f>K12-I12</f>
+        <f t="shared" ref="L12:L28" si="9">K12-I12</f>
         <v>40.977637500000014</v>
       </c>
-      <c r="M12" s="93" t="s">
+      <c r="M12" s="118" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="13">
@@ -2946,15 +3156,15 @@
         <v>20.312249999999999</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>157.29503749999998</v>
       </c>
-      <c r="R12" s="120">
+      <c r="R12" s="113">
         <v>169</v>
       </c>
       <c r="S12" s="14"/>
     </row>
-    <row r="13" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" ht="22" customHeight="1">
       <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
@@ -2971,47 +3181,47 @@
         <v>46.5</v>
       </c>
       <c r="G13" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>285.27749999999997</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.917499999999997</v>
       </c>
       <c r="I13" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>312.37886249999997</v>
       </c>
       <c r="J13" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>367.23569187499993</v>
       </c>
       <c r="K13" s="83">
         <v>359</v>
       </c>
       <c r="L13" s="78">
-        <f>K13-I13</f>
+        <f t="shared" si="9"/>
         <v>46.621137500000032</v>
       </c>
-      <c r="M13" s="94"/>
+      <c r="M13" s="119"/>
       <c r="N13" s="13"/>
       <c r="O13" s="11" t="s">
         <v>80</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" ref="P13:P28" si="8">H13*0.7</f>
+        <f t="shared" ref="P13:P28" si="10">H13*0.7</f>
         <v>35.642249999999997</v>
       </c>
       <c r="Q13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>269.97053749999998</v>
       </c>
-      <c r="R13" s="120">
+      <c r="R13" s="113">
         <v>279</v>
       </c>
       <c r="S13" s="14"/>
     </row>
-    <row r="14" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" ht="22" customHeight="1">
       <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
@@ -3028,29 +3238,29 @@
         <v>28.5</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>174.8475</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31.2075</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>191.4580125</v>
       </c>
       <c r="J14" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>228.17671437499999</v>
       </c>
       <c r="K14" s="9">
         <v>229</v>
       </c>
       <c r="L14" s="78">
-        <f>K14-I14</f>
+        <f t="shared" si="9"/>
         <v>37.541987500000005</v>
       </c>
-      <c r="M14" s="94"/>
+      <c r="M14" s="119"/>
       <c r="N14" s="13">
         <v>300</v>
       </c>
@@ -3058,19 +3268,19 @@
         <v>83</v>
       </c>
       <c r="P14" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21.84525</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>168.56258749999998</v>
       </c>
-      <c r="R14" s="120">
+      <c r="R14" s="113">
         <v>179</v>
       </c>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" ht="22" customHeight="1">
       <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
@@ -3087,47 +3297,47 @@
         <v>47</v>
       </c>
       <c r="G15" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>288.34499999999997</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.464999999999996</v>
       </c>
       <c r="I15" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>315.73777499999994</v>
       </c>
       <c r="J15" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>371.09844124999989</v>
       </c>
       <c r="K15" s="83">
         <v>359</v>
       </c>
       <c r="L15" s="78">
-        <f>K15-I15</f>
+        <f t="shared" si="9"/>
         <v>43.262225000000058</v>
       </c>
-      <c r="M15" s="94"/>
+      <c r="M15" s="119"/>
       <c r="N15" s="13"/>
       <c r="O15" s="11" t="s">
         <v>82</v>
       </c>
       <c r="P15" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36.025499999999994</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>272.78742499999993</v>
       </c>
-      <c r="R15" s="120">
+      <c r="R15" s="113">
         <v>279</v>
       </c>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="2:25" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" ht="22" customHeight="1">
       <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
@@ -3144,29 +3354,29 @@
         <v>23</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>141.10499999999999</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.184999999999999</v>
       </c>
       <c r="I16" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>154.509975</v>
       </c>
       <c r="J16" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>185.68647124999998</v>
       </c>
       <c r="K16" s="9">
         <v>199</v>
       </c>
       <c r="L16" s="78">
-        <f>K16-I16</f>
+        <f t="shared" si="9"/>
         <v>44.490025000000003</v>
       </c>
-      <c r="M16" s="94"/>
+      <c r="M16" s="119"/>
       <c r="N16" s="13">
         <v>280</v>
       </c>
@@ -3174,19 +3384,19 @@
         <v>84</v>
       </c>
       <c r="P16" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>17.629499999999997</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137.57682499999996</v>
       </c>
-      <c r="R16" s="120">
+      <c r="R16" s="113">
         <v>149</v>
       </c>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="22" customHeight="1">
       <c r="B17" s="10" t="s">
         <v>10</v>
       </c>
@@ -3203,45 +3413,45 @@
         <v>21</v>
       </c>
       <c r="G17" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>128.83500000000001</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22.995000000000001</v>
       </c>
       <c r="I17" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>141.07432499999999</v>
       </c>
       <c r="J17" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>170.23547374999998</v>
       </c>
       <c r="K17" s="9">
         <v>179</v>
       </c>
       <c r="L17" s="78">
-        <f>K17-I17</f>
+        <f t="shared" si="9"/>
         <v>37.925675000000012</v>
       </c>
-      <c r="M17" s="94"/>
+      <c r="M17" s="119"/>
       <c r="N17" s="13"/>
       <c r="O17" s="11"/>
       <c r="P17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16.096499999999999</v>
       </c>
       <c r="Q17" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>126.30927499999999</v>
       </c>
-      <c r="R17" s="120">
+      <c r="R17" s="113">
         <v>129</v>
       </c>
       <c r="S17" s="14"/>
     </row>
-    <row r="18" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" ht="22" customHeight="1">
       <c r="B18" s="10" t="s">
         <v>10</v>
       </c>
@@ -3258,29 +3468,29 @@
         <v>35</v>
       </c>
       <c r="G18" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>214.72499999999999</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38.324999999999996</v>
       </c>
       <c r="I18" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>235.12387499999997</v>
       </c>
       <c r="J18" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>278.39245624999995</v>
       </c>
       <c r="K18" s="9">
         <v>279</v>
       </c>
       <c r="L18" s="78">
-        <f>K18-I18</f>
+        <f t="shared" si="9"/>
         <v>43.87612500000003</v>
       </c>
-      <c r="M18" s="94"/>
+      <c r="M18" s="119"/>
       <c r="N18" s="13">
         <v>330</v>
       </c>
@@ -3288,19 +3498,19 @@
         <v>85</v>
       </c>
       <c r="P18" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26.827499999999997</v>
       </c>
       <c r="Q18" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>205.18212499999998</v>
       </c>
-      <c r="R18" s="120">
+      <c r="R18" s="113">
         <v>209</v>
       </c>
       <c r="S18" s="14"/>
     </row>
-    <row r="19" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" ht="22" customHeight="1">
       <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
@@ -3317,29 +3527,29 @@
         <v>49.5</v>
       </c>
       <c r="G19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>303.6825</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>54.202500000000001</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>332.53233749999998</v>
       </c>
       <c r="J19" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>390.41218812499994</v>
       </c>
       <c r="K19" s="9">
         <v>399</v>
       </c>
       <c r="L19" s="78">
-        <f>K19-I19</f>
+        <f t="shared" si="9"/>
         <v>66.467662500000017</v>
       </c>
-      <c r="M19" s="94"/>
+      <c r="M19" s="119"/>
       <c r="N19" s="13">
         <v>520</v>
       </c>
@@ -3347,19 +3557,19 @@
         <v>86</v>
       </c>
       <c r="P19" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37.941749999999999</v>
       </c>
       <c r="Q19" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>286.87186249999996</v>
       </c>
-      <c r="R19" s="120">
+      <c r="R19" s="113">
         <v>289</v>
       </c>
       <c r="S19" s="14"/>
     </row>
-    <row r="20" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" ht="22" customHeight="1">
       <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
@@ -3376,47 +3586,47 @@
         <v>76</v>
       </c>
       <c r="G20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>466.26</v>
       </c>
       <c r="H20" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83.22</v>
       </c>
       <c r="I20" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>510.55469999999997</v>
       </c>
       <c r="J20" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>595.13790499999993</v>
       </c>
       <c r="K20" s="83">
         <v>579</v>
       </c>
       <c r="L20" s="78">
-        <f>K20-I20</f>
+        <f t="shared" si="9"/>
         <v>68.445300000000032</v>
       </c>
-      <c r="M20" s="94"/>
+      <c r="M20" s="119"/>
       <c r="N20" s="13"/>
       <c r="O20" s="11">
         <v>509</v>
       </c>
       <c r="P20" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>58.253999999999998</v>
       </c>
       <c r="Q20" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>436.1669</v>
       </c>
-      <c r="R20" s="120">
+      <c r="R20" s="113">
         <v>439</v>
       </c>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" ht="22" customHeight="1">
       <c r="B21" s="10" t="s">
         <v>10</v>
       </c>
@@ -3433,29 +3643,29 @@
         <v>46</v>
       </c>
       <c r="G21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>282.20999999999998</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.37</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>309.01994999999999</v>
       </c>
       <c r="J21" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>363.37294249999997</v>
       </c>
       <c r="K21" s="83">
         <v>359</v>
       </c>
       <c r="L21" s="78">
-        <f>K21-I21</f>
+        <f t="shared" si="9"/>
         <v>49.980050000000006</v>
       </c>
-      <c r="M21" s="94"/>
+      <c r="M21" s="119"/>
       <c r="N21" s="13">
         <v>450</v>
       </c>
@@ -3463,19 +3673,19 @@
         <v>87</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35.258999999999993</v>
       </c>
       <c r="Q21" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>267.15364999999991</v>
       </c>
-      <c r="R21" s="120">
+      <c r="R21" s="113">
         <v>279</v>
       </c>
       <c r="S21" s="14"/>
     </row>
-    <row r="22" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" ht="22" customHeight="1">
       <c r="B22" s="10" t="s">
         <v>10</v>
       </c>
@@ -3492,45 +3702,45 @@
         <v>70</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>429.45</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>76.649999999999991</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>470.24774999999994</v>
       </c>
       <c r="J22" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>548.7849124999999</v>
       </c>
       <c r="K22" s="83">
         <v>539</v>
       </c>
       <c r="L22" s="78">
-        <f>K22-I22</f>
+        <f t="shared" si="9"/>
         <v>68.75225000000006</v>
       </c>
-      <c r="M22" s="94"/>
+      <c r="M22" s="119"/>
       <c r="N22" s="13"/>
       <c r="O22" s="11"/>
       <c r="P22" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53.654999999999994</v>
       </c>
       <c r="Q22" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>402.36424999999997</v>
       </c>
-      <c r="R22" s="120">
+      <c r="R22" s="113">
         <v>409</v>
       </c>
       <c r="S22" s="14"/>
     </row>
-    <row r="23" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" ht="22" customHeight="1">
       <c r="B23" s="10" t="s">
         <v>10</v>
       </c>
@@ -3547,47 +3757,47 @@
         <v>7</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.945</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.665</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.024774999999998</v>
       </c>
       <c r="J23" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.078491249999992</v>
       </c>
       <c r="K23" s="9">
         <v>69</v>
       </c>
       <c r="L23" s="78">
-        <f>K23-I23</f>
+        <f t="shared" si="9"/>
         <v>21.975225000000002</v>
       </c>
-      <c r="M23" s="94"/>
+      <c r="M23" s="119"/>
       <c r="N23" s="13"/>
       <c r="O23" s="11">
         <v>65</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.3654999999999999</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.436424999999993</v>
       </c>
-      <c r="R23" s="120">
+      <c r="R23" s="113">
         <v>49</v>
       </c>
       <c r="S23" s="14"/>
     </row>
-    <row r="24" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" ht="22" customHeight="1">
       <c r="B24" s="10" t="s">
         <v>10</v>
       </c>
@@ -3604,29 +3814,29 @@
         <v>18</v>
       </c>
       <c r="G24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>110.42999999999999</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.71</v>
       </c>
       <c r="I24" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>120.92085</v>
       </c>
       <c r="J24" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>147.0589775</v>
       </c>
       <c r="K24" s="9">
         <v>149</v>
       </c>
       <c r="L24" s="78">
-        <f>K24-I24</f>
+        <f t="shared" si="9"/>
         <v>28.079149999999998</v>
       </c>
-      <c r="M24" s="94"/>
+      <c r="M24" s="119"/>
       <c r="N24" s="13">
         <v>180</v>
       </c>
@@ -3634,19 +3844,19 @@
         <v>88</v>
       </c>
       <c r="P24" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.797000000000001</v>
       </c>
       <c r="Q24" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>109.40795</v>
       </c>
-      <c r="R24" s="120">
+      <c r="R24" s="113">
         <v>119</v>
       </c>
       <c r="S24" s="14"/>
     </row>
-    <row r="25" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" ht="22" customHeight="1">
       <c r="B25" s="10" t="s">
         <v>10</v>
       </c>
@@ -3663,29 +3873,29 @@
         <v>28</v>
       </c>
       <c r="G25" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>171.78</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.66</v>
       </c>
       <c r="I25" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>188.09909999999999</v>
       </c>
       <c r="J25" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>224.31396499999997</v>
       </c>
       <c r="K25" s="9">
         <v>239</v>
       </c>
       <c r="L25" s="78">
-        <f>K25-I25</f>
+        <f t="shared" si="9"/>
         <v>50.900900000000007</v>
       </c>
-      <c r="M25" s="94"/>
+      <c r="M25" s="119"/>
       <c r="N25" s="13">
         <v>340</v>
       </c>
@@ -3693,19 +3903,19 @@
         <v>89</v>
       </c>
       <c r="P25" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>21.462</v>
       </c>
       <c r="Q25" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165.74569999999997</v>
       </c>
-      <c r="R25" s="120">
+      <c r="R25" s="113">
         <v>179</v>
       </c>
       <c r="S25" s="14"/>
     </row>
-    <row r="26" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" ht="22" customHeight="1">
       <c r="B26" s="10" t="s">
         <v>10</v>
       </c>
@@ -3722,45 +3932,45 @@
         <v>7</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42.945</v>
       </c>
       <c r="H26" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.665</v>
       </c>
       <c r="I26" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47.024774999999998</v>
       </c>
       <c r="J26" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62.078491249999992</v>
       </c>
       <c r="K26" s="9">
         <v>69</v>
       </c>
       <c r="L26" s="78">
-        <f>K26-I26</f>
+        <f t="shared" si="9"/>
         <v>21.975225000000002</v>
       </c>
-      <c r="M26" s="94"/>
+      <c r="M26" s="119"/>
       <c r="N26" s="13"/>
       <c r="O26" s="11"/>
       <c r="P26" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.3654999999999999</v>
       </c>
       <c r="Q26" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>47.436424999999993</v>
       </c>
-      <c r="R26" s="120">
+      <c r="R26" s="113">
         <v>49</v>
       </c>
       <c r="S26" s="14"/>
     </row>
-    <row r="27" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" ht="22" customHeight="1">
       <c r="B27" s="10" t="s">
         <v>10</v>
       </c>
@@ -3777,29 +3987,29 @@
         <v>19</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>116.565</v>
       </c>
       <c r="H27" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20.805</v>
       </c>
       <c r="I27" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>127.63867499999999</v>
       </c>
       <c r="J27" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154.78447624999998</v>
       </c>
       <c r="K27" s="9">
         <v>159</v>
       </c>
       <c r="L27" s="78">
-        <f>K27-I27</f>
+        <f t="shared" si="9"/>
         <v>31.361325000000008</v>
       </c>
-      <c r="M27" s="94"/>
+      <c r="M27" s="119"/>
       <c r="N27" s="13">
         <v>220</v>
       </c>
@@ -3807,19 +4017,19 @@
         <v>91</v>
       </c>
       <c r="P27" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14.563499999999999</v>
       </c>
       <c r="Q27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.041725</v>
       </c>
-      <c r="R27" s="120">
+      <c r="R27" s="113">
         <v>119</v>
       </c>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" ht="22" customHeight="1">
       <c r="B28" s="10" t="s">
         <v>10</v>
       </c>
@@ -3836,29 +4046,29 @@
         <v>30</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>184.04999999999998</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32.85</v>
       </c>
       <c r="I28" s="13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>201.53475</v>
       </c>
       <c r="J28" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>239.7649625</v>
       </c>
       <c r="K28" s="9">
         <v>259</v>
       </c>
       <c r="L28" s="78">
-        <f>K28-I28</f>
+        <f t="shared" si="9"/>
         <v>57.465249999999997</v>
       </c>
-      <c r="M28" s="95"/>
+      <c r="M28" s="120"/>
       <c r="N28" s="13">
         <v>360</v>
       </c>
@@ -3866,19 +4076,19 @@
         <v>90</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22.995000000000001</v>
       </c>
       <c r="Q28" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>177.01325</v>
       </c>
-      <c r="R28" s="120">
+      <c r="R28" s="113">
         <v>179</v>
       </c>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" ht="22" customHeight="1">
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -3895,13 +4105,13 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R29" s="120"/>
+      <c r="R29" s="113"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" ht="22" customHeight="1">
       <c r="B30" s="10" t="s">
         <v>12</v>
       </c>
@@ -3918,29 +4128,29 @@
         <v>62</v>
       </c>
       <c r="G30" s="13">
-        <f t="shared" ref="G30:G36" si="9">F30*6.135</f>
+        <f t="shared" ref="G30:G36" si="11">F30*6.135</f>
         <v>380.37</v>
       </c>
       <c r="H30" s="12">
-        <f t="shared" ref="H30:H36" si="10">F30*(1+0.095)</f>
+        <f t="shared" ref="H30:H36" si="12">F30*(1+0.095)</f>
         <v>67.89</v>
       </c>
       <c r="I30" s="13">
-        <f t="shared" ref="I30:I36" si="11">H30*6.135</f>
+        <f t="shared" ref="I30:I36" si="13">H30*6.135</f>
         <v>416.50515000000001</v>
       </c>
       <c r="J30" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>486.98092249999996</v>
       </c>
       <c r="K30" s="9">
         <v>489</v>
       </c>
       <c r="L30" s="78">
-        <f>K30-I30</f>
+        <f t="shared" ref="L30:L36" si="14">K30-I30</f>
         <v>72.494849999999985</v>
       </c>
-      <c r="M30" s="92" t="s">
+      <c r="M30" s="117" t="s">
         <v>46</v>
       </c>
       <c r="N30" s="13">
@@ -3951,13 +4161,13 @@
       </c>
       <c r="P30" s="11"/>
       <c r="Q30" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R30" s="120"/>
+      <c r="R30" s="113"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" ht="22" customHeight="1">
       <c r="B31" s="10" t="s">
         <v>12</v>
       </c>
@@ -3974,29 +4184,29 @@
         <v>92</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>564.41999999999996</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>100.74</v>
       </c>
       <c r="I31" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>618.03989999999999</v>
       </c>
       <c r="J31" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>718.74588499999993</v>
       </c>
       <c r="K31" s="9">
         <v>719</v>
       </c>
       <c r="L31" s="78">
-        <f>K31-I31</f>
+        <f t="shared" si="14"/>
         <v>100.96010000000001</v>
       </c>
-      <c r="M31" s="92"/>
+      <c r="M31" s="117"/>
       <c r="N31" s="13">
         <v>950</v>
       </c>
@@ -4005,13 +4215,13 @@
       </c>
       <c r="P31" s="11"/>
       <c r="Q31" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R31" s="120"/>
+      <c r="R31" s="113"/>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" ht="22" customHeight="1">
       <c r="B32" s="10" t="s">
         <v>12</v>
       </c>
@@ -4028,29 +4238,29 @@
         <v>58</v>
       </c>
       <c r="G32" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>355.83</v>
       </c>
       <c r="H32" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>63.51</v>
       </c>
       <c r="I32" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>389.63385</v>
       </c>
       <c r="J32" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>456.07892749999996</v>
       </c>
       <c r="K32" s="9">
         <v>449</v>
       </c>
       <c r="L32" s="78">
-        <f>K32-I32</f>
+        <f t="shared" si="14"/>
         <v>59.366150000000005</v>
       </c>
-      <c r="M32" s="92"/>
+      <c r="M32" s="117"/>
       <c r="N32" s="13">
         <v>560</v>
       </c>
@@ -4059,13 +4269,13 @@
       </c>
       <c r="P32" s="11"/>
       <c r="Q32" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R32" s="120"/>
+      <c r="R32" s="113"/>
       <c r="S32" s="14"/>
     </row>
-    <row r="33" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:19" ht="22" customHeight="1">
       <c r="B33" s="10" t="s">
         <v>12</v>
       </c>
@@ -4082,29 +4292,29 @@
         <v>65</v>
       </c>
       <c r="G33" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>398.77499999999998</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>71.174999999999997</v>
       </c>
       <c r="I33" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>436.65862499999997</v>
       </c>
       <c r="J33" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>510.15741874999992</v>
       </c>
       <c r="K33" s="9">
         <v>510</v>
       </c>
       <c r="L33" s="78">
-        <f>K33-I33</f>
+        <f t="shared" si="14"/>
         <v>73.341375000000028</v>
       </c>
-      <c r="M33" s="92"/>
+      <c r="M33" s="117"/>
       <c r="N33" s="13">
         <v>650</v>
       </c>
@@ -4113,13 +4323,13 @@
       </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R33" s="120"/>
+      <c r="R33" s="113"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:19" ht="22" customHeight="1">
       <c r="B34" s="10" t="s">
         <v>12</v>
       </c>
@@ -4136,42 +4346,42 @@
         <v>30</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>184.04999999999998</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>32.85</v>
       </c>
       <c r="I34" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>201.53475</v>
       </c>
       <c r="J34" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>239.7649625</v>
       </c>
       <c r="K34" s="9">
         <v>249</v>
       </c>
       <c r="L34" s="78">
-        <f>K34-I34</f>
+        <f t="shared" si="14"/>
         <v>47.465249999999997</v>
       </c>
-      <c r="M34" s="92"/>
+      <c r="M34" s="117"/>
       <c r="N34" s="13">
         <v>280</v>
       </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R34" s="120"/>
+      <c r="R34" s="113"/>
       <c r="S34" s="14"/>
     </row>
-    <row r="35" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:19" ht="22" customHeight="1">
       <c r="B35" s="10" t="s">
         <v>12</v>
       </c>
@@ -4188,29 +4398,29 @@
         <v>55</v>
       </c>
       <c r="G35" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>337.42500000000001</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>60.225000000000001</v>
       </c>
       <c r="I35" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>369.48037499999998</v>
       </c>
       <c r="J35" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>432.90243124999995</v>
       </c>
       <c r="K35" s="9">
         <v>409</v>
       </c>
       <c r="L35" s="78">
-        <f>K35-I35</f>
+        <f t="shared" si="14"/>
         <v>39.519625000000019</v>
       </c>
-      <c r="M35" s="92"/>
+      <c r="M35" s="117"/>
       <c r="N35" s="13">
         <v>480</v>
       </c>
@@ -4219,13 +4429,13 @@
       </c>
       <c r="P35" s="11"/>
       <c r="Q35" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R35" s="120"/>
+      <c r="R35" s="113"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:19" ht="22" customHeight="1">
       <c r="B36" s="10" t="s">
         <v>12</v>
       </c>
@@ -4242,29 +4452,29 @@
         <v>60</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>368.09999999999997</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>65.7</v>
       </c>
       <c r="I36" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>403.06950000000001</v>
       </c>
       <c r="J36" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>471.52992499999999</v>
       </c>
       <c r="K36" s="84">
         <v>459</v>
       </c>
       <c r="L36" s="78">
-        <f>K36-I36</f>
+        <f t="shared" si="14"/>
         <v>55.930499999999995</v>
       </c>
-      <c r="M36" s="92"/>
+      <c r="M36" s="117"/>
       <c r="N36" s="13">
         <v>590</v>
       </c>
@@ -4273,13 +4483,13 @@
       </c>
       <c r="P36" s="11"/>
       <c r="Q36" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R36" s="120"/>
+      <c r="R36" s="113"/>
       <c r="S36" s="14"/>
     </row>
-    <row r="37" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:19" ht="22" customHeight="1">
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -4296,13 +4506,13 @@
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R37" s="120"/>
+      <c r="R37" s="113"/>
       <c r="S37" s="14"/>
     </row>
-    <row r="38" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:19" ht="22" customHeight="1">
       <c r="B38" s="10" t="s">
         <v>13</v>
       </c>
@@ -4319,7 +4529,7 @@
         <v>17</v>
       </c>
       <c r="G38" s="13">
-        <f t="shared" ref="G38:G43" si="12">F38*6.135</f>
+        <f t="shared" ref="G38:G43" si="15">F38*6.135</f>
         <v>104.295</v>
       </c>
       <c r="H38" s="12">
@@ -4327,21 +4537,21 @@
         <v>18.614999999999998</v>
       </c>
       <c r="I38" s="13">
-        <f t="shared" ref="I38:I43" si="13">H38*6.135</f>
+        <f t="shared" ref="I38:I43" si="16">H38*6.135</f>
         <v>114.20302499999998</v>
       </c>
       <c r="J38" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>139.33347874999998</v>
       </c>
       <c r="K38" s="9">
         <v>139</v>
       </c>
       <c r="L38" s="78">
-        <f>K38-I38</f>
+        <f t="shared" ref="L38:L43" si="17">K38-I38</f>
         <v>24.796975000000018</v>
       </c>
-      <c r="M38" s="92" t="s">
+      <c r="M38" s="117" t="s">
         <v>45</v>
       </c>
       <c r="N38" s="21">
@@ -4352,13 +4562,13 @@
       </c>
       <c r="P38" s="11"/>
       <c r="Q38" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R38" s="120"/>
+      <c r="R38" s="113"/>
       <c r="S38" s="14"/>
     </row>
-    <row r="39" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:19" ht="22" customHeight="1">
       <c r="B39" s="10" t="s">
         <v>13</v>
       </c>
@@ -4375,7 +4585,7 @@
         <v>14</v>
       </c>
       <c r="G39" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>85.89</v>
       </c>
       <c r="H39" s="12">
@@ -4383,21 +4593,21 @@
         <v>15.33</v>
       </c>
       <c r="I39" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>94.049549999999996</v>
       </c>
       <c r="J39" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116.15698249999998</v>
       </c>
       <c r="K39" s="9">
         <v>119</v>
       </c>
       <c r="L39" s="78">
-        <f>K39-I39</f>
+        <f t="shared" si="17"/>
         <v>24.950450000000004</v>
       </c>
-      <c r="M39" s="92"/>
+      <c r="M39" s="117"/>
       <c r="N39" s="13">
         <v>160</v>
       </c>
@@ -4406,13 +4616,13 @@
       </c>
       <c r="P39" s="11"/>
       <c r="Q39" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R39" s="120"/>
+      <c r="R39" s="113"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:19" ht="22" customHeight="1">
       <c r="B40" s="10" t="s">
         <v>13</v>
       </c>
@@ -4429,7 +4639,7 @@
         <v>14.5</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>88.957499999999996</v>
       </c>
       <c r="H40" s="12">
@@ -4437,34 +4647,34 @@
         <v>15.8775</v>
       </c>
       <c r="I40" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>97.408462499999999</v>
       </c>
       <c r="J40" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120.01973187499999</v>
       </c>
       <c r="K40" s="9">
         <v>119</v>
       </c>
       <c r="L40" s="78">
-        <f>K40-I40</f>
+        <f t="shared" si="17"/>
         <v>21.591537500000001</v>
       </c>
-      <c r="M40" s="92"/>
+      <c r="M40" s="117"/>
       <c r="N40" s="13"/>
       <c r="O40" s="11" t="s">
         <v>136</v>
       </c>
       <c r="P40" s="11"/>
       <c r="Q40" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R40" s="120"/>
+      <c r="R40" s="113"/>
       <c r="S40" s="14"/>
     </row>
-    <row r="41" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:19" ht="22" customHeight="1">
       <c r="B41" s="10" t="s">
         <v>13</v>
       </c>
@@ -4481,7 +4691,7 @@
         <v>26</v>
       </c>
       <c r="G41" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>159.51</v>
       </c>
       <c r="H41" s="12">
@@ -4489,21 +4699,21 @@
         <v>28.47</v>
       </c>
       <c r="I41" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>174.66344999999998</v>
       </c>
       <c r="J41" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208.86296749999997</v>
       </c>
       <c r="K41" s="9">
         <v>209</v>
       </c>
       <c r="L41" s="78">
-        <f>K41-I41</f>
+        <f t="shared" si="17"/>
         <v>34.336550000000017</v>
       </c>
-      <c r="M41" s="92"/>
+      <c r="M41" s="117"/>
       <c r="N41" s="13">
         <v>340</v>
       </c>
@@ -4512,13 +4722,13 @@
       </c>
       <c r="P41" s="11"/>
       <c r="Q41" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R41" s="120"/>
+      <c r="R41" s="113"/>
       <c r="S41" s="14"/>
     </row>
-    <row r="42" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:19" ht="22" customHeight="1">
       <c r="B42" s="10" t="s">
         <v>13</v>
       </c>
@@ -4535,7 +4745,7 @@
         <v>14.5</v>
       </c>
       <c r="G42" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>88.957499999999996</v>
       </c>
       <c r="H42" s="12">
@@ -4543,34 +4753,34 @@
         <v>15.8775</v>
       </c>
       <c r="I42" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>97.408462499999999</v>
       </c>
       <c r="J42" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120.01973187499999</v>
       </c>
       <c r="K42" s="9">
         <v>119</v>
       </c>
       <c r="L42" s="78">
-        <f>K42-I42</f>
+        <f t="shared" si="17"/>
         <v>21.591537500000001</v>
       </c>
-      <c r="M42" s="92"/>
+      <c r="M42" s="117"/>
       <c r="N42" s="13"/>
       <c r="O42" s="11" t="s">
         <v>137</v>
       </c>
       <c r="P42" s="11"/>
       <c r="Q42" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R42" s="120"/>
+      <c r="R42" s="113"/>
       <c r="S42" s="14"/>
     </row>
-    <row r="43" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:19" ht="22" customHeight="1">
       <c r="B43" s="10" t="s">
         <v>13</v>
       </c>
@@ -4587,7 +4797,7 @@
         <v>26</v>
       </c>
       <c r="G43" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>159.51</v>
       </c>
       <c r="H43" s="12">
@@ -4595,21 +4805,21 @@
         <v>28.47</v>
       </c>
       <c r="I43" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>174.66344999999998</v>
       </c>
       <c r="J43" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208.86296749999997</v>
       </c>
       <c r="K43" s="9">
         <v>209</v>
       </c>
       <c r="L43" s="78">
-        <f>K43-I43</f>
+        <f t="shared" si="17"/>
         <v>34.336550000000017</v>
       </c>
-      <c r="M43" s="92"/>
+      <c r="M43" s="117"/>
       <c r="N43" s="13">
         <v>340</v>
       </c>
@@ -4618,13 +4828,13 @@
       </c>
       <c r="P43" s="11"/>
       <c r="Q43" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R43" s="120"/>
+      <c r="R43" s="113"/>
       <c r="S43" s="14"/>
     </row>
-    <row r="44" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:19" ht="22" customHeight="1">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -4641,13 +4851,13 @@
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R44" s="120"/>
+      <c r="R44" s="113"/>
       <c r="S44" s="14"/>
     </row>
-    <row r="45" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:19" ht="22" customHeight="1">
       <c r="B45" s="10" t="s">
         <v>11</v>
       </c>
@@ -4664,29 +4874,29 @@
         <v>25</v>
       </c>
       <c r="G45" s="13">
-        <f t="shared" ref="G45:G50" si="14">F45*6.135</f>
+        <f t="shared" ref="G45:G50" si="18">F45*6.135</f>
         <v>153.375</v>
       </c>
       <c r="H45" s="12">
-        <f t="shared" ref="H45:H50" si="15">F45*(1+0.095)</f>
+        <f t="shared" ref="H45:H50" si="19">F45*(1+0.095)</f>
         <v>27.375</v>
       </c>
       <c r="I45" s="13">
-        <f t="shared" ref="I45:I50" si="16">H45*6.135</f>
+        <f t="shared" ref="I45:I50" si="20">H45*6.135</f>
         <v>167.94562500000001</v>
       </c>
       <c r="J45" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201.13746874999998</v>
       </c>
       <c r="K45" s="9">
         <v>229</v>
       </c>
       <c r="L45" s="78">
-        <f>K45-I45</f>
+        <f t="shared" ref="L45:L50" si="21">K45-I45</f>
         <v>61.054374999999993</v>
       </c>
-      <c r="M45" s="93" t="s">
+      <c r="M45" s="118" t="s">
         <v>141</v>
       </c>
       <c r="N45" s="13">
@@ -4695,13 +4905,13 @@
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R45" s="120"/>
+      <c r="R45" s="113"/>
       <c r="S45" s="14"/>
     </row>
-    <row r="46" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:19" ht="22" customHeight="1">
       <c r="B46" s="10" t="s">
         <v>11</v>
       </c>
@@ -4718,40 +4928,40 @@
         <v>36</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>220.85999999999999</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>39.42</v>
       </c>
       <c r="I46" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>241.8417</v>
       </c>
       <c r="J46" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>286.11795499999999</v>
       </c>
       <c r="K46" s="83">
         <v>279</v>
       </c>
       <c r="L46" s="78">
-        <f>K46-I46</f>
+        <f t="shared" si="21"/>
         <v>37.158299999999997</v>
       </c>
-      <c r="M46" s="94"/>
+      <c r="M46" s="119"/>
       <c r="N46" s="13"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R46" s="120"/>
+      <c r="R46" s="113"/>
       <c r="S46" s="14"/>
     </row>
-    <row r="47" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:19" ht="22" customHeight="1">
       <c r="B47" s="10" t="s">
         <v>11</v>
       </c>
@@ -4768,29 +4978,29 @@
         <v>43</v>
       </c>
       <c r="G47" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>263.80500000000001</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>47.085000000000001</v>
       </c>
       <c r="I47" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>288.86647499999998</v>
       </c>
       <c r="J47" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>340.19644624999995</v>
       </c>
       <c r="K47" s="83">
         <v>329</v>
       </c>
       <c r="L47" s="78">
-        <f>K47-I47</f>
+        <f t="shared" si="21"/>
         <v>40.13352500000002</v>
       </c>
-      <c r="M47" s="94"/>
+      <c r="M47" s="119"/>
       <c r="N47" s="13">
         <v>320</v>
       </c>
@@ -4799,13 +5009,13 @@
       </c>
       <c r="P47" s="11"/>
       <c r="Q47" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R47" s="120"/>
+      <c r="R47" s="113"/>
       <c r="S47" s="14"/>
     </row>
-    <row r="48" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:19" ht="22" customHeight="1">
       <c r="B48" s="10" t="s">
         <v>11</v>
       </c>
@@ -4822,29 +5032,29 @@
         <v>65</v>
       </c>
       <c r="G48" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>398.77499999999998</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71.174999999999997</v>
       </c>
       <c r="I48" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>436.65862499999997</v>
       </c>
       <c r="J48" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>510.15741874999992</v>
       </c>
       <c r="K48" s="83">
         <v>479</v>
       </c>
       <c r="L48" s="78">
-        <f>K48-I48</f>
+        <f t="shared" si="21"/>
         <v>42.341375000000028</v>
       </c>
-      <c r="M48" s="94"/>
+      <c r="M48" s="119"/>
       <c r="N48" s="13">
         <v>560</v>
       </c>
@@ -4853,13 +5063,13 @@
       </c>
       <c r="P48" s="11"/>
       <c r="Q48" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R48" s="120"/>
+      <c r="R48" s="113"/>
       <c r="S48" s="14"/>
     </row>
-    <row r="49" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:19" ht="22" customHeight="1">
       <c r="B49" s="10" t="s">
         <v>11</v>
       </c>
@@ -4876,42 +5086,42 @@
         <v>84</v>
       </c>
       <c r="G49" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>515.34</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>91.98</v>
       </c>
       <c r="I49" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>564.29729999999995</v>
       </c>
       <c r="J49" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>656.94189499999993</v>
       </c>
       <c r="K49" s="83">
         <v>639</v>
       </c>
       <c r="L49" s="78">
-        <f>K49-I49</f>
+        <f t="shared" si="21"/>
         <v>74.70270000000005</v>
       </c>
-      <c r="M49" s="94"/>
+      <c r="M49" s="119"/>
       <c r="N49" s="13">
         <v>780</v>
       </c>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R49" s="120"/>
+      <c r="R49" s="113"/>
       <c r="S49" s="14"/>
     </row>
-    <row r="50" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:19" ht="22" customHeight="1">
       <c r="B50" s="10" t="s">
         <v>11</v>
       </c>
@@ -4928,29 +5138,29 @@
         <v>104</v>
       </c>
       <c r="G50" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>638.04</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>113.88</v>
       </c>
       <c r="I50" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>698.65379999999993</v>
       </c>
       <c r="J50" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>811.45186999999987</v>
       </c>
       <c r="K50" s="83">
         <v>769</v>
       </c>
       <c r="L50" s="78">
-        <f>K50-I50</f>
+        <f t="shared" si="21"/>
         <v>70.346200000000067</v>
       </c>
-      <c r="M50" s="94"/>
+      <c r="M50" s="119"/>
       <c r="N50" s="13">
         <v>1080</v>
       </c>
@@ -4959,13 +5169,13 @@
       </c>
       <c r="P50" s="11"/>
       <c r="Q50" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R50" s="120"/>
+      <c r="R50" s="113"/>
       <c r="S50" s="14"/>
     </row>
-    <row r="51" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:19" ht="22" customHeight="1">
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -4982,10 +5192,10 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
-      <c r="R51" s="120"/>
+      <c r="R51" s="113"/>
       <c r="S51" s="14"/>
     </row>
-    <row r="52" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:19" ht="22" customHeight="1">
       <c r="B52" s="10" t="s">
         <v>15</v>
       </c>
@@ -5014,7 +5224,7 @@
         <v>67.178249999999991</v>
       </c>
       <c r="J52" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85.254987499999984</v>
       </c>
       <c r="K52" s="9">
@@ -5034,15 +5244,15 @@
         <v>8.76</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72.385999999999996</v>
       </c>
-      <c r="R52" s="120">
+      <c r="R52" s="113">
         <v>79</v>
       </c>
       <c r="S52" s="14"/>
     </row>
-    <row r="53" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:19" ht="22" customHeight="1">
       <c r="B53" s="10" t="s">
         <v>15</v>
       </c>
@@ -5071,7 +5281,7 @@
         <v>154.509975</v>
       </c>
       <c r="J53" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>185.68647124999998</v>
       </c>
       <c r="K53" s="9">
@@ -5089,19 +5299,19 @@
         <v>143</v>
       </c>
       <c r="P53" s="12">
-        <f t="shared" ref="P53:P55" si="17">H53*0.8</f>
+        <f t="shared" ref="P53:P55" si="22">H53*0.8</f>
         <v>20.148</v>
       </c>
       <c r="Q53" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>156.08779999999999</v>
       </c>
-      <c r="R53" s="120">
+      <c r="R53" s="113">
         <v>159</v>
       </c>
       <c r="S53" s="14"/>
     </row>
-    <row r="54" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:19" ht="22" customHeight="1">
       <c r="B54" s="10" t="s">
         <v>15</v>
       </c>
@@ -5130,7 +5340,7 @@
         <v>201.53475</v>
       </c>
       <c r="J54" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>239.7649625</v>
       </c>
       <c r="K54" s="9">
@@ -5146,19 +5356,19 @@
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>26.28</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>201.15799999999999</v>
       </c>
-      <c r="R54" s="120">
+      <c r="R54" s="113">
         <v>205</v>
       </c>
       <c r="S54" s="14"/>
     </row>
-    <row r="55" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:19" ht="22" customHeight="1">
       <c r="B55" s="10" t="s">
         <v>15</v>
       </c>
@@ -5187,7 +5397,7 @@
         <v>282.14864999999998</v>
       </c>
       <c r="J55" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>332.47094749999997</v>
       </c>
       <c r="K55" s="9">
@@ -5205,19 +5415,19 @@
         <v>144</v>
       </c>
       <c r="P55" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>36.792000000000002</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>278.4212</v>
       </c>
-      <c r="R55" s="120">
+      <c r="R55" s="113">
         <v>279</v>
       </c>
       <c r="S55" s="14"/>
     </row>
-    <row r="56" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:19" ht="22" customHeight="1">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -5234,10 +5444,10 @@
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
-      <c r="R56" s="120"/>
+      <c r="R56" s="113"/>
       <c r="S56" s="14"/>
     </row>
-    <row r="57" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:19" ht="22" customHeight="1">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -5254,26 +5464,26 @@
         <v>25</v>
       </c>
       <c r="G57" s="13">
-        <f t="shared" ref="G57:G63" si="18">F57*6.135</f>
+        <f t="shared" ref="G57:G63" si="23">F57*6.135</f>
         <v>153.375</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" ref="H57:H63" si="19">F57*(1+0.095)</f>
+        <f t="shared" ref="H57:H63" si="24">F57*(1+0.095)</f>
         <v>27.375</v>
       </c>
       <c r="I57" s="13">
-        <f t="shared" ref="I57:I63" si="20">H57*6.135</f>
+        <f t="shared" ref="I57:I63" si="25">H57*6.135</f>
         <v>167.94562500000001</v>
       </c>
       <c r="J57" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201.13746874999998</v>
       </c>
       <c r="K57" s="9">
         <v>209</v>
       </c>
       <c r="L57" s="78">
-        <f>K57-I57</f>
+        <f t="shared" ref="L57:L68" si="26">K57-I57</f>
         <v>41.054374999999993</v>
       </c>
       <c r="M57" s="11"/>
@@ -5285,13 +5495,13 @@
       </c>
       <c r="P57" s="11"/>
       <c r="Q57" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R57" s="120"/>
+      <c r="R57" s="113"/>
       <c r="S57" s="14"/>
     </row>
-    <row r="58" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:19" ht="22" customHeight="1">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -5308,26 +5518,26 @@
         <v>25</v>
       </c>
       <c r="G58" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>153.375</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>27.375</v>
       </c>
       <c r="I58" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>167.94562500000001</v>
       </c>
       <c r="J58" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201.13746874999998</v>
       </c>
       <c r="K58" s="9">
         <v>209</v>
       </c>
       <c r="L58" s="78">
-        <f>K58-I58</f>
+        <f t="shared" si="26"/>
         <v>41.054374999999993</v>
       </c>
       <c r="M58" s="11"/>
@@ -5339,13 +5549,13 @@
       </c>
       <c r="P58" s="11"/>
       <c r="Q58" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R58" s="120"/>
+      <c r="R58" s="113"/>
       <c r="S58" s="14"/>
     </row>
-    <row r="59" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:19" ht="22" customHeight="1">
       <c r="B59" s="10" t="s">
         <v>16</v>
       </c>
@@ -5362,26 +5572,26 @@
         <v>25</v>
       </c>
       <c r="G59" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>153.375</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>27.375</v>
       </c>
       <c r="I59" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>167.94562500000001</v>
       </c>
       <c r="J59" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201.13746874999998</v>
       </c>
       <c r="K59" s="9">
         <v>209</v>
       </c>
       <c r="L59" s="78">
-        <f>K59-I59</f>
+        <f t="shared" si="26"/>
         <v>41.054374999999993</v>
       </c>
       <c r="M59" s="11"/>
@@ -5393,13 +5603,13 @@
       </c>
       <c r="P59" s="11"/>
       <c r="Q59" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R59" s="120"/>
+      <c r="R59" s="113"/>
       <c r="S59" s="14"/>
     </row>
-    <row r="60" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:19" ht="22" customHeight="1">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -5416,26 +5626,26 @@
         <v>31</v>
       </c>
       <c r="G60" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>190.185</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>33.945</v>
       </c>
       <c r="I60" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>208.25257500000001</v>
       </c>
       <c r="J60" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>247.49046124999998</v>
       </c>
       <c r="K60" s="9">
         <v>249</v>
       </c>
       <c r="L60" s="78">
-        <f>K60-I60</f>
+        <f t="shared" si="26"/>
         <v>40.747424999999993</v>
       </c>
       <c r="M60" s="11"/>
@@ -5447,13 +5657,13 @@
       </c>
       <c r="P60" s="11"/>
       <c r="Q60" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R60" s="120"/>
+      <c r="R60" s="113"/>
       <c r="S60" s="14"/>
     </row>
-    <row r="61" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:19" ht="22" customHeight="1">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -5470,26 +5680,26 @@
         <v>41</v>
       </c>
       <c r="G61" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>251.535</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>44.894999999999996</v>
       </c>
       <c r="I61" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>275.43082499999997</v>
       </c>
       <c r="J61" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>324.74544874999992</v>
       </c>
       <c r="K61" s="9">
         <v>329</v>
       </c>
       <c r="L61" s="78">
-        <f>K61-I61</f>
+        <f t="shared" si="26"/>
         <v>53.56917500000003</v>
       </c>
       <c r="M61" s="11"/>
@@ -5501,13 +5711,13 @@
       </c>
       <c r="P61" s="11"/>
       <c r="Q61" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R61" s="120"/>
+      <c r="R61" s="113"/>
       <c r="S61" s="14"/>
     </row>
-    <row r="62" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:19" ht="22" customHeight="1">
       <c r="B62" s="10" t="s">
         <v>16</v>
       </c>
@@ -5524,26 +5734,26 @@
         <v>41</v>
       </c>
       <c r="G62" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>251.535</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>44.894999999999996</v>
       </c>
       <c r="I62" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>275.43082499999997</v>
       </c>
       <c r="J62" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>324.74544874999992</v>
       </c>
       <c r="K62" s="9">
         <v>329</v>
       </c>
       <c r="L62" s="78">
-        <f>K62-I62</f>
+        <f t="shared" si="26"/>
         <v>53.56917500000003</v>
       </c>
       <c r="M62" s="11"/>
@@ -5555,13 +5765,13 @@
       </c>
       <c r="P62" s="11"/>
       <c r="Q62" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R62" s="120"/>
+      <c r="R62" s="113"/>
       <c r="S62" s="14"/>
     </row>
-    <row r="63" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:19" ht="22" customHeight="1">
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
@@ -5578,26 +5788,26 @@
         <v>53</v>
       </c>
       <c r="G63" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>162.57749999999999</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>29.017499999999998</v>
       </c>
       <c r="I63" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>178.02236249999999</v>
       </c>
       <c r="J63" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>212.72571687499996</v>
       </c>
       <c r="K63" s="9">
         <v>219</v>
       </c>
       <c r="L63" s="78">
-        <f>K63-I63</f>
+        <f t="shared" si="26"/>
         <v>40.977637500000014</v>
       </c>
       <c r="M63" s="11"/>
@@ -5609,13 +5819,13 @@
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R63" s="120"/>
+      <c r="R63" s="113"/>
       <c r="S63" s="14"/>
     </row>
-    <row r="64" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:19" ht="22" customHeight="1">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -5625,12 +5835,12 @@
       <c r="H64" s="12"/>
       <c r="I64" s="13"/>
       <c r="J64" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="78">
-        <f>K64-I64</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M64" s="11"/>
@@ -5638,13 +5848,13 @@
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R64" s="120"/>
+      <c r="R64" s="113"/>
       <c r="S64" s="14"/>
     </row>
-    <row r="65" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:19" ht="22" customHeight="1">
       <c r="B65" s="10" t="s">
         <v>17</v>
       </c>
@@ -5673,17 +5883,17 @@
         <v>463.52992499999993</v>
       </c>
       <c r="J65" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>541.05941374999986</v>
       </c>
       <c r="K65" s="84">
         <v>539</v>
       </c>
       <c r="L65" s="78">
-        <f>K65-I65</f>
+        <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M65" s="90" t="s">
+      <c r="M65" s="115" t="s">
         <v>154</v>
       </c>
       <c r="N65" s="13">
@@ -5694,13 +5904,13 @@
       </c>
       <c r="P65" s="11"/>
       <c r="Q65" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R65" s="120"/>
+      <c r="R65" s="113"/>
       <c r="S65" s="14"/>
     </row>
-    <row r="66" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:19" ht="22" customHeight="1">
       <c r="B66" s="10" t="s">
         <v>17</v>
       </c>
@@ -5729,17 +5939,17 @@
         <v>463.52992499999993</v>
       </c>
       <c r="J66" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>541.05941374999986</v>
       </c>
       <c r="K66" s="84">
         <v>539</v>
       </c>
       <c r="L66" s="78">
-        <f>K66-I66</f>
+        <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M66" s="91"/>
+      <c r="M66" s="116"/>
       <c r="N66" s="13">
         <v>490</v>
       </c>
@@ -5748,13 +5958,13 @@
       </c>
       <c r="P66" s="11"/>
       <c r="Q66" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R66" s="120"/>
+      <c r="R66" s="113"/>
       <c r="S66" s="14"/>
     </row>
-    <row r="67" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:19" ht="22" customHeight="1">
       <c r="B67" s="10" t="s">
         <v>17</v>
       </c>
@@ -5783,17 +5993,17 @@
         <v>463.52992499999993</v>
       </c>
       <c r="J67" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>541.05941374999986</v>
       </c>
       <c r="K67" s="84">
         <v>539</v>
       </c>
       <c r="L67" s="78">
-        <f>K67-I67</f>
+        <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M67" s="91"/>
+      <c r="M67" s="116"/>
       <c r="N67" s="13">
         <v>490</v>
       </c>
@@ -5802,13 +6012,13 @@
       </c>
       <c r="P67" s="11"/>
       <c r="Q67" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="R67" s="120"/>
+      <c r="R67" s="113"/>
       <c r="S67" s="14"/>
     </row>
-    <row r="68" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:19" ht="22" customHeight="1">
       <c r="B68" s="10" t="s">
         <v>17</v>
       </c>
@@ -5837,17 +6047,17 @@
         <v>463.52992499999993</v>
       </c>
       <c r="J68" s="81">
-        <f t="shared" ref="J68" si="21">I68*1.15+8</f>
+        <f t="shared" ref="J68" si="27">I68*1.15+8</f>
         <v>541.05941374999986</v>
       </c>
       <c r="K68" s="85">
         <v>539</v>
       </c>
       <c r="L68" s="78">
-        <f>K68-I68</f>
+        <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M68" s="91"/>
+      <c r="M68" s="116"/>
       <c r="N68" s="27">
         <v>490</v>
       </c>
@@ -5856,13 +6066,13 @@
       </c>
       <c r="P68" s="11"/>
       <c r="Q68" s="11">
-        <f t="shared" ref="Q68" si="22">P68*6.125*1.2+8</f>
+        <f t="shared" ref="Q68" si="28">P68*6.125*1.2+8</f>
         <v>8</v>
       </c>
-      <c r="R68" s="120"/>
+      <c r="R68" s="113"/>
       <c r="S68" s="28"/>
     </row>
-    <row r="93" spans="13:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="13:13" ht="22" customHeight="1">
       <c r="M93" s="59"/>
     </row>
   </sheetData>
@@ -5898,20 +6108,20 @@
       <selection activeCell="T7" sqref="T7:T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="82"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="82"/>
     <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="3" customFormat="1" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:16" s="3" customFormat="1" ht="68" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5924,14 +6134,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="121" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="96"/>
+      <c r="I1" s="121"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -5954,7 +6164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="3" customFormat="1" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:16" s="3" customFormat="1" ht="68" customHeight="1">
       <c r="F2" s="3" t="s">
         <v>246</v>
       </c>
@@ -5971,7 +6181,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="22" customHeight="1">
       <c r="B3" s="29" t="s">
         <v>125</v>
       </c>
@@ -6002,7 +6212,7 @@
       <c r="O3" s="30"/>
       <c r="P3" s="31"/>
     </row>
-    <row r="4" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="22" customHeight="1">
       <c r="B4" s="32"/>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -6031,7 +6241,7 @@
       <c r="O4" s="33"/>
       <c r="P4" s="34"/>
     </row>
-    <row r="5" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="22" customHeight="1">
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -6060,7 +6270,7 @@
       <c r="O5" s="33"/>
       <c r="P5" s="34"/>
     </row>
-    <row r="6" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="22" customHeight="1">
       <c r="B6" s="32"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -6089,7 +6299,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="34"/>
     </row>
-    <row r="7" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="22" customHeight="1">
       <c r="B7" s="32"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
@@ -6118,7 +6328,7 @@
       <c r="O7" s="33"/>
       <c r="P7" s="34"/>
     </row>
-    <row r="8" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="22" customHeight="1">
       <c r="B8" s="32" t="s">
         <v>19</v>
       </c>
@@ -6149,7 +6359,7 @@
       <c r="O8" s="33"/>
       <c r="P8" s="34"/>
     </row>
-    <row r="9" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="22" customHeight="1">
       <c r="B9" s="32"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -6178,7 +6388,7 @@
       <c r="O9" s="33"/>
       <c r="P9" s="34"/>
     </row>
-    <row r="10" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="22" customHeight="1">
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -6207,7 +6417,7 @@
       <c r="O10" s="33"/>
       <c r="P10" s="34"/>
     </row>
-    <row r="11" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="22" customHeight="1">
       <c r="B11" s="32"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -6236,7 +6446,7 @@
       <c r="O11" s="33"/>
       <c r="P11" s="34"/>
     </row>
-    <row r="12" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="22" customHeight="1">
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
@@ -6265,7 +6475,7 @@
       <c r="O12" s="33"/>
       <c r="P12" s="34"/>
     </row>
-    <row r="13" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" ht="22" customHeight="1">
       <c r="B13" s="32" t="s">
         <v>20</v>
       </c>
@@ -6306,7 +6516,7 @@
       </c>
       <c r="P13" s="34"/>
     </row>
-    <row r="14" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="22" customHeight="1">
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33" t="s">
@@ -6345,7 +6555,7 @@
       </c>
       <c r="P14" s="34"/>
     </row>
-    <row r="15" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="22" customHeight="1">
       <c r="B15" s="32"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33" t="s">
@@ -6384,7 +6594,7 @@
       </c>
       <c r="P15" s="34"/>
     </row>
-    <row r="16" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="22" customHeight="1">
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33" t="s">
@@ -6423,7 +6633,7 @@
       </c>
       <c r="P16" s="34"/>
     </row>
-    <row r="17" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" ht="22" customHeight="1">
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33" t="s">
@@ -6462,7 +6672,7 @@
       </c>
       <c r="P17" s="34"/>
     </row>
-    <row r="18" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" ht="22" customHeight="1">
       <c r="B18" s="32"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
@@ -6501,7 +6711,7 @@
       </c>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" ht="22" customHeight="1">
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33" t="s">
@@ -6540,7 +6750,7 @@
       </c>
       <c r="P19" s="34"/>
     </row>
-    <row r="20" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" ht="22" customHeight="1">
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -6560,7 +6770,7 @@
       <c r="O20" s="33"/>
       <c r="P20" s="34"/>
     </row>
-    <row r="21" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" ht="22" customHeight="1">
       <c r="B21" s="32" t="s">
         <v>18</v>
       </c>
@@ -6591,7 +6801,7 @@
       <c r="O21" s="33"/>
       <c r="P21" s="34"/>
     </row>
-    <row r="22" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" ht="22" customHeight="1">
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -6620,7 +6830,7 @@
       <c r="O22" s="33"/>
       <c r="P22" s="34"/>
     </row>
-    <row r="23" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" ht="22" customHeight="1">
       <c r="B23" s="32"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -6649,7 +6859,7 @@
       <c r="O23" s="33"/>
       <c r="P23" s="34"/>
     </row>
-    <row r="24" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" ht="22" customHeight="1">
       <c r="B24" s="32"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
@@ -6678,7 +6888,7 @@
       <c r="O24" s="33"/>
       <c r="P24" s="34"/>
     </row>
-    <row r="25" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="22" customHeight="1">
       <c r="B25" s="35"/>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>
@@ -6707,259 +6917,259 @@
       <c r="O25" s="36"/>
       <c r="P25" s="37"/>
     </row>
-    <row r="26" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="22" customHeight="1">
       <c r="J26" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" ht="22" customHeight="1">
       <c r="J27" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" ht="22" customHeight="1">
       <c r="J28" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" ht="22" customHeight="1">
       <c r="J29" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" ht="22" customHeight="1">
       <c r="J30" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" ht="22" customHeight="1">
       <c r="J31" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" ht="22" customHeight="1">
       <c r="J32" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:10" ht="22" customHeight="1">
       <c r="J33" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:10" ht="22" customHeight="1">
       <c r="J34" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:10" ht="22" customHeight="1">
       <c r="J35" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:10" ht="22" customHeight="1">
       <c r="J36" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:10" ht="22" customHeight="1">
       <c r="J37" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:10" ht="22" customHeight="1">
       <c r="J38" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:10" ht="22" customHeight="1">
       <c r="J39" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:10" ht="22" customHeight="1">
       <c r="J40" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:10" ht="22" customHeight="1">
       <c r="J41" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:10" ht="22" customHeight="1">
       <c r="J42" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:10" ht="22" customHeight="1">
       <c r="J43" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:10" ht="22" customHeight="1">
       <c r="J44" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:10" ht="22" customHeight="1">
       <c r="J45" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:10" ht="22" customHeight="1">
       <c r="J46" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="10:10" ht="22" customHeight="1">
       <c r="J47" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="10:10" ht="22" customHeight="1">
       <c r="J48" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="10:10" ht="22" customHeight="1">
       <c r="J49" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="10:10" ht="22" customHeight="1">
       <c r="J50" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="10:10" ht="22" customHeight="1">
       <c r="J51" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:10" ht="22" customHeight="1">
       <c r="J52" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:10" ht="22" customHeight="1">
       <c r="J53" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="10:10" ht="22" customHeight="1">
       <c r="J54" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:10" ht="22" customHeight="1">
       <c r="J55" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="10:10" ht="22" customHeight="1">
       <c r="J56" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="10:10" ht="22" customHeight="1">
       <c r="J57" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="10:10" ht="22" customHeight="1">
       <c r="J58" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="10:10" ht="22" customHeight="1">
       <c r="J59" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="10:10" ht="22" customHeight="1">
       <c r="J60" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="10:10" ht="22" customHeight="1">
       <c r="J61" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="10:10" ht="22" customHeight="1">
       <c r="J62" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="10:10" ht="22" customHeight="1">
       <c r="J63" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:10" ht="22" customHeight="1">
       <c r="J64" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="10:10" ht="22" customHeight="1">
       <c r="J65" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="10:10" ht="22" customHeight="1">
       <c r="J66" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="10:10" ht="22" customHeight="1">
       <c r="J67" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="10:10" ht="22" customHeight="1">
       <c r="J68" s="81">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6989,26 +7199,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="10" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="104"/>
-    <col min="13" max="14" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="10" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="97"/>
+    <col min="13" max="14" width="12.1640625" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="13.125" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="3" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:18" s="3" customFormat="1" ht="55" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -7021,27 +7231,27 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="114" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="89" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="96"/>
+      <c r="I1" s="121"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="99" t="s">
+      <c r="L1" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="91" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="98" t="s">
+      <c r="N1" s="91" t="s">
         <v>269</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -7057,7 +7267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:18" s="3" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18" s="3" customFormat="1" ht="55" customHeight="1">
       <c r="F2" s="76" t="s">
         <v>247</v>
       </c>
@@ -7073,9 +7283,9 @@
       <c r="J2" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="L2" s="100"/>
-    </row>
-    <row r="3" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="93"/>
+    </row>
+    <row r="3" spans="2:18" ht="22" customHeight="1">
       <c r="B3" s="39" t="s">
         <v>155</v>
       </c>
@@ -7110,18 +7320,18 @@
       <c r="K3" s="40">
         <v>320</v>
       </c>
-      <c r="L3" s="101">
+      <c r="L3" s="94">
         <v>309</v>
       </c>
       <c r="M3" s="73">
-        <f>K3-I3</f>
+        <f t="shared" ref="M3:M14" si="3">K3-I3</f>
         <v>78.158299999999997</v>
       </c>
       <c r="N3" s="87">
-        <f>L3-I3</f>
+        <f t="shared" ref="N3:N16" si="4">L3-I3</f>
         <v>67.158299999999997</v>
       </c>
-      <c r="O3" s="97" t="s">
+      <c r="O3" s="122" t="s">
         <v>162</v>
       </c>
       <c r="P3" s="40"/>
@@ -7130,7 +7340,7 @@
       </c>
       <c r="R3" s="41"/>
     </row>
-    <row r="4" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="22" customHeight="1">
       <c r="B4" s="39" t="s">
         <v>155</v>
       </c>
@@ -7159,31 +7369,31 @@
         <v>241.8417</v>
       </c>
       <c r="J4" s="81">
-        <f t="shared" ref="J4:J13" si="3">I4*1.15</f>
+        <f t="shared" ref="J4:J13" si="5">I4*1.15</f>
         <v>278.11795499999999</v>
       </c>
       <c r="K4" s="42">
         <v>320</v>
       </c>
-      <c r="L4" s="101">
+      <c r="L4" s="94">
         <v>309</v>
       </c>
       <c r="M4" s="73">
-        <f>K4-I4</f>
+        <f t="shared" si="3"/>
         <v>78.158299999999997</v>
       </c>
       <c r="N4" s="87">
-        <f>L4-I4</f>
+        <f t="shared" si="4"/>
         <v>67.158299999999997</v>
       </c>
-      <c r="O4" s="97"/>
+      <c r="O4" s="122"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="42" t="s">
         <v>175</v>
       </c>
       <c r="R4" s="43"/>
     </row>
-    <row r="5" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="22" customHeight="1">
       <c r="B5" s="39" t="s">
         <v>155</v>
       </c>
@@ -7212,31 +7422,31 @@
         <v>201.53475</v>
       </c>
       <c r="J5" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>231.7649625</v>
       </c>
       <c r="K5" s="42">
         <v>260</v>
       </c>
-      <c r="L5" s="101">
+      <c r="L5" s="94">
         <v>239</v>
       </c>
       <c r="M5" s="73">
-        <f>K5-I5</f>
+        <f t="shared" si="3"/>
         <v>58.465249999999997</v>
       </c>
       <c r="N5" s="87">
-        <f>L5-I5</f>
+        <f t="shared" si="4"/>
         <v>37.465249999999997</v>
       </c>
-      <c r="O5" s="97"/>
+      <c r="O5" s="122"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="42" t="s">
         <v>176</v>
       </c>
       <c r="R5" s="43"/>
     </row>
-    <row r="6" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="22" customHeight="1">
       <c r="B6" s="39" t="s">
         <v>155</v>
       </c>
@@ -7265,31 +7475,31 @@
         <v>335.89125000000001</v>
       </c>
       <c r="J6" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>386.27493749999996</v>
       </c>
       <c r="K6" s="42">
         <v>400</v>
       </c>
-      <c r="L6" s="101">
+      <c r="L6" s="94">
         <v>399</v>
       </c>
       <c r="M6" s="73">
-        <f>K6-I6</f>
+        <f t="shared" si="3"/>
         <v>64.108749999999986</v>
       </c>
       <c r="N6" s="87">
-        <f>L6-I6</f>
+        <f t="shared" si="4"/>
         <v>63.108749999999986</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="122"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="42" t="s">
         <v>177</v>
       </c>
       <c r="R6" s="43"/>
     </row>
-    <row r="7" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="22" customHeight="1">
       <c r="B7" s="39" t="s">
         <v>155</v>
       </c>
@@ -7318,31 +7528,31 @@
         <v>188.09909999999999</v>
       </c>
       <c r="J7" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>216.31396499999997</v>
       </c>
       <c r="K7" s="42">
         <v>320</v>
       </c>
-      <c r="L7" s="101">
+      <c r="L7" s="94">
         <v>269</v>
       </c>
       <c r="M7" s="73">
-        <f>K7-I7</f>
+        <f t="shared" si="3"/>
         <v>131.90090000000001</v>
       </c>
       <c r="N7" s="87">
-        <f>L7-I7</f>
+        <f t="shared" si="4"/>
         <v>80.900900000000007</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="122"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42" t="s">
         <v>178</v>
       </c>
       <c r="R7" s="43"/>
     </row>
-    <row r="8" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="22" customHeight="1">
       <c r="B8" s="39" t="s">
         <v>155</v>
       </c>
@@ -7371,31 +7581,31 @@
         <v>241.8417</v>
       </c>
       <c r="J8" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>278.11795499999999</v>
       </c>
       <c r="K8" s="42">
         <v>320</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="94">
         <v>309</v>
       </c>
       <c r="M8" s="73">
-        <f>K8-I8</f>
+        <f t="shared" si="3"/>
         <v>78.158299999999997</v>
       </c>
       <c r="N8" s="87">
-        <f>L8-I8</f>
+        <f t="shared" si="4"/>
         <v>67.158299999999997</v>
       </c>
-      <c r="O8" s="97"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="42" t="s">
         <v>179</v>
       </c>
       <c r="R8" s="43"/>
     </row>
-    <row r="9" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="22" customHeight="1">
       <c r="B9" s="39" t="s">
         <v>155</v>
       </c>
@@ -7424,31 +7634,31 @@
         <v>335.89125000000001</v>
       </c>
       <c r="J9" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>386.27493749999996</v>
       </c>
       <c r="K9" s="42">
         <v>400</v>
       </c>
-      <c r="L9" s="101">
+      <c r="L9" s="94">
         <v>399</v>
       </c>
       <c r="M9" s="73">
-        <f>K9-I9</f>
+        <f t="shared" si="3"/>
         <v>64.108749999999986</v>
       </c>
       <c r="N9" s="87">
-        <f>L9-I9</f>
+        <f t="shared" si="4"/>
         <v>63.108749999999986</v>
       </c>
-      <c r="O9" s="97"/>
+      <c r="O9" s="122"/>
       <c r="P9" s="42"/>
       <c r="Q9" s="42" t="s">
         <v>180</v>
       </c>
       <c r="R9" s="43"/>
     </row>
-    <row r="10" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="22" customHeight="1">
       <c r="B10" s="39" t="s">
         <v>155</v>
       </c>
@@ -7477,31 +7687,31 @@
         <v>201.53475</v>
       </c>
       <c r="J10" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>231.7649625</v>
       </c>
       <c r="K10" s="42">
         <v>260</v>
       </c>
-      <c r="L10" s="101">
+      <c r="L10" s="94">
         <v>249</v>
       </c>
       <c r="M10" s="73">
-        <f>K10-I10</f>
+        <f t="shared" si="3"/>
         <v>58.465249999999997</v>
       </c>
       <c r="N10" s="87">
-        <f>L10-I10</f>
+        <f t="shared" si="4"/>
         <v>47.465249999999997</v>
       </c>
-      <c r="O10" s="97"/>
+      <c r="O10" s="122"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="42" t="s">
         <v>175</v>
       </c>
       <c r="R10" s="43"/>
     </row>
-    <row r="11" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="22" customHeight="1">
       <c r="B11" s="39" t="s">
         <v>155</v>
       </c>
@@ -7530,31 +7740,31 @@
         <v>335.89125000000001</v>
       </c>
       <c r="J11" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>386.27493749999996</v>
       </c>
       <c r="K11" s="42">
         <v>400</v>
       </c>
-      <c r="L11" s="101">
+      <c r="L11" s="94">
         <v>399</v>
       </c>
       <c r="M11" s="73">
-        <f>K11-I11</f>
+        <f t="shared" si="3"/>
         <v>64.108749999999986</v>
       </c>
       <c r="N11" s="87">
-        <f>L11-I11</f>
+        <f t="shared" si="4"/>
         <v>63.108749999999986</v>
       </c>
-      <c r="O11" s="97"/>
+      <c r="O11" s="122"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="42">
         <v>400</v>
       </c>
       <c r="R11" s="43"/>
     </row>
-    <row r="12" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="22" customHeight="1">
       <c r="B12" s="39" t="s">
         <v>155</v>
       </c>
@@ -7583,31 +7793,31 @@
         <v>107.48519999999999</v>
       </c>
       <c r="J12" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>123.60797999999998</v>
       </c>
       <c r="K12" s="42">
         <v>180</v>
       </c>
-      <c r="L12" s="101">
+      <c r="L12" s="94">
         <v>169</v>
       </c>
       <c r="M12" s="73">
-        <f>K12-I12</f>
+        <f t="shared" si="3"/>
         <v>72.514800000000008</v>
       </c>
       <c r="N12" s="87">
-        <f>L12-I12</f>
+        <f t="shared" si="4"/>
         <v>61.514800000000008</v>
       </c>
-      <c r="O12" s="97"/>
+      <c r="O12" s="122"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="42" t="s">
         <v>181</v>
       </c>
       <c r="R12" s="43"/>
     </row>
-    <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="22" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>155</v>
       </c>
@@ -7636,31 +7846,31 @@
         <v>107.48519999999999</v>
       </c>
       <c r="J13" s="81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>123.60797999999998</v>
       </c>
       <c r="K13" s="42">
         <v>180</v>
       </c>
-      <c r="L13" s="101">
+      <c r="L13" s="94">
         <v>169</v>
       </c>
       <c r="M13" s="73">
-        <f>K13-I13</f>
+        <f t="shared" si="3"/>
         <v>72.514800000000008</v>
       </c>
       <c r="N13" s="87">
-        <f>L13-I13</f>
+        <f t="shared" si="4"/>
         <v>61.514800000000008</v>
       </c>
-      <c r="O13" s="97"/>
+      <c r="O13" s="122"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="42" t="s">
         <v>175</v>
       </c>
       <c r="R13" s="43"/>
     </row>
-    <row r="14" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="22" customHeight="1">
       <c r="B14" s="44"/>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
@@ -7680,21 +7890,21 @@
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="45"/>
-      <c r="L14" s="102"/>
+      <c r="L14" s="95"/>
       <c r="M14" s="73">
-        <f>K14-I14</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N14" s="86">
-        <f>L14-I14</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="97"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="122"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="46"/>
     </row>
-    <row r="15" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="22" customHeight="1">
       <c r="B15" s="44"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -7714,18 +7924,18 @@
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="45"/>
-      <c r="L15" s="103"/>
+      <c r="L15" s="96"/>
       <c r="M15" s="46"/>
       <c r="N15" s="86">
-        <f>L15-I15</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="97"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="122"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
       <c r="R15" s="46"/>
     </row>
-    <row r="16" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="22" customHeight="1">
       <c r="B16" s="44"/>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
@@ -7745,13 +7955,13 @@
       </c>
       <c r="J16" s="62"/>
       <c r="K16" s="45"/>
-      <c r="L16" s="103"/>
+      <c r="L16" s="96"/>
       <c r="M16" s="46"/>
       <c r="N16" s="86">
-        <f>L16-I16</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="97"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="122"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="46"/>
@@ -7764,7 +7974,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7783,22 +7993,22 @@
       <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="16" max="16" width="11.125" customWidth="1"/>
-    <col min="17" max="17" width="13.375" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:18" s="3" customFormat="1" ht="45" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -7811,14 +8021,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="114" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="96"/>
-      <c r="H1" s="89" t="s">
+      <c r="G1" s="121"/>
+      <c r="H1" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="96"/>
+      <c r="I1" s="121"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -7847,7 +8057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:18" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18" s="3" customFormat="1" ht="57.75" customHeight="1">
       <c r="F2" s="76" t="s">
         <v>247</v>
       </c>
@@ -7867,7 +8077,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="22" customHeight="1">
       <c r="B3" s="47" t="s">
         <v>184</v>
       </c>
@@ -7913,7 +8123,7 @@
       <c r="Q3" s="48"/>
       <c r="R3" s="49"/>
     </row>
-    <row r="4" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="22" customHeight="1">
       <c r="B4" s="47" t="s">
         <v>184</v>
       </c>
@@ -7961,7 +8171,7 @@
       </c>
       <c r="R4" s="49"/>
     </row>
-    <row r="5" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="22" customHeight="1">
       <c r="B5" s="47" t="s">
         <v>184</v>
       </c>
@@ -8007,7 +8217,7 @@
       <c r="Q5" s="51"/>
       <c r="R5" s="52"/>
     </row>
-    <row r="6" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="22" customHeight="1">
       <c r="B6" s="47" t="s">
         <v>184</v>
       </c>
@@ -8055,7 +8265,7 @@
       </c>
       <c r="R6" s="52"/>
     </row>
-    <row r="7" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="22" customHeight="1">
       <c r="B7" s="47" t="s">
         <v>184</v>
       </c>
@@ -8103,7 +8313,7 @@
       </c>
       <c r="R7" s="52"/>
     </row>
-    <row r="8" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="22" customHeight="1">
       <c r="B8" s="47" t="s">
         <v>184</v>
       </c>
@@ -8151,7 +8361,7 @@
       </c>
       <c r="R8" s="52"/>
     </row>
-    <row r="9" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="22" customHeight="1">
       <c r="B9" s="50"/>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
@@ -8176,7 +8386,7 @@
       <c r="Q9" s="51"/>
       <c r="R9" s="52"/>
     </row>
-    <row r="10" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="22" customHeight="1">
       <c r="B10" s="50" t="s">
         <v>185</v>
       </c>
@@ -8224,7 +8434,7 @@
       </c>
       <c r="R10" s="52"/>
     </row>
-    <row r="11" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="22" customHeight="1">
       <c r="B11" s="50" t="s">
         <v>185</v>
       </c>
@@ -8272,7 +8482,7 @@
       </c>
       <c r="R11" s="52"/>
     </row>
-    <row r="12" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="22" customHeight="1">
       <c r="B12" s="50" t="s">
         <v>185</v>
       </c>
@@ -8320,7 +8530,7 @@
       </c>
       <c r="R12" s="52"/>
     </row>
-    <row r="13" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" ht="22" customHeight="1">
       <c r="B13" s="50"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
@@ -8354,7 +8564,7 @@
       <c r="Q13" s="51"/>
       <c r="R13" s="52"/>
     </row>
-    <row r="14" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="22" customHeight="1">
       <c r="B14" s="50"/>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
@@ -8388,7 +8598,7 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="52"/>
     </row>
-    <row r="15" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" ht="22" customHeight="1">
       <c r="B15" s="50"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -8422,7 +8632,7 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="52"/>
     </row>
-    <row r="16" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="22" customHeight="1">
       <c r="B16" s="50"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
@@ -8456,7 +8666,7 @@
       <c r="Q16" s="51"/>
       <c r="R16" s="52"/>
     </row>
-    <row r="17" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" ht="22" customHeight="1">
       <c r="B17" s="50"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -8490,7 +8700,7 @@
       <c r="Q17" s="51"/>
       <c r="R17" s="52"/>
     </row>
-    <row r="18" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" ht="22" customHeight="1">
       <c r="B18" s="50"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
@@ -8524,7 +8734,7 @@
       <c r="Q18" s="51"/>
       <c r="R18" s="52"/>
     </row>
-    <row r="19" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" ht="22" customHeight="1">
       <c r="B19" s="50"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -8558,7 +8768,7 @@
       <c r="Q19" s="51"/>
       <c r="R19" s="52"/>
     </row>
-    <row r="20" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" ht="22" customHeight="1">
       <c r="B20" s="50"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -8592,7 +8802,7 @@
       <c r="Q20" s="51"/>
       <c r="R20" s="52"/>
     </row>
-    <row r="21" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" ht="22" customHeight="1">
       <c r="B21" s="50"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -8626,7 +8836,7 @@
       <c r="Q21" s="51"/>
       <c r="R21" s="52"/>
     </row>
-    <row r="22" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="22" customHeight="1">
       <c r="B22" s="50"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -8660,7 +8870,7 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="52"/>
     </row>
-    <row r="23" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" ht="22" customHeight="1">
       <c r="B23" s="50"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -8694,7 +8904,7 @@
       <c r="Q23" s="51"/>
       <c r="R23" s="52"/>
     </row>
-    <row r="24" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" ht="22" customHeight="1">
       <c r="B24" s="50"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -8728,7 +8938,7 @@
       <c r="Q24" s="51"/>
       <c r="R24" s="52"/>
     </row>
-    <row r="25" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" ht="22" customHeight="1">
       <c r="B25" s="50"/>
       <c r="C25" s="51"/>
       <c r="D25" s="51"/>
@@ -8762,7 +8972,7 @@
       <c r="Q25" s="51"/>
       <c r="R25" s="52"/>
     </row>
-    <row r="26" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" ht="22" customHeight="1">
       <c r="B26" s="50"/>
       <c r="C26" s="51"/>
       <c r="D26" s="51"/>
@@ -8796,7 +9006,7 @@
       <c r="Q26" s="51"/>
       <c r="R26" s="52"/>
     </row>
-    <row r="27" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" ht="22" customHeight="1">
       <c r="B27" s="50"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -8830,7 +9040,7 @@
       <c r="Q27" s="51"/>
       <c r="R27" s="52"/>
     </row>
-    <row r="28" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" ht="22" customHeight="1">
       <c r="B28" s="50"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -8864,7 +9074,7 @@
       <c r="Q28" s="51"/>
       <c r="R28" s="52"/>
     </row>
-    <row r="29" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" ht="22" customHeight="1">
       <c r="B29" s="50"/>
       <c r="C29" s="51"/>
       <c r="D29" s="51"/>
@@ -8898,7 +9108,7 @@
       <c r="Q29" s="51"/>
       <c r="R29" s="52"/>
     </row>
-    <row r="30" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" ht="22" customHeight="1">
       <c r="B30" s="50"/>
       <c r="C30" s="51"/>
       <c r="D30" s="51"/>
@@ -8932,7 +9142,7 @@
       <c r="Q30" s="51"/>
       <c r="R30" s="52"/>
     </row>
-    <row r="31" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" ht="22" customHeight="1">
       <c r="B31" s="50"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -8966,7 +9176,7 @@
       <c r="Q31" s="51"/>
       <c r="R31" s="52"/>
     </row>
-    <row r="32" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" ht="22" customHeight="1">
       <c r="B32" s="50"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -9000,7 +9210,7 @@
       <c r="Q32" s="51"/>
       <c r="R32" s="52"/>
     </row>
-    <row r="33" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" ht="22" customHeight="1">
       <c r="B33" s="50"/>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
@@ -9034,7 +9244,7 @@
       <c r="Q33" s="51"/>
       <c r="R33" s="52"/>
     </row>
-    <row r="34" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="22" customHeight="1">
       <c r="B34" s="50"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -9068,7 +9278,7 @@
       <c r="Q34" s="51"/>
       <c r="R34" s="52"/>
     </row>
-    <row r="35" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" ht="22" customHeight="1">
       <c r="B35" s="50"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -9102,7 +9312,7 @@
       <c r="Q35" s="51"/>
       <c r="R35" s="52"/>
     </row>
-    <row r="36" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" ht="22" customHeight="1">
       <c r="B36" s="50"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -9136,7 +9346,7 @@
       <c r="Q36" s="51"/>
       <c r="R36" s="52"/>
     </row>
-    <row r="37" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" ht="22" customHeight="1">
       <c r="B37" s="50"/>
       <c r="C37" s="51"/>
       <c r="D37" s="51"/>
@@ -9170,7 +9380,7 @@
       <c r="Q37" s="51"/>
       <c r="R37" s="52"/>
     </row>
-    <row r="38" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" ht="22" customHeight="1">
       <c r="B38" s="50" t="s">
         <v>186</v>
       </c>
@@ -9216,7 +9426,7 @@
       </c>
       <c r="R38" s="52"/>
     </row>
-    <row r="39" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" ht="22" customHeight="1">
       <c r="B39" s="50" t="s">
         <v>186</v>
       </c>
@@ -9262,7 +9472,7 @@
       </c>
       <c r="R39" s="52"/>
     </row>
-    <row r="40" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" ht="22" customHeight="1">
       <c r="B40" s="50" t="s">
         <v>186</v>
       </c>
@@ -9308,7 +9518,7 @@
       </c>
       <c r="R40" s="52"/>
     </row>
-    <row r="41" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" ht="22" customHeight="1">
       <c r="B41" s="50"/>
       <c r="C41" s="51"/>
       <c r="D41" s="51"/>
@@ -9339,7 +9549,7 @@
       <c r="Q41" s="51"/>
       <c r="R41" s="52"/>
     </row>
-    <row r="42" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" ht="22" customHeight="1">
       <c r="B42" s="50"/>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
@@ -9370,7 +9580,7 @@
       <c r="Q42" s="51"/>
       <c r="R42" s="52"/>
     </row>
-    <row r="43" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" ht="22" customHeight="1">
       <c r="B43" s="50"/>
       <c r="C43" s="51"/>
       <c r="D43" s="51"/>
@@ -9401,7 +9611,7 @@
       <c r="Q43" s="51"/>
       <c r="R43" s="52"/>
     </row>
-    <row r="44" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" ht="22" customHeight="1">
       <c r="B44" s="50"/>
       <c r="C44" s="51"/>
       <c r="D44" s="51"/>
@@ -9432,7 +9642,7 @@
       <c r="Q44" s="51"/>
       <c r="R44" s="52"/>
     </row>
-    <row r="45" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" ht="22" customHeight="1">
       <c r="B45" s="53"/>
       <c r="C45" s="54"/>
       <c r="D45" s="54"/>
@@ -9483,25 +9693,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="11" style="104"/>
-    <col min="12" max="12" width="11" style="119"/>
-    <col min="16" max="16" width="11" style="115"/>
+    <col min="4" max="4" width="29.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11" style="97"/>
+    <col min="12" max="12" width="11" style="112"/>
+    <col min="16" max="16" width="11" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:16" ht="65" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -9514,21 +9724,21 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="114" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89" t="s">
+      <c r="G1" s="114"/>
+      <c r="H1" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="89"/>
+      <c r="I1" s="114"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="116" t="s">
+      <c r="L1" s="109" t="s">
         <v>244</v>
       </c>
       <c r="M1" s="3" t="s">
@@ -9540,11 +9750,11 @@
       <c r="O1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="P1" s="111" t="s">
+      <c r="P1" s="104" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:16" ht="65" customHeight="1">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9564,16 +9774,16 @@
       <c r="J2" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="100"/>
-      <c r="L2" s="116"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="109"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="P2" s="111"/>
-    </row>
-    <row r="3" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P2" s="104"/>
+    </row>
+    <row r="3" spans="2:16" ht="22" customHeight="1">
       <c r="B3" s="39" t="s">
         <v>237</v>
       </c>
@@ -9605,28 +9815,28 @@
         <f>I3*1.15+8</f>
         <v>147.0589775</v>
       </c>
-      <c r="K3" s="108">
+      <c r="K3" s="101">
         <v>139</v>
       </c>
-      <c r="L3" s="117">
+      <c r="L3" s="110">
         <f t="shared" ref="L3:L17" si="3">K3-I3</f>
         <v>18.079149999999998</v>
       </c>
-      <c r="M3" s="97" t="s">
+      <c r="M3" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="105">
+      <c r="N3" s="98">
         <v>11</v>
       </c>
-      <c r="O3" s="106">
+      <c r="O3" s="99">
         <f>N3*6.125*1.2+8</f>
         <v>88.85</v>
       </c>
-      <c r="P3" s="112">
+      <c r="P3" s="105">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="22" customHeight="1">
       <c r="B4" s="39" t="s">
         <v>237</v>
       </c>
@@ -9658,22 +9868,22 @@
         <f t="shared" ref="J4:J17" si="4">I4*1.15+8</f>
         <v>162.50997499999997</v>
       </c>
-      <c r="K4" s="109">
+      <c r="K4" s="102">
         <v>155</v>
       </c>
-      <c r="L4" s="117">
+      <c r="L4" s="110">
         <f t="shared" si="3"/>
         <v>20.643500000000017</v>
       </c>
-      <c r="M4" s="97"/>
+      <c r="M4" s="122"/>
       <c r="N4" s="42"/>
-      <c r="O4" s="106">
+      <c r="O4" s="99">
         <f t="shared" ref="O4:O17" si="5">N4*6.125*1.2+8</f>
         <v>8</v>
       </c>
-      <c r="P4" s="113"/>
-    </row>
-    <row r="5" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="106"/>
+    </row>
+    <row r="5" spans="2:16" ht="22" customHeight="1">
       <c r="B5" s="39" t="s">
         <v>237</v>
       </c>
@@ -9705,22 +9915,22 @@
         <f t="shared" si="4"/>
         <v>69.803989999999999</v>
       </c>
-      <c r="K5" s="109">
+      <c r="K5" s="102">
         <v>65</v>
       </c>
-      <c r="L5" s="117">
+      <c r="L5" s="110">
         <f t="shared" si="3"/>
         <v>11.257400000000004</v>
       </c>
-      <c r="M5" s="97"/>
+      <c r="M5" s="122"/>
       <c r="N5" s="42"/>
-      <c r="O5" s="106">
+      <c r="O5" s="99">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P5" s="113"/>
-    </row>
-    <row r="6" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="106"/>
+    </row>
+    <row r="6" spans="2:16" ht="22" customHeight="1">
       <c r="B6" s="39" t="s">
         <v>237</v>
       </c>
@@ -9752,22 +9962,22 @@
         <f t="shared" si="4"/>
         <v>139.33347874999998</v>
       </c>
-      <c r="K6" s="109">
+      <c r="K6" s="102">
         <v>135</v>
       </c>
-      <c r="L6" s="117">
+      <c r="L6" s="110">
         <f t="shared" si="3"/>
         <v>20.796975000000018</v>
       </c>
-      <c r="M6" s="97"/>
+      <c r="M6" s="122"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="106">
+      <c r="O6" s="99">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P6" s="113"/>
-    </row>
-    <row r="7" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="106"/>
+    </row>
+    <row r="7" spans="2:16" ht="22" customHeight="1">
       <c r="B7" s="39" t="s">
         <v>237</v>
       </c>
@@ -9799,26 +10009,26 @@
         <f t="shared" si="4"/>
         <v>108.43148374999998</v>
       </c>
-      <c r="K7" s="109">
+      <c r="K7" s="102">
         <v>99</v>
       </c>
-      <c r="L7" s="117">
+      <c r="L7" s="110">
         <f t="shared" si="3"/>
         <v>11.668275000000008</v>
       </c>
-      <c r="M7" s="97"/>
-      <c r="N7" s="107">
+      <c r="M7" s="122"/>
+      <c r="N7" s="100">
         <v>11</v>
       </c>
-      <c r="O7" s="106">
+      <c r="O7" s="99">
         <f t="shared" si="5"/>
         <v>88.85</v>
       </c>
-      <c r="P7" s="113">
+      <c r="P7" s="106">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="22" customHeight="1">
       <c r="B8" s="39" t="s">
         <v>237</v>
       </c>
@@ -9850,22 +10060,22 @@
         <f t="shared" si="4"/>
         <v>69.803989999999999</v>
       </c>
-      <c r="K8" s="109">
+      <c r="K8" s="102">
         <v>69</v>
       </c>
-      <c r="L8" s="117">
+      <c r="L8" s="110">
         <f t="shared" si="3"/>
         <v>15.257400000000004</v>
       </c>
-      <c r="M8" s="97"/>
+      <c r="M8" s="122"/>
       <c r="N8" s="42"/>
-      <c r="O8" s="106">
+      <c r="O8" s="99">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P8" s="113"/>
-    </row>
-    <row r="9" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="106"/>
+    </row>
+    <row r="9" spans="2:16" ht="22" customHeight="1">
       <c r="B9" s="39" t="s">
         <v>237</v>
       </c>
@@ -9897,26 +10107,26 @@
         <f t="shared" si="4"/>
         <v>123.88248125</v>
       </c>
-      <c r="K9" s="109">
+      <c r="K9" s="102">
         <v>119</v>
       </c>
-      <c r="L9" s="117">
+      <c r="L9" s="110">
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M9" s="97"/>
-      <c r="N9" s="107">
+      <c r="M9" s="122"/>
+      <c r="N9" s="100">
         <v>11</v>
       </c>
-      <c r="O9" s="106">
+      <c r="O9" s="99">
         <f t="shared" si="5"/>
         <v>88.85</v>
       </c>
-      <c r="P9" s="113">
+      <c r="P9" s="106">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="22" customHeight="1">
       <c r="B10" s="39" t="s">
         <v>237</v>
       </c>
@@ -9948,26 +10158,26 @@
         <f t="shared" si="4"/>
         <v>123.88248125</v>
       </c>
-      <c r="K10" s="109">
+      <c r="K10" s="102">
         <v>119</v>
       </c>
-      <c r="L10" s="117">
+      <c r="L10" s="110">
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M10" s="97"/>
-      <c r="N10" s="107">
+      <c r="M10" s="122"/>
+      <c r="N10" s="100">
         <v>11</v>
       </c>
-      <c r="O10" s="106">
+      <c r="O10" s="99">
         <f t="shared" si="5"/>
         <v>88.85</v>
       </c>
-      <c r="P10" s="113">
+      <c r="P10" s="106">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="22" customHeight="1">
       <c r="B11" s="39" t="s">
         <v>237</v>
       </c>
@@ -9999,22 +10209,22 @@
         <f t="shared" si="4"/>
         <v>216.58846624999998</v>
       </c>
-      <c r="K11" s="109">
+      <c r="K11" s="102">
         <v>209</v>
       </c>
-      <c r="L11" s="117">
+      <c r="L11" s="110">
         <f t="shared" si="3"/>
         <v>27.618725000000012</v>
       </c>
-      <c r="M11" s="97"/>
+      <c r="M11" s="122"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="106">
+      <c r="O11" s="99">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P11" s="113"/>
-    </row>
-    <row r="12" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="106"/>
+    </row>
+    <row r="12" spans="2:16" ht="22" customHeight="1">
       <c r="B12" s="39" t="s">
         <v>237</v>
       </c>
@@ -10046,22 +10256,22 @@
         <f t="shared" si="4"/>
         <v>216.58846624999998</v>
       </c>
-      <c r="K12" s="109">
+      <c r="K12" s="102">
         <v>209</v>
       </c>
-      <c r="L12" s="117">
+      <c r="L12" s="110">
         <f t="shared" si="3"/>
         <v>27.618725000000012</v>
       </c>
-      <c r="M12" s="97"/>
+      <c r="M12" s="122"/>
       <c r="N12" s="42"/>
-      <c r="O12" s="106">
+      <c r="O12" s="99">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P12" s="113"/>
-    </row>
-    <row r="13" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P12" s="106"/>
+    </row>
+    <row r="13" spans="2:16" ht="22" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>237</v>
       </c>
@@ -10093,22 +10303,22 @@
         <f t="shared" si="4"/>
         <v>65.941240625000006</v>
       </c>
-      <c r="K13" s="109">
+      <c r="K13" s="102">
         <v>69</v>
       </c>
-      <c r="L13" s="117">
+      <c r="L13" s="110">
         <f t="shared" si="3"/>
         <v>18.616312499999999</v>
       </c>
-      <c r="M13" s="97"/>
+      <c r="M13" s="122"/>
       <c r="N13" s="42"/>
-      <c r="O13" s="106">
+      <c r="O13" s="99">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P13" s="113"/>
-    </row>
-    <row r="14" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P13" s="106"/>
+    </row>
+    <row r="14" spans="2:16" ht="22" customHeight="1">
       <c r="B14" s="39" t="s">
         <v>237</v>
       </c>
@@ -10140,22 +10350,22 @@
         <f t="shared" si="4"/>
         <v>177.96097249999997</v>
       </c>
-      <c r="K14" s="109">
+      <c r="K14" s="102">
         <v>169</v>
       </c>
-      <c r="L14" s="117">
+      <c r="L14" s="110">
         <f t="shared" si="3"/>
         <v>21.207850000000008</v>
       </c>
-      <c r="M14" s="97"/>
+      <c r="M14" s="122"/>
       <c r="N14" s="42"/>
-      <c r="O14" s="106">
+      <c r="O14" s="99">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P14" s="113"/>
-    </row>
-    <row r="15" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P14" s="106"/>
+    </row>
+    <row r="15" spans="2:16" ht="22" customHeight="1">
       <c r="B15" s="39" t="s">
         <v>237</v>
       </c>
@@ -10187,22 +10397,22 @@
         <f t="shared" si="4"/>
         <v>123.88248125</v>
       </c>
-      <c r="K15" s="110">
+      <c r="K15" s="103">
         <v>119</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="110">
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M15" s="97"/>
+      <c r="M15" s="122"/>
       <c r="N15" s="45"/>
-      <c r="O15" s="106">
+      <c r="O15" s="99">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P15" s="114"/>
-    </row>
-    <row r="16" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="107"/>
+    </row>
+    <row r="16" spans="2:16" ht="22" customHeight="1">
       <c r="B16" s="39" t="s">
         <v>237</v>
       </c>
@@ -10234,22 +10444,22 @@
         <f t="shared" si="4"/>
         <v>123.88248125</v>
       </c>
-      <c r="K16" s="110">
+      <c r="K16" s="103">
         <v>119</v>
       </c>
-      <c r="L16" s="118">
+      <c r="L16" s="111">
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M16" s="97"/>
+      <c r="M16" s="122"/>
       <c r="N16" s="45"/>
-      <c r="O16" s="106">
+      <c r="O16" s="99">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P16" s="114"/>
-    </row>
-    <row r="17" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P16" s="107"/>
+    </row>
+    <row r="17" spans="2:16" ht="22" customHeight="1">
       <c r="B17" s="39" t="s">
         <v>237</v>
       </c>
@@ -10281,190 +10491,190 @@
         <f t="shared" si="4"/>
         <v>131.60798</v>
       </c>
-      <c r="K17" s="110">
+      <c r="K17" s="103">
         <v>125</v>
       </c>
-      <c r="L17" s="118">
+      <c r="L17" s="111">
         <f t="shared" si="3"/>
         <v>17.514800000000008</v>
       </c>
-      <c r="M17" s="97"/>
+      <c r="M17" s="122"/>
       <c r="N17" s="45"/>
-      <c r="O17" s="106">
+      <c r="O17" s="99">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P17" s="114"/>
-    </row>
-    <row r="18" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P17" s="107"/>
+    </row>
+    <row r="18" spans="2:16" ht="22" customHeight="1">
       <c r="J18" s="81">
-        <f t="shared" ref="J4:J46" si="6">I18*1.15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J18:J46" si="6">I18*1.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="22" customHeight="1">
       <c r="J19" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" ht="22" customHeight="1">
       <c r="J20" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" ht="22" customHeight="1">
       <c r="J21" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" ht="22" customHeight="1">
       <c r="J22" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" ht="22" customHeight="1">
       <c r="J23" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" ht="22" customHeight="1">
       <c r="J24" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="22" customHeight="1">
       <c r="J25" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" ht="22" customHeight="1">
       <c r="J26" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" ht="22" customHeight="1">
       <c r="J27" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" ht="22" customHeight="1">
       <c r="J28" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" ht="22" customHeight="1">
       <c r="J29" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" ht="22" customHeight="1">
       <c r="J30" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" ht="22" customHeight="1">
       <c r="J31" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" ht="22" customHeight="1">
       <c r="J32" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J33" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J34" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J35" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J36" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J37" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J38" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J39" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J40" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J41" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J42" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J43" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J44" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J45" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="10:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="10:10" customFormat="1" ht="22" customHeight="1">
       <c r="J46" s="81">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -10478,6 +10688,1525 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11" style="97"/>
+    <col min="12" max="12" width="14.5" style="112" customWidth="1"/>
+    <col min="16" max="16" width="11" style="108"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="65" customHeight="1">
+      <c r="B1" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="114" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="114"/>
+      <c r="J1" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="109" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" s="104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="65" customHeight="1">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" s="93"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="P2" s="104"/>
+    </row>
+    <row r="3" spans="2:16" ht="22" customHeight="1">
+      <c r="B3" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="40">
+        <v>5101</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="40">
+        <v>280</v>
+      </c>
+      <c r="G3" s="66">
+        <f t="shared" ref="G3:G18" si="0">F3*6.135</f>
+        <v>1717.8</v>
+      </c>
+      <c r="H3" s="60">
+        <f t="shared" ref="H3:H18" si="1">F3*(1+0.095)</f>
+        <v>306.59999999999997</v>
+      </c>
+      <c r="I3" s="66">
+        <f t="shared" ref="I3:I18" si="2">H3*6.135</f>
+        <v>1880.9909999999998</v>
+      </c>
+      <c r="J3" s="81">
+        <f>I3*1.15+8</f>
+        <v>2171.1396499999996</v>
+      </c>
+      <c r="K3" s="101">
+        <v>2099</v>
+      </c>
+      <c r="L3" s="110">
+        <f t="shared" ref="L3:L18" si="3">K3-I3</f>
+        <v>218.00900000000024</v>
+      </c>
+      <c r="M3" s="122" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="98"/>
+      <c r="O3" s="99">
+        <f>N3*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P3" s="105"/>
+    </row>
+    <row r="4" spans="2:16" ht="22" customHeight="1">
+      <c r="B4" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="42">
+        <v>5102</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="42">
+        <v>200</v>
+      </c>
+      <c r="G4" s="62">
+        <f t="shared" si="0"/>
+        <v>1227</v>
+      </c>
+      <c r="H4" s="56">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="I4" s="62">
+        <f t="shared" si="2"/>
+        <v>1343.5650000000001</v>
+      </c>
+      <c r="J4" s="81">
+        <f t="shared" ref="J4:J18" si="4">I4*1.15+8</f>
+        <v>1553.0997499999999</v>
+      </c>
+      <c r="K4" s="102">
+        <v>1599</v>
+      </c>
+      <c r="L4" s="110">
+        <f t="shared" si="3"/>
+        <v>255.43499999999995</v>
+      </c>
+      <c r="M4" s="122"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="99">
+        <f t="shared" ref="O4:O17" si="5">N4*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P4" s="106"/>
+    </row>
+    <row r="5" spans="2:16" ht="22" customHeight="1">
+      <c r="B5" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="40">
+        <v>5103</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="42">
+        <v>240</v>
+      </c>
+      <c r="G5" s="62">
+        <f t="shared" si="0"/>
+        <v>1472.3999999999999</v>
+      </c>
+      <c r="H5" s="56">
+        <f t="shared" si="1"/>
+        <v>262.8</v>
+      </c>
+      <c r="I5" s="62">
+        <f t="shared" si="2"/>
+        <v>1612.278</v>
+      </c>
+      <c r="J5" s="81">
+        <f t="shared" si="4"/>
+        <v>1862.1197</v>
+      </c>
+      <c r="K5" s="102">
+        <v>1799</v>
+      </c>
+      <c r="L5" s="110">
+        <f t="shared" si="3"/>
+        <v>186.72199999999998</v>
+      </c>
+      <c r="M5" s="122"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P5" s="106"/>
+    </row>
+    <row r="6" spans="2:16" ht="22" customHeight="1">
+      <c r="B6" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="42">
+        <v>5104</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="42">
+        <v>175</v>
+      </c>
+      <c r="G6" s="62">
+        <f t="shared" si="0"/>
+        <v>1073.625</v>
+      </c>
+      <c r="H6" s="56">
+        <f t="shared" si="1"/>
+        <v>191.625</v>
+      </c>
+      <c r="I6" s="62">
+        <f t="shared" si="2"/>
+        <v>1175.619375</v>
+      </c>
+      <c r="J6" s="81">
+        <f t="shared" si="4"/>
+        <v>1359.9622812499999</v>
+      </c>
+      <c r="K6" s="102">
+        <v>1399</v>
+      </c>
+      <c r="L6" s="110">
+        <f t="shared" si="3"/>
+        <v>223.38062500000001</v>
+      </c>
+      <c r="M6" s="122"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P6" s="106"/>
+    </row>
+    <row r="7" spans="2:16" ht="22" customHeight="1">
+      <c r="B7" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="40">
+        <v>5105</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="42">
+        <v>175</v>
+      </c>
+      <c r="G7" s="62">
+        <f t="shared" si="0"/>
+        <v>1073.625</v>
+      </c>
+      <c r="H7" s="56">
+        <f t="shared" si="1"/>
+        <v>191.625</v>
+      </c>
+      <c r="I7" s="62">
+        <f t="shared" si="2"/>
+        <v>1175.619375</v>
+      </c>
+      <c r="J7" s="81">
+        <f t="shared" si="4"/>
+        <v>1359.9622812499999</v>
+      </c>
+      <c r="K7" s="102">
+        <v>1399</v>
+      </c>
+      <c r="L7" s="110">
+        <f t="shared" si="3"/>
+        <v>223.38062500000001</v>
+      </c>
+      <c r="M7" s="122"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="106"/>
+    </row>
+    <row r="8" spans="2:16" ht="22" customHeight="1">
+      <c r="B8" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="42">
+        <v>5106</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="42">
+        <v>100</v>
+      </c>
+      <c r="G8" s="62">
+        <f t="shared" si="0"/>
+        <v>613.5</v>
+      </c>
+      <c r="H8" s="56">
+        <f t="shared" si="1"/>
+        <v>109.5</v>
+      </c>
+      <c r="I8" s="62">
+        <f t="shared" si="2"/>
+        <v>671.78250000000003</v>
+      </c>
+      <c r="J8" s="81">
+        <f t="shared" si="4"/>
+        <v>780.54987499999993</v>
+      </c>
+      <c r="K8" s="102">
+        <v>799</v>
+      </c>
+      <c r="L8" s="110">
+        <f t="shared" si="3"/>
+        <v>127.21749999999997</v>
+      </c>
+      <c r="M8" s="122"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="106"/>
+    </row>
+    <row r="9" spans="2:16" ht="22" customHeight="1">
+      <c r="B9" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="40">
+        <v>5107</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="42">
+        <v>100</v>
+      </c>
+      <c r="G9" s="62">
+        <f t="shared" si="0"/>
+        <v>613.5</v>
+      </c>
+      <c r="H9" s="56">
+        <f t="shared" si="1"/>
+        <v>109.5</v>
+      </c>
+      <c r="I9" s="62">
+        <f t="shared" si="2"/>
+        <v>671.78250000000003</v>
+      </c>
+      <c r="J9" s="81">
+        <f t="shared" si="4"/>
+        <v>780.54987499999993</v>
+      </c>
+      <c r="K9" s="102">
+        <v>799</v>
+      </c>
+      <c r="L9" s="110">
+        <f t="shared" si="3"/>
+        <v>127.21749999999997</v>
+      </c>
+      <c r="M9" s="122"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="106"/>
+    </row>
+    <row r="10" spans="2:16" ht="22" customHeight="1">
+      <c r="B10" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="42">
+        <v>5108</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="F10" s="42">
+        <v>90</v>
+      </c>
+      <c r="G10" s="62">
+        <f t="shared" si="0"/>
+        <v>552.15</v>
+      </c>
+      <c r="H10" s="56">
+        <f t="shared" si="1"/>
+        <v>98.55</v>
+      </c>
+      <c r="I10" s="62">
+        <f t="shared" si="2"/>
+        <v>604.60424999999998</v>
+      </c>
+      <c r="J10" s="81">
+        <f t="shared" si="4"/>
+        <v>703.29488749999996</v>
+      </c>
+      <c r="K10" s="102">
+        <v>709</v>
+      </c>
+      <c r="L10" s="110">
+        <f t="shared" si="3"/>
+        <v>104.39575000000002</v>
+      </c>
+      <c r="M10" s="122"/>
+      <c r="N10" s="100">
+        <v>60</v>
+      </c>
+      <c r="O10" s="99">
+        <f t="shared" si="5"/>
+        <v>449</v>
+      </c>
+      <c r="P10" s="106">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="22" customHeight="1">
+      <c r="B11" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="40">
+        <v>5109</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="42">
+        <v>90</v>
+      </c>
+      <c r="G11" s="62">
+        <f t="shared" si="0"/>
+        <v>552.15</v>
+      </c>
+      <c r="H11" s="56">
+        <f t="shared" si="1"/>
+        <v>98.55</v>
+      </c>
+      <c r="I11" s="62">
+        <f t="shared" si="2"/>
+        <v>604.60424999999998</v>
+      </c>
+      <c r="J11" s="81">
+        <f t="shared" si="4"/>
+        <v>703.29488749999996</v>
+      </c>
+      <c r="K11" s="102">
+        <v>709</v>
+      </c>
+      <c r="L11" s="110">
+        <f t="shared" si="3"/>
+        <v>104.39575000000002</v>
+      </c>
+      <c r="M11" s="122"/>
+      <c r="N11" s="42">
+        <v>60</v>
+      </c>
+      <c r="O11" s="99">
+        <f t="shared" si="5"/>
+        <v>449</v>
+      </c>
+      <c r="P11" s="106">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="22" customHeight="1">
+      <c r="B12" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="42">
+        <v>5110</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F12" s="42">
+        <v>130</v>
+      </c>
+      <c r="G12" s="62">
+        <f t="shared" si="0"/>
+        <v>797.55</v>
+      </c>
+      <c r="H12" s="56">
+        <f t="shared" si="1"/>
+        <v>142.35</v>
+      </c>
+      <c r="I12" s="62">
+        <f t="shared" si="2"/>
+        <v>873.31724999999994</v>
+      </c>
+      <c r="J12" s="81">
+        <f t="shared" si="4"/>
+        <v>1012.3148374999998</v>
+      </c>
+      <c r="K12" s="102">
+        <v>1099</v>
+      </c>
+      <c r="L12" s="110">
+        <f t="shared" si="3"/>
+        <v>225.68275000000006</v>
+      </c>
+      <c r="M12" s="122"/>
+      <c r="N12" s="42">
+        <v>80</v>
+      </c>
+      <c r="O12" s="99">
+        <f t="shared" si="5"/>
+        <v>596</v>
+      </c>
+      <c r="P12" s="106">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="22" customHeight="1">
+      <c r="B13" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" s="40">
+        <v>5111</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="42">
+        <v>130</v>
+      </c>
+      <c r="G13" s="62">
+        <f t="shared" si="0"/>
+        <v>797.55</v>
+      </c>
+      <c r="H13" s="56">
+        <f t="shared" si="1"/>
+        <v>142.35</v>
+      </c>
+      <c r="I13" s="62">
+        <f t="shared" si="2"/>
+        <v>873.31724999999994</v>
+      </c>
+      <c r="J13" s="81">
+        <f t="shared" si="4"/>
+        <v>1012.3148374999998</v>
+      </c>
+      <c r="K13" s="102">
+        <v>1099</v>
+      </c>
+      <c r="L13" s="110">
+        <f t="shared" si="3"/>
+        <v>225.68275000000006</v>
+      </c>
+      <c r="M13" s="122"/>
+      <c r="N13" s="42">
+        <v>80</v>
+      </c>
+      <c r="O13" s="99">
+        <f t="shared" si="5"/>
+        <v>596</v>
+      </c>
+      <c r="P13" s="106">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="22" customHeight="1">
+      <c r="B14" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="42">
+        <v>5112</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="42">
+        <v>100</v>
+      </c>
+      <c r="G14" s="62">
+        <f t="shared" si="0"/>
+        <v>613.5</v>
+      </c>
+      <c r="H14" s="56">
+        <f t="shared" si="1"/>
+        <v>109.5</v>
+      </c>
+      <c r="I14" s="62">
+        <f t="shared" si="2"/>
+        <v>671.78250000000003</v>
+      </c>
+      <c r="J14" s="81">
+        <f t="shared" si="4"/>
+        <v>780.54987499999993</v>
+      </c>
+      <c r="K14" s="102">
+        <v>799</v>
+      </c>
+      <c r="L14" s="110">
+        <f t="shared" si="3"/>
+        <v>127.21749999999997</v>
+      </c>
+      <c r="M14" s="122"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P14" s="106"/>
+    </row>
+    <row r="15" spans="2:16" ht="22" customHeight="1">
+      <c r="B15" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="40">
+        <v>5113</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" s="45">
+        <v>90</v>
+      </c>
+      <c r="G15" s="62">
+        <f t="shared" si="0"/>
+        <v>552.15</v>
+      </c>
+      <c r="H15" s="56">
+        <f t="shared" si="1"/>
+        <v>98.55</v>
+      </c>
+      <c r="I15" s="62">
+        <f t="shared" si="2"/>
+        <v>604.60424999999998</v>
+      </c>
+      <c r="J15" s="81">
+        <f t="shared" si="4"/>
+        <v>703.29488749999996</v>
+      </c>
+      <c r="K15" s="103">
+        <v>699</v>
+      </c>
+      <c r="L15" s="110">
+        <f t="shared" si="3"/>
+        <v>94.395750000000021</v>
+      </c>
+      <c r="M15" s="122"/>
+      <c r="N15" s="45">
+        <v>60</v>
+      </c>
+      <c r="O15" s="99">
+        <f t="shared" si="5"/>
+        <v>449</v>
+      </c>
+      <c r="P15" s="107">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="22" customHeight="1">
+      <c r="B16" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C16" s="42">
+        <v>5114</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="45">
+        <v>90</v>
+      </c>
+      <c r="G16" s="62">
+        <f t="shared" si="0"/>
+        <v>552.15</v>
+      </c>
+      <c r="H16" s="56">
+        <f t="shared" si="1"/>
+        <v>98.55</v>
+      </c>
+      <c r="I16" s="62">
+        <f t="shared" si="2"/>
+        <v>604.60424999999998</v>
+      </c>
+      <c r="J16" s="81">
+        <f t="shared" si="4"/>
+        <v>703.29488749999996</v>
+      </c>
+      <c r="K16" s="103">
+        <v>699</v>
+      </c>
+      <c r="L16" s="111">
+        <f t="shared" si="3"/>
+        <v>94.395750000000021</v>
+      </c>
+      <c r="M16" s="122"/>
+      <c r="N16" s="45">
+        <v>60</v>
+      </c>
+      <c r="O16" s="99">
+        <f t="shared" si="5"/>
+        <v>449</v>
+      </c>
+      <c r="P16" s="107">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="22" customHeight="1">
+      <c r="B17" s="129" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="130">
+        <v>5115</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="45">
+        <v>90</v>
+      </c>
+      <c r="G17" s="62">
+        <f t="shared" si="0"/>
+        <v>552.15</v>
+      </c>
+      <c r="H17" s="56">
+        <f t="shared" si="1"/>
+        <v>98.55</v>
+      </c>
+      <c r="I17" s="62">
+        <f t="shared" si="2"/>
+        <v>604.60424999999998</v>
+      </c>
+      <c r="J17" s="131">
+        <f t="shared" si="4"/>
+        <v>703.29488749999996</v>
+      </c>
+      <c r="K17" s="103">
+        <v>699</v>
+      </c>
+      <c r="L17" s="111">
+        <f t="shared" si="3"/>
+        <v>94.395750000000021</v>
+      </c>
+      <c r="M17" s="122"/>
+      <c r="N17" s="45">
+        <v>60</v>
+      </c>
+      <c r="O17" s="132">
+        <f t="shared" si="5"/>
+        <v>449</v>
+      </c>
+      <c r="P17" s="107">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" s="133" customFormat="1" ht="22" customHeight="1">
+      <c r="B18" s="129" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="42">
+        <v>5116</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="42">
+        <v>120</v>
+      </c>
+      <c r="G18" s="87">
+        <f t="shared" si="0"/>
+        <v>736.19999999999993</v>
+      </c>
+      <c r="H18" s="134">
+        <f t="shared" si="1"/>
+        <v>131.4</v>
+      </c>
+      <c r="I18" s="87">
+        <f t="shared" si="2"/>
+        <v>806.13900000000001</v>
+      </c>
+      <c r="J18" s="123">
+        <f t="shared" si="4"/>
+        <v>935.05984999999998</v>
+      </c>
+      <c r="K18" s="102">
+        <v>959</v>
+      </c>
+      <c r="L18" s="135">
+        <f t="shared" si="3"/>
+        <v>152.86099999999999</v>
+      </c>
+      <c r="M18" s="136"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="113"/>
+    </row>
+    <row r="19" spans="2:16" s="128" customFormat="1" ht="22" customHeight="1">
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="126"/>
+      <c r="P19" s="127"/>
+    </row>
+    <row r="20" spans="2:16" ht="22" customHeight="1">
+      <c r="J20" s="81"/>
+    </row>
+    <row r="21" spans="2:16" ht="22" customHeight="1">
+      <c r="B21" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="40">
+        <v>5201</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" s="40">
+        <v>40</v>
+      </c>
+      <c r="G21" s="66">
+        <f t="shared" ref="G21:G28" si="6">F21*6.135</f>
+        <v>245.39999999999998</v>
+      </c>
+      <c r="H21" s="60">
+        <f t="shared" ref="H21:H28" si="7">F21*(1+0.095)</f>
+        <v>43.8</v>
+      </c>
+      <c r="I21" s="66">
+        <f t="shared" ref="I21:I28" si="8">H21*6.135</f>
+        <v>268.71299999999997</v>
+      </c>
+      <c r="J21" s="81">
+        <f>I21*1.15+8</f>
+        <v>317.01994999999994</v>
+      </c>
+      <c r="K21" s="101">
+        <v>319</v>
+      </c>
+      <c r="L21" s="110">
+        <f t="shared" ref="L21:L28" si="9">K21-I21</f>
+        <v>50.287000000000035</v>
+      </c>
+      <c r="N21" s="98"/>
+      <c r="O21" s="99">
+        <f>N21*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P21" s="105"/>
+    </row>
+    <row r="22" spans="2:16" ht="22" customHeight="1">
+      <c r="B22" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="42">
+        <v>5202</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="42">
+        <v>26</v>
+      </c>
+      <c r="G22" s="62">
+        <f t="shared" si="6"/>
+        <v>159.51</v>
+      </c>
+      <c r="H22" s="56">
+        <f t="shared" si="7"/>
+        <v>28.47</v>
+      </c>
+      <c r="I22" s="62">
+        <f t="shared" si="8"/>
+        <v>174.66344999999998</v>
+      </c>
+      <c r="J22" s="81">
+        <f t="shared" ref="J22:J28" si="10">I22*1.15+8</f>
+        <v>208.86296749999997</v>
+      </c>
+      <c r="K22" s="102">
+        <v>209</v>
+      </c>
+      <c r="L22" s="110">
+        <f t="shared" si="9"/>
+        <v>34.336550000000017</v>
+      </c>
+      <c r="N22" s="42"/>
+      <c r="O22" s="99">
+        <f t="shared" ref="O22:O28" si="11">N22*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P22" s="106"/>
+    </row>
+    <row r="23" spans="2:16" ht="22" customHeight="1">
+      <c r="B23" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="40">
+        <v>5203</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F23" s="42">
+        <v>26</v>
+      </c>
+      <c r="G23" s="62">
+        <f t="shared" si="6"/>
+        <v>159.51</v>
+      </c>
+      <c r="H23" s="56">
+        <f t="shared" si="7"/>
+        <v>28.47</v>
+      </c>
+      <c r="I23" s="62">
+        <f t="shared" si="8"/>
+        <v>174.66344999999998</v>
+      </c>
+      <c r="J23" s="81">
+        <f t="shared" si="10"/>
+        <v>208.86296749999997</v>
+      </c>
+      <c r="K23" s="102">
+        <v>209</v>
+      </c>
+      <c r="L23" s="110">
+        <f t="shared" si="9"/>
+        <v>34.336550000000017</v>
+      </c>
+      <c r="N23" s="42"/>
+      <c r="O23" s="99">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="P23" s="106"/>
+    </row>
+    <row r="24" spans="2:16" ht="22" customHeight="1">
+      <c r="B24" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C24" s="42">
+        <v>5204</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F24" s="42">
+        <v>26</v>
+      </c>
+      <c r="G24" s="62">
+        <f t="shared" si="6"/>
+        <v>159.51</v>
+      </c>
+      <c r="H24" s="56">
+        <f t="shared" si="7"/>
+        <v>28.47</v>
+      </c>
+      <c r="I24" s="62">
+        <f t="shared" si="8"/>
+        <v>174.66344999999998</v>
+      </c>
+      <c r="J24" s="81">
+        <f t="shared" si="10"/>
+        <v>208.86296749999997</v>
+      </c>
+      <c r="K24" s="102">
+        <v>209</v>
+      </c>
+      <c r="L24" s="110">
+        <f t="shared" si="9"/>
+        <v>34.336550000000017</v>
+      </c>
+      <c r="N24" s="42"/>
+      <c r="O24" s="99">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="P24" s="106"/>
+    </row>
+    <row r="25" spans="2:16" ht="22" customHeight="1">
+      <c r="B25" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="40">
+        <v>5205</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F25" s="42">
+        <v>26</v>
+      </c>
+      <c r="G25" s="62">
+        <f t="shared" si="6"/>
+        <v>159.51</v>
+      </c>
+      <c r="H25" s="56">
+        <f t="shared" si="7"/>
+        <v>28.47</v>
+      </c>
+      <c r="I25" s="62">
+        <f t="shared" si="8"/>
+        <v>174.66344999999998</v>
+      </c>
+      <c r="J25" s="81">
+        <f t="shared" si="10"/>
+        <v>208.86296749999997</v>
+      </c>
+      <c r="K25" s="102">
+        <v>209</v>
+      </c>
+      <c r="L25" s="110">
+        <f t="shared" si="9"/>
+        <v>34.336550000000017</v>
+      </c>
+      <c r="N25" s="100"/>
+      <c r="O25" s="99">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="P25" s="106"/>
+    </row>
+    <row r="26" spans="2:16" ht="22" customHeight="1">
+      <c r="B26" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C26" s="42">
+        <v>5206</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>302</v>
+      </c>
+      <c r="F26" s="42">
+        <v>40</v>
+      </c>
+      <c r="G26" s="62">
+        <f t="shared" si="6"/>
+        <v>245.39999999999998</v>
+      </c>
+      <c r="H26" s="56">
+        <f t="shared" si="7"/>
+        <v>43.8</v>
+      </c>
+      <c r="I26" s="62">
+        <f t="shared" si="8"/>
+        <v>268.71299999999997</v>
+      </c>
+      <c r="J26" s="81">
+        <f t="shared" si="10"/>
+        <v>317.01994999999994</v>
+      </c>
+      <c r="K26" s="102">
+        <v>319</v>
+      </c>
+      <c r="L26" s="110">
+        <f t="shared" si="9"/>
+        <v>50.287000000000035</v>
+      </c>
+      <c r="N26" s="42"/>
+      <c r="O26" s="99">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="P26" s="106"/>
+    </row>
+    <row r="27" spans="2:16" ht="22" customHeight="1">
+      <c r="B27" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="40">
+        <v>5207</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" s="42">
+        <v>30</v>
+      </c>
+      <c r="G27" s="62">
+        <f t="shared" si="6"/>
+        <v>184.04999999999998</v>
+      </c>
+      <c r="H27" s="56">
+        <f t="shared" si="7"/>
+        <v>32.85</v>
+      </c>
+      <c r="I27" s="62">
+        <f t="shared" si="8"/>
+        <v>201.53475</v>
+      </c>
+      <c r="J27" s="81">
+        <f t="shared" si="10"/>
+        <v>239.7649625</v>
+      </c>
+      <c r="K27" s="102">
+        <v>240</v>
+      </c>
+      <c r="L27" s="110">
+        <f t="shared" si="9"/>
+        <v>38.465249999999997</v>
+      </c>
+      <c r="N27" s="100"/>
+      <c r="O27" s="99">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="P27" s="106"/>
+    </row>
+    <row r="28" spans="2:16" ht="22" customHeight="1">
+      <c r="B28" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C28" s="42">
+        <v>5208</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="42">
+        <v>30</v>
+      </c>
+      <c r="G28" s="62">
+        <f t="shared" si="6"/>
+        <v>184.04999999999998</v>
+      </c>
+      <c r="H28" s="56">
+        <f t="shared" si="7"/>
+        <v>32.85</v>
+      </c>
+      <c r="I28" s="62">
+        <f t="shared" si="8"/>
+        <v>201.53475</v>
+      </c>
+      <c r="J28" s="81">
+        <f t="shared" si="10"/>
+        <v>239.7649625</v>
+      </c>
+      <c r="K28" s="102">
+        <v>240</v>
+      </c>
+      <c r="L28" s="110">
+        <f t="shared" si="9"/>
+        <v>38.465249999999997</v>
+      </c>
+      <c r="N28" s="100"/>
+      <c r="O28" s="99">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="P28" s="106"/>
+    </row>
+    <row r="29" spans="2:16" ht="22" customHeight="1">
+      <c r="B29" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C29" s="40">
+        <v>5209</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="F29" s="42">
+        <v>30</v>
+      </c>
+      <c r="G29" s="62">
+        <f t="shared" ref="G29:G30" si="12">F29*6.135</f>
+        <v>184.04999999999998</v>
+      </c>
+      <c r="H29" s="56">
+        <f t="shared" ref="H29:H30" si="13">F29*(1+0.095)</f>
+        <v>32.85</v>
+      </c>
+      <c r="I29" s="62">
+        <f t="shared" ref="I29:I30" si="14">H29*6.135</f>
+        <v>201.53475</v>
+      </c>
+      <c r="J29" s="81">
+        <f t="shared" ref="J29:J30" si="15">I29*1.15+8</f>
+        <v>239.7649625</v>
+      </c>
+      <c r="K29" s="102">
+        <v>240</v>
+      </c>
+      <c r="L29" s="110">
+        <f t="shared" ref="L29:L30" si="16">K29-I29</f>
+        <v>38.465249999999997</v>
+      </c>
+      <c r="N29" s="100"/>
+      <c r="O29" s="99">
+        <f t="shared" ref="O29:O30" si="17">N29*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P29" s="106"/>
+    </row>
+    <row r="30" spans="2:16" ht="22" customHeight="1">
+      <c r="B30" s="39" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="42">
+        <v>5210</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="F30" s="42">
+        <v>30</v>
+      </c>
+      <c r="G30" s="62">
+        <f t="shared" si="12"/>
+        <v>184.04999999999998</v>
+      </c>
+      <c r="H30" s="56">
+        <f t="shared" si="13"/>
+        <v>32.85</v>
+      </c>
+      <c r="I30" s="62">
+        <f t="shared" si="14"/>
+        <v>201.53475</v>
+      </c>
+      <c r="J30" s="81">
+        <f t="shared" si="15"/>
+        <v>239.7649625</v>
+      </c>
+      <c r="K30" s="102">
+        <v>240</v>
+      </c>
+      <c r="L30" s="110">
+        <f t="shared" si="16"/>
+        <v>38.465249999999997</v>
+      </c>
+      <c r="N30" s="100"/>
+      <c r="O30" s="99">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="P30" s="106"/>
+    </row>
+    <row r="31" spans="2:16" ht="22" customHeight="1">
+      <c r="J31" s="81">
+        <f t="shared" ref="J20:J48" si="18">I31*1.15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="22" customHeight="1">
+      <c r="J32" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="10:16" ht="22" customHeight="1">
+      <c r="J33" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="10:16" ht="22" customHeight="1">
+      <c r="J34" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="10:16" ht="17">
+      <c r="J35" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="10:16" ht="17">
+      <c r="J36" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="10:16" ht="17">
+      <c r="J37" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="P37"/>
+    </row>
+    <row r="38" spans="10:16" ht="17">
+      <c r="J38" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="P38"/>
+    </row>
+    <row r="39" spans="10:16" ht="17">
+      <c r="J39" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="P39"/>
+    </row>
+    <row r="40" spans="10:16" ht="17">
+      <c r="J40" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="P40"/>
+    </row>
+    <row r="41" spans="10:16" ht="17">
+      <c r="J41" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="P41"/>
+    </row>
+    <row r="42" spans="10:16" ht="17">
+      <c r="J42" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="P42"/>
+    </row>
+    <row r="43" spans="10:16" ht="17">
+      <c r="J43" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="P43"/>
+    </row>
+    <row r="44" spans="10:16" ht="17">
+      <c r="J44" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="P44"/>
+    </row>
+    <row r="45" spans="10:16" ht="17">
+      <c r="J45" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="P45"/>
+    </row>
+    <row r="46" spans="10:16" ht="17">
+      <c r="J46" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="P46"/>
+    </row>
+    <row r="47" spans="10:16" ht="17">
+      <c r="J47" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="P47"/>
+    </row>
+    <row r="48" spans="10:16" ht="17">
+      <c r="J48" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="P48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="M3:M17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Logpie.xlsx
+++ b/Logpie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="护肤品1000" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="母婴4000" sheetId="3" r:id="rId4"/>
     <sheet name="保健品5000" sheetId="5" r:id="rId5"/>
     <sheet name="服饰6000" sheetId="6" r:id="rId6"/>
+    <sheet name="运动类7000" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="360">
   <si>
     <t>Fresh</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1341,6 +1342,121 @@
   </si>
   <si>
     <t>女士柔软内绒外套-玫红</t>
+  </si>
+  <si>
+    <t>5/5.5/6/6.5/7/7.5/8</t>
+  </si>
+  <si>
+    <t>5/5.5/6/6.5/7/7.5/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/5.5/6/6.5/7/7.5/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆布平底鞋_米色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆布平底鞋_浅蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minnetonka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelloKitty系列平底鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麂皮绒平底鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步行平底鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮革鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平底鞋_深棕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流苏平底鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软底平底鞋(宽版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克里斯内绒鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚踝单靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内绒流苏靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jawbone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动手环-黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动手环-红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动手环-蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动手环-银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代运动手环-黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代运动手环-蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代运动手环-红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代运动手环-粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代运动手环-橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/M/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/M/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1356,7 +1472,7 @@
     <numFmt numFmtId="178" formatCode="_ [$￥-804]* #,##0.00_ ;_ [$￥-804]* \-#,##0.00_ ;_ [$￥-804]* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1432,6 +1548,11 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1633,7 +1754,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1693,8 +1814,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2032,28 +2171,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2097,8 +2215,38 @@
     <xf numFmtId="179" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="77">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -2144,6 +2292,24 @@
     <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2497,9 +2663,9 @@
   <dimension ref="B1:Y93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -2539,14 +2705,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114" t="s">
+      <c r="G1" s="131"/>
+      <c r="H1" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="131"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -2559,10 +2725,10 @@
       <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="114" t="s">
+      <c r="N1" s="131" t="s">
         <v>256</v>
       </c>
-      <c r="O1" s="114"/>
+      <c r="O1" s="131"/>
       <c r="P1" s="88" t="s">
         <v>273</v>
       </c>
@@ -3142,7 +3308,7 @@
         <f t="shared" ref="L12:L28" si="9">K12-I12</f>
         <v>40.977637500000014</v>
       </c>
-      <c r="M12" s="118" t="s">
+      <c r="M12" s="135" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="13">
@@ -3203,7 +3369,7 @@
         <f t="shared" si="9"/>
         <v>46.621137500000032</v>
       </c>
-      <c r="M13" s="119"/>
+      <c r="M13" s="136"/>
       <c r="N13" s="13"/>
       <c r="O13" s="11" t="s">
         <v>80</v>
@@ -3260,7 +3426,7 @@
         <f t="shared" si="9"/>
         <v>37.541987500000005</v>
       </c>
-      <c r="M14" s="119"/>
+      <c r="M14" s="136"/>
       <c r="N14" s="13">
         <v>300</v>
       </c>
@@ -3319,7 +3485,7 @@
         <f t="shared" si="9"/>
         <v>43.262225000000058</v>
       </c>
-      <c r="M15" s="119"/>
+      <c r="M15" s="136"/>
       <c r="N15" s="13"/>
       <c r="O15" s="11" t="s">
         <v>82</v>
@@ -3376,7 +3542,7 @@
         <f t="shared" si="9"/>
         <v>44.490025000000003</v>
       </c>
-      <c r="M16" s="119"/>
+      <c r="M16" s="136"/>
       <c r="N16" s="13">
         <v>280</v>
       </c>
@@ -3435,7 +3601,7 @@
         <f t="shared" si="9"/>
         <v>37.925675000000012</v>
       </c>
-      <c r="M17" s="119"/>
+      <c r="M17" s="136"/>
       <c r="N17" s="13"/>
       <c r="O17" s="11"/>
       <c r="P17" s="12">
@@ -3490,7 +3656,7 @@
         <f t="shared" si="9"/>
         <v>43.87612500000003</v>
       </c>
-      <c r="M18" s="119"/>
+      <c r="M18" s="136"/>
       <c r="N18" s="13">
         <v>330</v>
       </c>
@@ -3549,7 +3715,7 @@
         <f t="shared" si="9"/>
         <v>66.467662500000017</v>
       </c>
-      <c r="M19" s="119"/>
+      <c r="M19" s="136"/>
       <c r="N19" s="13">
         <v>520</v>
       </c>
@@ -3608,7 +3774,7 @@
         <f t="shared" si="9"/>
         <v>68.445300000000032</v>
       </c>
-      <c r="M20" s="119"/>
+      <c r="M20" s="136"/>
       <c r="N20" s="13"/>
       <c r="O20" s="11">
         <v>509</v>
@@ -3665,7 +3831,7 @@
         <f t="shared" si="9"/>
         <v>49.980050000000006</v>
       </c>
-      <c r="M21" s="119"/>
+      <c r="M21" s="136"/>
       <c r="N21" s="13">
         <v>450</v>
       </c>
@@ -3724,7 +3890,7 @@
         <f t="shared" si="9"/>
         <v>68.75225000000006</v>
       </c>
-      <c r="M22" s="119"/>
+      <c r="M22" s="136"/>
       <c r="N22" s="13"/>
       <c r="O22" s="11"/>
       <c r="P22" s="12">
@@ -3779,7 +3945,7 @@
         <f t="shared" si="9"/>
         <v>21.975225000000002</v>
       </c>
-      <c r="M23" s="119"/>
+      <c r="M23" s="136"/>
       <c r="N23" s="13"/>
       <c r="O23" s="11">
         <v>65</v>
@@ -3836,7 +4002,7 @@
         <f t="shared" si="9"/>
         <v>28.079149999999998</v>
       </c>
-      <c r="M24" s="119"/>
+      <c r="M24" s="136"/>
       <c r="N24" s="13">
         <v>180</v>
       </c>
@@ -3895,7 +4061,7 @@
         <f t="shared" si="9"/>
         <v>50.900900000000007</v>
       </c>
-      <c r="M25" s="119"/>
+      <c r="M25" s="136"/>
       <c r="N25" s="13">
         <v>340</v>
       </c>
@@ -3954,7 +4120,7 @@
         <f t="shared" si="9"/>
         <v>21.975225000000002</v>
       </c>
-      <c r="M26" s="119"/>
+      <c r="M26" s="136"/>
       <c r="N26" s="13"/>
       <c r="O26" s="11"/>
       <c r="P26" s="12">
@@ -4009,7 +4175,7 @@
         <f t="shared" si="9"/>
         <v>31.361325000000008</v>
       </c>
-      <c r="M27" s="119"/>
+      <c r="M27" s="136"/>
       <c r="N27" s="13">
         <v>220</v>
       </c>
@@ -4068,7 +4234,7 @@
         <f t="shared" si="9"/>
         <v>57.465249999999997</v>
       </c>
-      <c r="M28" s="120"/>
+      <c r="M28" s="137"/>
       <c r="N28" s="13">
         <v>360</v>
       </c>
@@ -4150,7 +4316,7 @@
         <f t="shared" ref="L30:L36" si="14">K30-I30</f>
         <v>72.494849999999985</v>
       </c>
-      <c r="M30" s="117" t="s">
+      <c r="M30" s="134" t="s">
         <v>46</v>
       </c>
       <c r="N30" s="13">
@@ -4206,7 +4372,7 @@
         <f t="shared" si="14"/>
         <v>100.96010000000001</v>
       </c>
-      <c r="M31" s="117"/>
+      <c r="M31" s="134"/>
       <c r="N31" s="13">
         <v>950</v>
       </c>
@@ -4260,7 +4426,7 @@
         <f t="shared" si="14"/>
         <v>59.366150000000005</v>
       </c>
-      <c r="M32" s="117"/>
+      <c r="M32" s="134"/>
       <c r="N32" s="13">
         <v>560</v>
       </c>
@@ -4314,7 +4480,7 @@
         <f t="shared" si="14"/>
         <v>73.341375000000028</v>
       </c>
-      <c r="M33" s="117"/>
+      <c r="M33" s="134"/>
       <c r="N33" s="13">
         <v>650</v>
       </c>
@@ -4368,7 +4534,7 @@
         <f t="shared" si="14"/>
         <v>47.465249999999997</v>
       </c>
-      <c r="M34" s="117"/>
+      <c r="M34" s="134"/>
       <c r="N34" s="13">
         <v>280</v>
       </c>
@@ -4420,7 +4586,7 @@
         <f t="shared" si="14"/>
         <v>39.519625000000019</v>
       </c>
-      <c r="M35" s="117"/>
+      <c r="M35" s="134"/>
       <c r="N35" s="13">
         <v>480</v>
       </c>
@@ -4474,7 +4640,7 @@
         <f t="shared" si="14"/>
         <v>55.930499999999995</v>
       </c>
-      <c r="M36" s="117"/>
+      <c r="M36" s="134"/>
       <c r="N36" s="13">
         <v>590</v>
       </c>
@@ -4551,7 +4717,7 @@
         <f t="shared" ref="L38:L43" si="17">K38-I38</f>
         <v>24.796975000000018</v>
       </c>
-      <c r="M38" s="117" t="s">
+      <c r="M38" s="134" t="s">
         <v>45</v>
       </c>
       <c r="N38" s="21">
@@ -4607,7 +4773,7 @@
         <f t="shared" si="17"/>
         <v>24.950450000000004</v>
       </c>
-      <c r="M39" s="117"/>
+      <c r="M39" s="134"/>
       <c r="N39" s="13">
         <v>160</v>
       </c>
@@ -4661,7 +4827,7 @@
         <f t="shared" si="17"/>
         <v>21.591537500000001</v>
       </c>
-      <c r="M40" s="117"/>
+      <c r="M40" s="134"/>
       <c r="N40" s="13"/>
       <c r="O40" s="11" t="s">
         <v>136</v>
@@ -4713,7 +4879,7 @@
         <f t="shared" si="17"/>
         <v>34.336550000000017</v>
       </c>
-      <c r="M41" s="117"/>
+      <c r="M41" s="134"/>
       <c r="N41" s="13">
         <v>340</v>
       </c>
@@ -4767,7 +4933,7 @@
         <f t="shared" si="17"/>
         <v>21.591537500000001</v>
       </c>
-      <c r="M42" s="117"/>
+      <c r="M42" s="134"/>
       <c r="N42" s="13"/>
       <c r="O42" s="11" t="s">
         <v>137</v>
@@ -4819,7 +4985,7 @@
         <f t="shared" si="17"/>
         <v>34.336550000000017</v>
       </c>
-      <c r="M43" s="117"/>
+      <c r="M43" s="134"/>
       <c r="N43" s="13">
         <v>340</v>
       </c>
@@ -4896,7 +5062,7 @@
         <f t="shared" ref="L45:L50" si="21">K45-I45</f>
         <v>61.054374999999993</v>
       </c>
-      <c r="M45" s="118" t="s">
+      <c r="M45" s="135" t="s">
         <v>141</v>
       </c>
       <c r="N45" s="13">
@@ -4950,7 +5116,7 @@
         <f t="shared" si="21"/>
         <v>37.158299999999997</v>
       </c>
-      <c r="M46" s="119"/>
+      <c r="M46" s="136"/>
       <c r="N46" s="13"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
@@ -5000,7 +5166,7 @@
         <f t="shared" si="21"/>
         <v>40.13352500000002</v>
       </c>
-      <c r="M47" s="119"/>
+      <c r="M47" s="136"/>
       <c r="N47" s="13">
         <v>320</v>
       </c>
@@ -5054,7 +5220,7 @@
         <f t="shared" si="21"/>
         <v>42.341375000000028</v>
       </c>
-      <c r="M48" s="119"/>
+      <c r="M48" s="136"/>
       <c r="N48" s="13">
         <v>560</v>
       </c>
@@ -5108,7 +5274,7 @@
         <f t="shared" si="21"/>
         <v>74.70270000000005</v>
       </c>
-      <c r="M49" s="119"/>
+      <c r="M49" s="136"/>
       <c r="N49" s="13">
         <v>780</v>
       </c>
@@ -5160,7 +5326,7 @@
         <f t="shared" si="21"/>
         <v>70.346200000000067</v>
       </c>
-      <c r="M50" s="119"/>
+      <c r="M50" s="136"/>
       <c r="N50" s="13">
         <v>1080</v>
       </c>
@@ -5893,7 +6059,7 @@
         <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M65" s="115" t="s">
+      <c r="M65" s="132" t="s">
         <v>154</v>
       </c>
       <c r="N65" s="13">
@@ -5949,7 +6115,7 @@
         <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M66" s="116"/>
+      <c r="M66" s="133"/>
       <c r="N66" s="13">
         <v>490</v>
       </c>
@@ -6003,7 +6169,7 @@
         <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M67" s="116"/>
+      <c r="M67" s="133"/>
       <c r="N67" s="13">
         <v>490</v>
       </c>
@@ -6057,7 +6223,7 @@
         <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M68" s="116"/>
+      <c r="M68" s="133"/>
       <c r="N68" s="27">
         <v>490</v>
       </c>
@@ -6134,14 +6300,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="138" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="121"/>
+      <c r="I1" s="138"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -7231,14 +7397,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="114" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="121"/>
+      <c r="I1" s="138"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -7331,7 +7497,7 @@
         <f t="shared" ref="N3:N16" si="4">L3-I3</f>
         <v>67.158299999999997</v>
       </c>
-      <c r="O3" s="122" t="s">
+      <c r="O3" s="139" t="s">
         <v>162</v>
       </c>
       <c r="P3" s="40"/>
@@ -7386,7 +7552,7 @@
         <f t="shared" si="4"/>
         <v>67.158299999999997</v>
       </c>
-      <c r="O4" s="122"/>
+      <c r="O4" s="139"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="42" t="s">
         <v>175</v>
@@ -7439,7 +7605,7 @@
         <f t="shared" si="4"/>
         <v>37.465249999999997</v>
       </c>
-      <c r="O5" s="122"/>
+      <c r="O5" s="139"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="42" t="s">
         <v>176</v>
@@ -7492,7 +7658,7 @@
         <f t="shared" si="4"/>
         <v>63.108749999999986</v>
       </c>
-      <c r="O6" s="122"/>
+      <c r="O6" s="139"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="42" t="s">
         <v>177</v>
@@ -7545,7 +7711,7 @@
         <f t="shared" si="4"/>
         <v>80.900900000000007</v>
       </c>
-      <c r="O7" s="122"/>
+      <c r="O7" s="139"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42" t="s">
         <v>178</v>
@@ -7598,7 +7764,7 @@
         <f t="shared" si="4"/>
         <v>67.158299999999997</v>
       </c>
-      <c r="O8" s="122"/>
+      <c r="O8" s="139"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="42" t="s">
         <v>179</v>
@@ -7651,7 +7817,7 @@
         <f t="shared" si="4"/>
         <v>63.108749999999986</v>
       </c>
-      <c r="O9" s="122"/>
+      <c r="O9" s="139"/>
       <c r="P9" s="42"/>
       <c r="Q9" s="42" t="s">
         <v>180</v>
@@ -7704,7 +7870,7 @@
         <f t="shared" si="4"/>
         <v>47.465249999999997</v>
       </c>
-      <c r="O10" s="122"/>
+      <c r="O10" s="139"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="42" t="s">
         <v>175</v>
@@ -7757,7 +7923,7 @@
         <f t="shared" si="4"/>
         <v>63.108749999999986</v>
       </c>
-      <c r="O11" s="122"/>
+      <c r="O11" s="139"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="42">
         <v>400</v>
@@ -7810,7 +7976,7 @@
         <f t="shared" si="4"/>
         <v>61.514800000000008</v>
       </c>
-      <c r="O12" s="122"/>
+      <c r="O12" s="139"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="42" t="s">
         <v>181</v>
@@ -7863,7 +8029,7 @@
         <f t="shared" si="4"/>
         <v>61.514800000000008</v>
       </c>
-      <c r="O13" s="122"/>
+      <c r="O13" s="139"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="42" t="s">
         <v>175</v>
@@ -7899,7 +8065,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14" s="122"/>
+      <c r="O14" s="139"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="46"/>
@@ -7930,7 +8096,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="122"/>
+      <c r="O15" s="139"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
       <c r="R15" s="46"/>
@@ -7961,7 +8127,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16" s="122"/>
+      <c r="O16" s="139"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="46"/>
@@ -8021,14 +8187,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="114" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="121"/>
+      <c r="I1" s="138"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -9724,14 +9890,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114" t="s">
+      <c r="G1" s="131"/>
+      <c r="H1" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="131"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -9822,7 +9988,7 @@
         <f t="shared" ref="L3:L17" si="3">K3-I3</f>
         <v>18.079149999999998</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="139" t="s">
         <v>162</v>
       </c>
       <c r="N3" s="98">
@@ -9875,7 +10041,7 @@
         <f t="shared" si="3"/>
         <v>20.643500000000017</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="139"/>
       <c r="N4" s="42"/>
       <c r="O4" s="99">
         <f t="shared" ref="O4:O17" si="5">N4*6.125*1.2+8</f>
@@ -9922,7 +10088,7 @@
         <f t="shared" si="3"/>
         <v>11.257400000000004</v>
       </c>
-      <c r="M5" s="122"/>
+      <c r="M5" s="139"/>
       <c r="N5" s="42"/>
       <c r="O5" s="99">
         <f t="shared" si="5"/>
@@ -9969,7 +10135,7 @@
         <f t="shared" si="3"/>
         <v>20.796975000000018</v>
       </c>
-      <c r="M6" s="122"/>
+      <c r="M6" s="139"/>
       <c r="N6" s="42"/>
       <c r="O6" s="99">
         <f t="shared" si="5"/>
@@ -10016,7 +10182,7 @@
         <f t="shared" si="3"/>
         <v>11.668275000000008</v>
       </c>
-      <c r="M7" s="122"/>
+      <c r="M7" s="139"/>
       <c r="N7" s="100">
         <v>11</v>
       </c>
@@ -10067,7 +10233,7 @@
         <f t="shared" si="3"/>
         <v>15.257400000000004</v>
       </c>
-      <c r="M8" s="122"/>
+      <c r="M8" s="139"/>
       <c r="N8" s="42"/>
       <c r="O8" s="99">
         <f t="shared" si="5"/>
@@ -10114,7 +10280,7 @@
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M9" s="122"/>
+      <c r="M9" s="139"/>
       <c r="N9" s="100">
         <v>11</v>
       </c>
@@ -10165,7 +10331,7 @@
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M10" s="122"/>
+      <c r="M10" s="139"/>
       <c r="N10" s="100">
         <v>11</v>
       </c>
@@ -10216,7 +10382,7 @@
         <f t="shared" si="3"/>
         <v>27.618725000000012</v>
       </c>
-      <c r="M11" s="122"/>
+      <c r="M11" s="139"/>
       <c r="N11" s="42"/>
       <c r="O11" s="99">
         <f t="shared" si="5"/>
@@ -10263,7 +10429,7 @@
         <f t="shared" si="3"/>
         <v>27.618725000000012</v>
       </c>
-      <c r="M12" s="122"/>
+      <c r="M12" s="139"/>
       <c r="N12" s="42"/>
       <c r="O12" s="99">
         <f t="shared" si="5"/>
@@ -10310,7 +10476,7 @@
         <f t="shared" si="3"/>
         <v>18.616312499999999</v>
       </c>
-      <c r="M13" s="122"/>
+      <c r="M13" s="139"/>
       <c r="N13" s="42"/>
       <c r="O13" s="99">
         <f t="shared" si="5"/>
@@ -10357,7 +10523,7 @@
         <f t="shared" si="3"/>
         <v>21.207850000000008</v>
       </c>
-      <c r="M14" s="122"/>
+      <c r="M14" s="139"/>
       <c r="N14" s="42"/>
       <c r="O14" s="99">
         <f t="shared" si="5"/>
@@ -10404,7 +10570,7 @@
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M15" s="122"/>
+      <c r="M15" s="139"/>
       <c r="N15" s="45"/>
       <c r="O15" s="99">
         <f t="shared" si="5"/>
@@ -10451,7 +10617,7 @@
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M16" s="122"/>
+      <c r="M16" s="139"/>
       <c r="N16" s="45"/>
       <c r="O16" s="99">
         <f t="shared" si="5"/>
@@ -10498,7 +10664,7 @@
         <f t="shared" si="3"/>
         <v>17.514800000000008</v>
       </c>
-      <c r="M17" s="122"/>
+      <c r="M17" s="139"/>
       <c r="N17" s="45"/>
       <c r="O17" s="99">
         <f t="shared" si="5"/>
@@ -10699,15 +10865,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P48"/>
+  <dimension ref="B1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" customWidth="1"/>
     <col min="9" max="9" width="13.83203125" customWidth="1"/>
@@ -10730,14 +10898,14 @@
       <c r="E1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="131" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114" t="s">
+      <c r="G1" s="131"/>
+      <c r="H1" s="131" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="114"/>
+      <c r="I1" s="131"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -10794,7 +10962,7 @@
         <v>295</v>
       </c>
       <c r="C3" s="40">
-        <v>5101</v>
+        <v>6101</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>318</v>
@@ -10828,7 +10996,7 @@
         <f t="shared" ref="L3:L18" si="3">K3-I3</f>
         <v>218.00900000000024</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="139" t="s">
         <v>162</v>
       </c>
       <c r="N3" s="98"/>
@@ -10843,7 +11011,7 @@
         <v>295</v>
       </c>
       <c r="C4" s="42">
-        <v>5102</v>
+        <v>6102</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>319</v>
@@ -10877,7 +11045,7 @@
         <f t="shared" si="3"/>
         <v>255.43499999999995</v>
       </c>
-      <c r="M4" s="122"/>
+      <c r="M4" s="139"/>
       <c r="N4" s="42"/>
       <c r="O4" s="99">
         <f t="shared" ref="O4:O17" si="5">N4*6.125*1.2+8</f>
@@ -10890,7 +11058,7 @@
         <v>295</v>
       </c>
       <c r="C5" s="40">
-        <v>5103</v>
+        <v>6103</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>320</v>
@@ -10924,7 +11092,7 @@
         <f t="shared" si="3"/>
         <v>186.72199999999998</v>
       </c>
-      <c r="M5" s="122"/>
+      <c r="M5" s="139"/>
       <c r="N5" s="42"/>
       <c r="O5" s="99">
         <f t="shared" si="5"/>
@@ -10937,7 +11105,7 @@
         <v>295</v>
       </c>
       <c r="C6" s="42">
-        <v>5104</v>
+        <v>6104</v>
       </c>
       <c r="D6" s="40" t="s">
         <v>321</v>
@@ -10971,7 +11139,7 @@
         <f t="shared" si="3"/>
         <v>223.38062500000001</v>
       </c>
-      <c r="M6" s="122"/>
+      <c r="M6" s="139"/>
       <c r="N6" s="42"/>
       <c r="O6" s="99">
         <f t="shared" si="5"/>
@@ -10984,7 +11152,7 @@
         <v>295</v>
       </c>
       <c r="C7" s="40">
-        <v>5105</v>
+        <v>6105</v>
       </c>
       <c r="D7" s="40" t="s">
         <v>322</v>
@@ -11018,7 +11186,7 @@
         <f t="shared" si="3"/>
         <v>223.38062500000001</v>
       </c>
-      <c r="M7" s="122"/>
+      <c r="M7" s="139"/>
       <c r="N7" s="100"/>
       <c r="O7" s="99">
         <f t="shared" si="5"/>
@@ -11031,7 +11199,7 @@
         <v>295</v>
       </c>
       <c r="C8" s="42">
-        <v>5106</v>
+        <v>6106</v>
       </c>
       <c r="D8" s="42" t="s">
         <v>315</v>
@@ -11065,7 +11233,7 @@
         <f t="shared" si="3"/>
         <v>127.21749999999997</v>
       </c>
-      <c r="M8" s="122"/>
+      <c r="M8" s="139"/>
       <c r="N8" s="42"/>
       <c r="O8" s="99">
         <f t="shared" si="5"/>
@@ -11078,7 +11246,7 @@
         <v>295</v>
       </c>
       <c r="C9" s="40">
-        <v>5107</v>
+        <v>6107</v>
       </c>
       <c r="D9" s="42" t="s">
         <v>323</v>
@@ -11112,7 +11280,7 @@
         <f t="shared" si="3"/>
         <v>127.21749999999997</v>
       </c>
-      <c r="M9" s="122"/>
+      <c r="M9" s="139"/>
       <c r="N9" s="100"/>
       <c r="O9" s="99">
         <f t="shared" si="5"/>
@@ -11125,7 +11293,7 @@
         <v>295</v>
       </c>
       <c r="C10" s="42">
-        <v>5108</v>
+        <v>6108</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>316</v>
@@ -11159,7 +11327,7 @@
         <f t="shared" si="3"/>
         <v>104.39575000000002</v>
       </c>
-      <c r="M10" s="122"/>
+      <c r="M10" s="139"/>
       <c r="N10" s="100">
         <v>60</v>
       </c>
@@ -11176,7 +11344,7 @@
         <v>295</v>
       </c>
       <c r="C11" s="40">
-        <v>5109</v>
+        <v>6109</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>317</v>
@@ -11210,7 +11378,7 @@
         <f t="shared" si="3"/>
         <v>104.39575000000002</v>
       </c>
-      <c r="M11" s="122"/>
+      <c r="M11" s="139"/>
       <c r="N11" s="42">
         <v>60</v>
       </c>
@@ -11227,7 +11395,7 @@
         <v>295</v>
       </c>
       <c r="C12" s="42">
-        <v>5110</v>
+        <v>6110</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>324</v>
@@ -11261,7 +11429,7 @@
         <f t="shared" si="3"/>
         <v>225.68275000000006</v>
       </c>
-      <c r="M12" s="122"/>
+      <c r="M12" s="139"/>
       <c r="N12" s="42">
         <v>80</v>
       </c>
@@ -11278,7 +11446,7 @@
         <v>295</v>
       </c>
       <c r="C13" s="40">
-        <v>5111</v>
+        <v>6111</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>325</v>
@@ -11312,7 +11480,7 @@
         <f t="shared" si="3"/>
         <v>225.68275000000006</v>
       </c>
-      <c r="M13" s="122"/>
+      <c r="M13" s="139"/>
       <c r="N13" s="42">
         <v>80</v>
       </c>
@@ -11329,7 +11497,7 @@
         <v>295</v>
       </c>
       <c r="C14" s="42">
-        <v>5112</v>
+        <v>6112</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>326</v>
@@ -11363,7 +11531,7 @@
         <f t="shared" si="3"/>
         <v>127.21749999999997</v>
       </c>
-      <c r="M14" s="122"/>
+      <c r="M14" s="139"/>
       <c r="N14" s="42"/>
       <c r="O14" s="99">
         <f t="shared" si="5"/>
@@ -11376,7 +11544,7 @@
         <v>295</v>
       </c>
       <c r="C15" s="40">
-        <v>5113</v>
+        <v>6113</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>327</v>
@@ -11410,7 +11578,7 @@
         <f t="shared" si="3"/>
         <v>94.395750000000021</v>
       </c>
-      <c r="M15" s="122"/>
+      <c r="M15" s="139"/>
       <c r="N15" s="45">
         <v>60</v>
       </c>
@@ -11427,7 +11595,7 @@
         <v>295</v>
       </c>
       <c r="C16" s="42">
-        <v>5114</v>
+        <v>6114</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>328</v>
@@ -11461,7 +11629,7 @@
         <f t="shared" si="3"/>
         <v>94.395750000000021</v>
       </c>
-      <c r="M16" s="122"/>
+      <c r="M16" s="139"/>
       <c r="N16" s="45">
         <v>60</v>
       </c>
@@ -11474,11 +11642,11 @@
       </c>
     </row>
     <row r="17" spans="2:16" ht="22" customHeight="1">
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="122" t="s">
         <v>295</v>
       </c>
-      <c r="C17" s="130">
-        <v>5115</v>
+      <c r="C17" s="40">
+        <v>6115</v>
       </c>
       <c r="D17" s="45" t="s">
         <v>329</v>
@@ -11501,7 +11669,7 @@
         <f t="shared" si="2"/>
         <v>604.60424999999998</v>
       </c>
-      <c r="J17" s="131">
+      <c r="J17" s="124">
         <f t="shared" si="4"/>
         <v>703.29488749999996</v>
       </c>
@@ -11512,11 +11680,11 @@
         <f t="shared" si="3"/>
         <v>94.395750000000021</v>
       </c>
-      <c r="M17" s="122"/>
+      <c r="M17" s="139"/>
       <c r="N17" s="45">
         <v>60</v>
       </c>
-      <c r="O17" s="132">
+      <c r="O17" s="125">
         <f t="shared" si="5"/>
         <v>449</v>
       </c>
@@ -11524,12 +11692,12 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="2:16" s="133" customFormat="1" ht="22" customHeight="1">
-      <c r="B18" s="129" t="s">
+    <row r="18" spans="2:16" s="126" customFormat="1" ht="22" customHeight="1">
+      <c r="B18" s="122" t="s">
         <v>295</v>
       </c>
       <c r="C18" s="42">
-        <v>5116</v>
+        <v>6116</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>330</v>
@@ -11544,7 +11712,7 @@
         <f t="shared" si="0"/>
         <v>736.19999999999993</v>
       </c>
-      <c r="H18" s="134">
+      <c r="H18" s="127">
         <f t="shared" si="1"/>
         <v>131.4</v>
       </c>
@@ -11552,38 +11720,38 @@
         <f t="shared" si="2"/>
         <v>806.13900000000001</v>
       </c>
-      <c r="J18" s="123">
+      <c r="J18" s="116">
         <f t="shared" si="4"/>
         <v>935.05984999999998</v>
       </c>
       <c r="K18" s="102">
         <v>959</v>
       </c>
-      <c r="L18" s="135">
+      <c r="L18" s="128">
         <f t="shared" si="3"/>
         <v>152.86099999999999</v>
       </c>
-      <c r="M18" s="136"/>
+      <c r="M18" s="129"/>
       <c r="N18" s="42"/>
-      <c r="O18" s="137"/>
+      <c r="O18" s="130"/>
       <c r="P18" s="113"/>
     </row>
-    <row r="19" spans="2:16" s="128" customFormat="1" ht="22" customHeight="1">
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
+    <row r="19" spans="2:16" s="121" customFormat="1" ht="22" customHeight="1">
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
       <c r="F19" s="45"/>
       <c r="G19" s="62"/>
       <c r="H19" s="56"/>
       <c r="I19" s="62"/>
-      <c r="J19" s="123"/>
+      <c r="J19" s="116"/>
       <c r="K19" s="103"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="125"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="118"/>
       <c r="N19" s="45"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="127"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="120"/>
     </row>
     <row r="20" spans="2:16" ht="22" customHeight="1">
       <c r="J20" s="81"/>
@@ -11593,7 +11761,7 @@
         <v>301</v>
       </c>
       <c r="C21" s="40">
-        <v>5201</v>
+        <v>6201</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>314</v>
@@ -11639,7 +11807,7 @@
         <v>301</v>
       </c>
       <c r="C22" s="42">
-        <v>5202</v>
+        <v>6202</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>304</v>
@@ -11685,7 +11853,7 @@
         <v>301</v>
       </c>
       <c r="C23" s="40">
-        <v>5203</v>
+        <v>6203</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>303</v>
@@ -11731,7 +11899,7 @@
         <v>301</v>
       </c>
       <c r="C24" s="42">
-        <v>5204</v>
+        <v>6204</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>306</v>
@@ -11777,7 +11945,7 @@
         <v>301</v>
       </c>
       <c r="C25" s="40">
-        <v>5205</v>
+        <v>6205</v>
       </c>
       <c r="D25" s="40" t="s">
         <v>305</v>
@@ -11823,7 +11991,7 @@
         <v>301</v>
       </c>
       <c r="C26" s="42">
-        <v>5206</v>
+        <v>6206</v>
       </c>
       <c r="D26" s="40" t="s">
         <v>305</v>
@@ -11869,7 +12037,7 @@
         <v>301</v>
       </c>
       <c r="C27" s="40">
-        <v>5207</v>
+        <v>6207</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>308</v>
@@ -11915,7 +12083,7 @@
         <v>301</v>
       </c>
       <c r="C28" s="42">
-        <v>5208</v>
+        <v>6208</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>309</v>
@@ -11961,7 +12129,7 @@
         <v>301</v>
       </c>
       <c r="C29" s="40">
-        <v>5209</v>
+        <v>6209</v>
       </c>
       <c r="D29" s="40" t="s">
         <v>312</v>
@@ -12007,7 +12175,7 @@
         <v>301</v>
       </c>
       <c r="C30" s="42">
-        <v>5210</v>
+        <v>6210</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>313</v>
@@ -12050,146 +12218,628 @@
     </row>
     <row r="31" spans="2:16" ht="22" customHeight="1">
       <c r="J31" s="81">
-        <f t="shared" ref="J20:J48" si="18">I31*1.15</f>
+        <f t="shared" ref="J31:J61" si="18">I31*1.15</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="22" customHeight="1">
+      <c r="B32" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="40">
+        <v>6301</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="F32" s="40">
+        <v>43</v>
+      </c>
+      <c r="G32" s="66">
+        <f t="shared" ref="G32:G40" si="19">F32*6.135</f>
+        <v>263.80500000000001</v>
+      </c>
+      <c r="H32" s="60">
+        <f t="shared" ref="H32:H40" si="20">F32*(1+0.095)</f>
+        <v>47.085000000000001</v>
+      </c>
+      <c r="I32" s="66">
+        <f t="shared" ref="I32:I40" si="21">H32*6.135</f>
+        <v>288.86647499999998</v>
+      </c>
       <c r="J32" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="10:16" ht="22" customHeight="1">
+        <f>I32*1.15+8</f>
+        <v>340.19644624999995</v>
+      </c>
+      <c r="K32" s="101">
+        <v>341</v>
+      </c>
+      <c r="L32" s="110">
+        <f t="shared" ref="L32:L40" si="22">K32-I32</f>
+        <v>52.13352500000002</v>
+      </c>
+      <c r="N32" s="98"/>
+      <c r="O32" s="99">
+        <f>N32*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P32" s="105"/>
+    </row>
+    <row r="33" spans="2:16" ht="22" customHeight="1">
+      <c r="B33" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C33" s="42">
+        <v>6302</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" s="42">
+        <v>43</v>
+      </c>
+      <c r="G33" s="62">
+        <f t="shared" si="19"/>
+        <v>263.80500000000001</v>
+      </c>
+      <c r="H33" s="56">
+        <f t="shared" si="20"/>
+        <v>47.085000000000001</v>
+      </c>
+      <c r="I33" s="62">
+        <f t="shared" si="21"/>
+        <v>288.86647499999998</v>
+      </c>
       <c r="J33" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="10:16" ht="22" customHeight="1">
+        <f t="shared" ref="J33:J40" si="23">I33*1.15+8</f>
+        <v>340.19644624999995</v>
+      </c>
+      <c r="K33" s="102">
+        <v>341</v>
+      </c>
+      <c r="L33" s="110">
+        <f t="shared" si="22"/>
+        <v>52.13352500000002</v>
+      </c>
+      <c r="N33" s="42"/>
+      <c r="O33" s="99">
+        <f t="shared" ref="O33:O40" si="24">N33*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P33" s="106"/>
+    </row>
+    <row r="34" spans="2:16" ht="22" customHeight="1">
+      <c r="B34" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" s="40">
+        <v>6303</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="F34" s="42">
+        <v>50</v>
+      </c>
+      <c r="G34" s="62">
+        <f t="shared" si="19"/>
+        <v>306.75</v>
+      </c>
+      <c r="H34" s="56">
+        <f t="shared" si="20"/>
+        <v>54.75</v>
+      </c>
+      <c r="I34" s="62">
+        <f t="shared" si="21"/>
+        <v>335.89125000000001</v>
+      </c>
       <c r="J34" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="10:16" ht="17">
+        <f t="shared" si="23"/>
+        <v>394.27493749999996</v>
+      </c>
+      <c r="K34" s="102">
+        <v>399</v>
+      </c>
+      <c r="L34" s="110">
+        <f t="shared" si="22"/>
+        <v>63.108749999999986</v>
+      </c>
+      <c r="N34" s="42"/>
+      <c r="O34" s="99">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="P34" s="106"/>
+    </row>
+    <row r="35" spans="2:16" ht="22" customHeight="1">
+      <c r="B35" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="42">
+        <v>6304</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="F35" s="42">
+        <v>43</v>
+      </c>
+      <c r="G35" s="62">
+        <f t="shared" si="19"/>
+        <v>263.80500000000001</v>
+      </c>
+      <c r="H35" s="56">
+        <f t="shared" si="20"/>
+        <v>47.085000000000001</v>
+      </c>
+      <c r="I35" s="62">
+        <f t="shared" si="21"/>
+        <v>288.86647499999998</v>
+      </c>
       <c r="J35" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="P35"/>
-    </row>
-    <row r="36" spans="10:16" ht="17">
+        <f t="shared" si="23"/>
+        <v>340.19644624999995</v>
+      </c>
+      <c r="K35" s="102">
+        <v>341</v>
+      </c>
+      <c r="L35" s="110">
+        <f t="shared" si="22"/>
+        <v>52.13352500000002</v>
+      </c>
+      <c r="N35" s="42"/>
+      <c r="O35" s="99">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="P35" s="106"/>
+    </row>
+    <row r="36" spans="2:16" ht="22" customHeight="1">
+      <c r="B36" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="40">
+        <v>6305</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="F36" s="42">
+        <v>49</v>
+      </c>
+      <c r="G36" s="62">
+        <f t="shared" si="19"/>
+        <v>300.61500000000001</v>
+      </c>
+      <c r="H36" s="56">
+        <f t="shared" si="20"/>
+        <v>53.655000000000001</v>
+      </c>
+      <c r="I36" s="62">
+        <f t="shared" si="21"/>
+        <v>329.17342500000001</v>
+      </c>
       <c r="J36" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="P36"/>
-    </row>
-    <row r="37" spans="10:16" ht="17">
+        <f t="shared" si="23"/>
+        <v>386.54943874999998</v>
+      </c>
+      <c r="K36" s="102">
+        <v>389</v>
+      </c>
+      <c r="L36" s="110">
+        <f t="shared" si="22"/>
+        <v>59.826574999999991</v>
+      </c>
+      <c r="N36" s="100"/>
+      <c r="O36" s="99">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="P36" s="106"/>
+    </row>
+    <row r="37" spans="2:16" ht="22" customHeight="1">
+      <c r="B37" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="42">
+        <v>6306</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="F37" s="42">
+        <v>53</v>
+      </c>
+      <c r="G37" s="62">
+        <f t="shared" ref="G37" si="25">F37*6.135</f>
+        <v>325.15499999999997</v>
+      </c>
+      <c r="H37" s="56">
+        <f t="shared" ref="H37" si="26">F37*(1+0.095)</f>
+        <v>58.034999999999997</v>
+      </c>
+      <c r="I37" s="62">
+        <f t="shared" ref="I37" si="27">H37*6.135</f>
+        <v>356.04472499999997</v>
+      </c>
       <c r="J37" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="P37"/>
-    </row>
-    <row r="38" spans="10:16" ht="17">
+        <f t="shared" ref="J37" si="28">I37*1.15+8</f>
+        <v>417.45143374999992</v>
+      </c>
+      <c r="K37" s="102">
+        <v>419</v>
+      </c>
+      <c r="L37" s="110">
+        <f t="shared" ref="L37" si="29">K37-I37</f>
+        <v>62.955275000000029</v>
+      </c>
+      <c r="N37" s="42"/>
+      <c r="O37" s="99">
+        <f t="shared" ref="O37" si="30">N37*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P37" s="106"/>
+    </row>
+    <row r="38" spans="2:16" ht="22" customHeight="1">
+      <c r="B38" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C38" s="40">
+        <v>6307</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="F38" s="42">
+        <v>53</v>
+      </c>
+      <c r="G38" s="62">
+        <f t="shared" si="19"/>
+        <v>325.15499999999997</v>
+      </c>
+      <c r="H38" s="56">
+        <f t="shared" si="20"/>
+        <v>58.034999999999997</v>
+      </c>
+      <c r="I38" s="62">
+        <f t="shared" si="21"/>
+        <v>356.04472499999997</v>
+      </c>
       <c r="J38" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="P38"/>
-    </row>
-    <row r="39" spans="10:16" ht="17">
+        <f t="shared" si="23"/>
+        <v>417.45143374999992</v>
+      </c>
+      <c r="K38" s="102">
+        <v>419</v>
+      </c>
+      <c r="L38" s="110">
+        <f t="shared" si="22"/>
+        <v>62.955275000000029</v>
+      </c>
+      <c r="N38" s="42"/>
+      <c r="O38" s="99">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="P38" s="106"/>
+    </row>
+    <row r="39" spans="2:16" ht="22" customHeight="1">
+      <c r="B39" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C39" s="42">
+        <v>6308</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="F39" s="42">
+        <v>44</v>
+      </c>
+      <c r="G39" s="62">
+        <f t="shared" si="19"/>
+        <v>269.94</v>
+      </c>
+      <c r="H39" s="56">
+        <f t="shared" si="20"/>
+        <v>48.18</v>
+      </c>
+      <c r="I39" s="62">
+        <f t="shared" si="21"/>
+        <v>295.58429999999998</v>
+      </c>
       <c r="J39" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="P39"/>
-    </row>
-    <row r="40" spans="10:16" ht="17">
+        <f t="shared" si="23"/>
+        <v>347.92194499999994</v>
+      </c>
+      <c r="K39" s="102">
+        <v>349</v>
+      </c>
+      <c r="L39" s="110">
+        <f t="shared" si="22"/>
+        <v>53.415700000000015</v>
+      </c>
+      <c r="N39" s="100"/>
+      <c r="O39" s="99">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="P39" s="106"/>
+    </row>
+    <row r="40" spans="2:16" ht="22" customHeight="1">
+      <c r="B40" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" s="40">
+        <v>6309</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="E40" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="F40" s="42">
+        <v>48</v>
+      </c>
+      <c r="G40" s="62">
+        <f t="shared" si="19"/>
+        <v>294.48</v>
+      </c>
+      <c r="H40" s="56">
+        <f t="shared" si="20"/>
+        <v>52.56</v>
+      </c>
+      <c r="I40" s="62">
+        <f t="shared" si="21"/>
+        <v>322.4556</v>
+      </c>
       <c r="J40" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="P40"/>
-    </row>
-    <row r="41" spans="10:16" ht="17">
+        <f t="shared" si="23"/>
+        <v>378.82393999999999</v>
+      </c>
+      <c r="K40" s="102">
+        <v>379</v>
+      </c>
+      <c r="L40" s="110">
+        <f t="shared" si="22"/>
+        <v>56.544399999999996</v>
+      </c>
+      <c r="N40" s="100"/>
+      <c r="O40" s="99">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="P40" s="106"/>
+    </row>
+    <row r="41" spans="2:16" ht="22" customHeight="1">
+      <c r="B41" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="42">
+        <v>6310</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="F41" s="40">
+        <v>43</v>
+      </c>
+      <c r="G41" s="66">
+        <f t="shared" ref="G41:G44" si="31">F41*6.135</f>
+        <v>263.80500000000001</v>
+      </c>
+      <c r="H41" s="60">
+        <f t="shared" ref="H41:H44" si="32">F41*(1+0.095)</f>
+        <v>47.085000000000001</v>
+      </c>
+      <c r="I41" s="66">
+        <f t="shared" ref="I41:I44" si="33">H41*6.135</f>
+        <v>288.86647499999998</v>
+      </c>
       <c r="J41" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="P41"/>
-    </row>
-    <row r="42" spans="10:16" ht="17">
+        <f>I41*1.15+8</f>
+        <v>340.19644624999995</v>
+      </c>
+      <c r="K41" s="101">
+        <v>341</v>
+      </c>
+      <c r="L41" s="110">
+        <f t="shared" ref="L41:L44" si="34">K41-I41</f>
+        <v>52.13352500000002</v>
+      </c>
+      <c r="N41" s="98"/>
+      <c r="O41" s="99">
+        <f>N41*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P41" s="105"/>
+    </row>
+    <row r="42" spans="2:16" ht="22" customHeight="1">
+      <c r="B42" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C42" s="40">
+        <v>6311</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E42" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" s="42">
+        <v>46</v>
+      </c>
+      <c r="G42" s="62">
+        <f t="shared" si="31"/>
+        <v>282.20999999999998</v>
+      </c>
+      <c r="H42" s="56">
+        <f t="shared" si="32"/>
+        <v>50.37</v>
+      </c>
+      <c r="I42" s="62">
+        <f t="shared" si="33"/>
+        <v>309.01994999999999</v>
+      </c>
       <c r="J42" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="P42"/>
-    </row>
-    <row r="43" spans="10:16" ht="17">
+        <f t="shared" ref="J42:J44" si="35">I42*1.15+8</f>
+        <v>363.37294249999997</v>
+      </c>
+      <c r="K42" s="102">
+        <v>369</v>
+      </c>
+      <c r="L42" s="110">
+        <f t="shared" si="34"/>
+        <v>59.980050000000006</v>
+      </c>
+      <c r="N42" s="42"/>
+      <c r="O42" s="99">
+        <f t="shared" ref="O42:O44" si="36">N42*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P42" s="106"/>
+    </row>
+    <row r="43" spans="2:16" ht="22" customHeight="1">
+      <c r="B43" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C43" s="42">
+        <v>6312</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>345</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" s="42">
+        <v>49</v>
+      </c>
+      <c r="G43" s="62">
+        <f t="shared" si="31"/>
+        <v>300.61500000000001</v>
+      </c>
+      <c r="H43" s="56">
+        <f t="shared" si="32"/>
+        <v>53.655000000000001</v>
+      </c>
+      <c r="I43" s="62">
+        <f t="shared" si="33"/>
+        <v>329.17342500000001</v>
+      </c>
       <c r="J43" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="P43"/>
-    </row>
-    <row r="44" spans="10:16" ht="17">
+        <f t="shared" si="35"/>
+        <v>386.54943874999998</v>
+      </c>
+      <c r="K43" s="102">
+        <v>389</v>
+      </c>
+      <c r="L43" s="110">
+        <f t="shared" si="34"/>
+        <v>59.826574999999991</v>
+      </c>
+      <c r="N43" s="42"/>
+      <c r="O43" s="99">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="P43" s="106"/>
+    </row>
+    <row r="44" spans="2:16" ht="22" customHeight="1">
+      <c r="B44" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" s="40">
+        <v>6313</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="F44" s="42">
+        <v>58</v>
+      </c>
+      <c r="G44" s="62">
+        <f t="shared" si="31"/>
+        <v>355.83</v>
+      </c>
+      <c r="H44" s="56">
+        <f t="shared" si="32"/>
+        <v>63.51</v>
+      </c>
+      <c r="I44" s="62">
+        <f t="shared" si="33"/>
+        <v>389.63385</v>
+      </c>
       <c r="J44" s="81">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="P44"/>
-    </row>
-    <row r="45" spans="10:16" ht="17">
+        <f t="shared" si="35"/>
+        <v>456.07892749999996</v>
+      </c>
+      <c r="K44" s="102">
+        <v>459</v>
+      </c>
+      <c r="L44" s="110">
+        <f t="shared" si="34"/>
+        <v>69.366150000000005</v>
+      </c>
+      <c r="N44" s="42"/>
+      <c r="O44" s="99">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="P44" s="106"/>
+    </row>
+    <row r="45" spans="2:16" ht="22" customHeight="1">
+      <c r="B45" s="140"/>
       <c r="J45" s="81">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="P45"/>
-    </row>
-    <row r="46" spans="10:16" ht="17">
+    </row>
+    <row r="46" spans="2:16" ht="22" customHeight="1">
       <c r="J46" s="81">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="P46"/>
-    </row>
-    <row r="47" spans="10:16" ht="17">
+    </row>
+    <row r="47" spans="2:16" ht="22" customHeight="1">
       <c r="J47" s="81">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="P47"/>
-    </row>
-    <row r="48" spans="10:16" ht="17">
+    </row>
+    <row r="48" spans="2:16" ht="17">
       <c r="J48" s="81">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12197,6 +12847,123 @@
       <c r="K48"/>
       <c r="L48"/>
       <c r="P48"/>
+    </row>
+    <row r="49" spans="10:16" ht="17">
+      <c r="J49" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="P49"/>
+    </row>
+    <row r="50" spans="10:16" ht="17">
+      <c r="J50" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="P50"/>
+    </row>
+    <row r="51" spans="10:16" ht="17">
+      <c r="J51" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="P51"/>
+    </row>
+    <row r="52" spans="10:16" ht="17">
+      <c r="J52" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="P52"/>
+    </row>
+    <row r="53" spans="10:16" ht="17">
+      <c r="J53" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="P53"/>
+    </row>
+    <row r="54" spans="10:16" ht="17">
+      <c r="J54" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="P54"/>
+    </row>
+    <row r="55" spans="10:16" ht="17">
+      <c r="J55" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="P55"/>
+    </row>
+    <row r="56" spans="10:16" ht="17">
+      <c r="J56" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="P56"/>
+    </row>
+    <row r="57" spans="10:16" ht="17">
+      <c r="J57" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="P57"/>
+    </row>
+    <row r="58" spans="10:16" ht="17">
+      <c r="J58" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="P58"/>
+    </row>
+    <row r="59" spans="10:16" ht="17">
+      <c r="J59" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="P59"/>
+    </row>
+    <row r="60" spans="10:16" ht="17">
+      <c r="J60" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="P60"/>
+    </row>
+    <row r="61" spans="10:16" ht="17">
+      <c r="J61" s="81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="P61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12213,4 +12980,551 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="65" customHeight="1">
+      <c r="B1" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="131" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="131"/>
+      <c r="J1" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="109" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" s="115" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="115" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" s="104" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="65" customHeight="1">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="I2" s="114" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" s="93"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115" t="s">
+        <v>275</v>
+      </c>
+      <c r="P2" s="104"/>
+    </row>
+    <row r="3" spans="2:16" ht="22" customHeight="1">
+      <c r="B3" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="40">
+        <v>7101</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" s="40">
+        <v>79</v>
+      </c>
+      <c r="G3" s="66">
+        <f t="shared" ref="G3:G11" si="0">F3*6.135</f>
+        <v>484.66499999999996</v>
+      </c>
+      <c r="H3" s="60">
+        <f t="shared" ref="H3:H11" si="1">F3*(1+0.095)</f>
+        <v>86.504999999999995</v>
+      </c>
+      <c r="I3" s="66">
+        <f t="shared" ref="I3:I11" si="2">H3*6.135</f>
+        <v>530.70817499999998</v>
+      </c>
+      <c r="J3" s="81">
+        <f>I3*1.15+8</f>
+        <v>618.31440124999995</v>
+      </c>
+      <c r="K3" s="101">
+        <v>619</v>
+      </c>
+      <c r="L3" s="110">
+        <f t="shared" ref="L3:L11" si="3">K3-I3</f>
+        <v>88.291825000000017</v>
+      </c>
+      <c r="N3" s="98">
+        <v>59</v>
+      </c>
+      <c r="O3" s="99">
+        <f>N3*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P3" s="105">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="22" customHeight="1">
+      <c r="B4" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="42">
+        <v>7102</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" s="42">
+        <v>79</v>
+      </c>
+      <c r="G4" s="62">
+        <f t="shared" si="0"/>
+        <v>484.66499999999996</v>
+      </c>
+      <c r="H4" s="56">
+        <f t="shared" si="1"/>
+        <v>86.504999999999995</v>
+      </c>
+      <c r="I4" s="62">
+        <f t="shared" si="2"/>
+        <v>530.70817499999998</v>
+      </c>
+      <c r="J4" s="81">
+        <f t="shared" ref="J4:J11" si="4">I4*1.15+8</f>
+        <v>618.31440124999995</v>
+      </c>
+      <c r="K4" s="102">
+        <v>619</v>
+      </c>
+      <c r="L4" s="110">
+        <f t="shared" si="3"/>
+        <v>88.291825000000017</v>
+      </c>
+      <c r="N4" s="42">
+        <v>59</v>
+      </c>
+      <c r="O4" s="99">
+        <f t="shared" ref="O4:O11" si="5">N4*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P4" s="106">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="22" customHeight="1">
+      <c r="B5" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="40">
+        <v>7103</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="42">
+        <v>79</v>
+      </c>
+      <c r="G5" s="62">
+        <f t="shared" si="0"/>
+        <v>484.66499999999996</v>
+      </c>
+      <c r="H5" s="56">
+        <f t="shared" si="1"/>
+        <v>86.504999999999995</v>
+      </c>
+      <c r="I5" s="62">
+        <f t="shared" si="2"/>
+        <v>530.70817499999998</v>
+      </c>
+      <c r="J5" s="81">
+        <f t="shared" si="4"/>
+        <v>618.31440124999995</v>
+      </c>
+      <c r="K5" s="102">
+        <v>619</v>
+      </c>
+      <c r="L5" s="110">
+        <f t="shared" si="3"/>
+        <v>88.291825000000017</v>
+      </c>
+      <c r="N5" s="42">
+        <v>59</v>
+      </c>
+      <c r="O5" s="99">
+        <f t="shared" si="5"/>
+        <v>441.65</v>
+      </c>
+      <c r="P5" s="106">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="22" customHeight="1">
+      <c r="B6" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="42">
+        <v>7104</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="42">
+        <v>79</v>
+      </c>
+      <c r="G6" s="62">
+        <f t="shared" si="0"/>
+        <v>484.66499999999996</v>
+      </c>
+      <c r="H6" s="56">
+        <f t="shared" si="1"/>
+        <v>86.504999999999995</v>
+      </c>
+      <c r="I6" s="62">
+        <f t="shared" si="2"/>
+        <v>530.70817499999998</v>
+      </c>
+      <c r="J6" s="81">
+        <f t="shared" si="4"/>
+        <v>618.31440124999995</v>
+      </c>
+      <c r="K6" s="102">
+        <v>619</v>
+      </c>
+      <c r="L6" s="110">
+        <f t="shared" si="3"/>
+        <v>88.291825000000017</v>
+      </c>
+      <c r="N6" s="42">
+        <v>59</v>
+      </c>
+      <c r="O6" s="99">
+        <f t="shared" si="5"/>
+        <v>441.65</v>
+      </c>
+      <c r="P6" s="106">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="22" customHeight="1">
+      <c r="B7" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C7" s="40">
+        <v>7105</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" s="42">
+        <v>129</v>
+      </c>
+      <c r="G7" s="62">
+        <f t="shared" si="0"/>
+        <v>791.41499999999996</v>
+      </c>
+      <c r="H7" s="56">
+        <f t="shared" si="1"/>
+        <v>141.255</v>
+      </c>
+      <c r="I7" s="62">
+        <f t="shared" si="2"/>
+        <v>866.599425</v>
+      </c>
+      <c r="J7" s="81">
+        <f t="shared" si="4"/>
+        <v>1004.5893387499999</v>
+      </c>
+      <c r="K7" s="102">
+        <v>1009</v>
+      </c>
+      <c r="L7" s="110">
+        <f t="shared" si="3"/>
+        <v>142.400575</v>
+      </c>
+      <c r="N7" s="100"/>
+      <c r="O7" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P7" s="106"/>
+    </row>
+    <row r="8" spans="2:16" ht="22" customHeight="1">
+      <c r="B8" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="42">
+        <v>7106</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="42">
+        <v>129</v>
+      </c>
+      <c r="G8" s="62">
+        <f t="shared" si="0"/>
+        <v>791.41499999999996</v>
+      </c>
+      <c r="H8" s="56">
+        <f t="shared" si="1"/>
+        <v>141.255</v>
+      </c>
+      <c r="I8" s="62">
+        <f t="shared" si="2"/>
+        <v>866.599425</v>
+      </c>
+      <c r="J8" s="81">
+        <f t="shared" si="4"/>
+        <v>1004.5893387499999</v>
+      </c>
+      <c r="K8" s="102">
+        <v>1009</v>
+      </c>
+      <c r="L8" s="110">
+        <f t="shared" si="3"/>
+        <v>142.400575</v>
+      </c>
+      <c r="N8" s="42"/>
+      <c r="O8" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P8" s="106"/>
+    </row>
+    <row r="9" spans="2:16" ht="22" customHeight="1">
+      <c r="B9" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="40">
+        <v>7107</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="F9" s="42">
+        <v>129</v>
+      </c>
+      <c r="G9" s="62">
+        <f t="shared" si="0"/>
+        <v>791.41499999999996</v>
+      </c>
+      <c r="H9" s="56">
+        <f t="shared" si="1"/>
+        <v>141.255</v>
+      </c>
+      <c r="I9" s="62">
+        <f t="shared" si="2"/>
+        <v>866.599425</v>
+      </c>
+      <c r="J9" s="81">
+        <f t="shared" si="4"/>
+        <v>1004.5893387499999</v>
+      </c>
+      <c r="K9" s="102">
+        <v>1009</v>
+      </c>
+      <c r="L9" s="110">
+        <f t="shared" si="3"/>
+        <v>142.400575</v>
+      </c>
+      <c r="N9" s="100"/>
+      <c r="O9" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="106"/>
+    </row>
+    <row r="10" spans="2:16" ht="22" customHeight="1">
+      <c r="B10" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="42">
+        <v>7108</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="42">
+        <v>129</v>
+      </c>
+      <c r="G10" s="62">
+        <f t="shared" si="0"/>
+        <v>791.41499999999996</v>
+      </c>
+      <c r="H10" s="56">
+        <f t="shared" si="1"/>
+        <v>141.255</v>
+      </c>
+      <c r="I10" s="62">
+        <f t="shared" si="2"/>
+        <v>866.599425</v>
+      </c>
+      <c r="J10" s="81">
+        <f t="shared" si="4"/>
+        <v>1004.5893387499999</v>
+      </c>
+      <c r="K10" s="102">
+        <v>1009</v>
+      </c>
+      <c r="L10" s="110">
+        <f t="shared" si="3"/>
+        <v>142.400575</v>
+      </c>
+      <c r="N10" s="100"/>
+      <c r="O10" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P10" s="106"/>
+    </row>
+    <row r="11" spans="2:16" ht="22" customHeight="1">
+      <c r="B11" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" s="40">
+        <v>7109</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="42">
+        <v>129</v>
+      </c>
+      <c r="G11" s="62">
+        <f t="shared" si="0"/>
+        <v>791.41499999999996</v>
+      </c>
+      <c r="H11" s="56">
+        <f t="shared" si="1"/>
+        <v>141.255</v>
+      </c>
+      <c r="I11" s="62">
+        <f t="shared" si="2"/>
+        <v>866.599425</v>
+      </c>
+      <c r="J11" s="81">
+        <f t="shared" si="4"/>
+        <v>1004.5893387499999</v>
+      </c>
+      <c r="K11" s="102">
+        <v>1009</v>
+      </c>
+      <c r="L11" s="110">
+        <f t="shared" si="3"/>
+        <v>142.400575</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="99">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="106"/>
+    </row>
+    <row r="12" spans="2:16" ht="22" customHeight="1">
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="110"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Logpie.xlsx
+++ b/Logpie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14260" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="护肤品1000" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="373">
   <si>
     <t>Fresh</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1359,103 +1359,152 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帆布平底鞋_浅蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Minnetonka</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>麂皮绒平底鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮革鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软底平底鞋(宽版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克里斯内绒鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内绒流苏靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jawbone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动手环-黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动手环-红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动手环-蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动手环-银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代运动手环-黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代运动手环-蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代运动手环-红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代运动手环-粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2代运动手环-橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/M/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S/M/L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷你短靴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆布平底鞋_牛仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HelloKitty系列平底鞋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>麂皮绒平底鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步行平底鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮革鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平底鞋_深棕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流苏平底鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软底平底鞋(宽版)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克里斯内绒鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚踝单靴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内绒流苏靴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>蝴蝶结步行便鞋</t>
   </si>
   <si>
     <t>船鞋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jawbone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动手环-黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动手环-红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动手环-蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动手环-银</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2代运动手环-黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2代运动手环-蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2代运动手环-红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2代运动手环-粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2代运动手环-橙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/M/L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S/M/L</t>
+    <t>流苏牛皮单鞋</t>
+  </si>
+  <si>
+    <t>牛皮流苏小短靴</t>
+  </si>
+  <si>
+    <t>Nike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/8.5/9/9.5/10/10.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/8.5/9/10/10.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比9代篮球鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比9代自定义篮球鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒布朗12代篮球鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5/9/9.5/10/10.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比9代专业篮球鞋-红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科比10代专业篮球鞋-灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/9.5/10/10.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒布朗12号自定义篮球鞋-灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒布朗12号自定义篮球鞋-绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/8.5/9/9.5/10/10.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1754,7 +1803,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1783,6 +1832,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2215,6 +2280,9 @@
     <xf numFmtId="179" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2242,11 +2310,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="93">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -2310,6 +2375,22 @@
     <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2705,14 +2786,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="131"/>
+      <c r="I1" s="132"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -2725,10 +2806,10 @@
       <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="131" t="s">
+      <c r="N1" s="132" t="s">
         <v>256</v>
       </c>
-      <c r="O1" s="131"/>
+      <c r="O1" s="132"/>
       <c r="P1" s="88" t="s">
         <v>273</v>
       </c>
@@ -3308,7 +3389,7 @@
         <f t="shared" ref="L12:L28" si="9">K12-I12</f>
         <v>40.977637500000014</v>
       </c>
-      <c r="M12" s="135" t="s">
+      <c r="M12" s="136" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="13">
@@ -3369,7 +3450,7 @@
         <f t="shared" si="9"/>
         <v>46.621137500000032</v>
       </c>
-      <c r="M13" s="136"/>
+      <c r="M13" s="137"/>
       <c r="N13" s="13"/>
       <c r="O13" s="11" t="s">
         <v>80</v>
@@ -3426,7 +3507,7 @@
         <f t="shared" si="9"/>
         <v>37.541987500000005</v>
       </c>
-      <c r="M14" s="136"/>
+      <c r="M14" s="137"/>
       <c r="N14" s="13">
         <v>300</v>
       </c>
@@ -3485,7 +3566,7 @@
         <f t="shared" si="9"/>
         <v>43.262225000000058</v>
       </c>
-      <c r="M15" s="136"/>
+      <c r="M15" s="137"/>
       <c r="N15" s="13"/>
       <c r="O15" s="11" t="s">
         <v>82</v>
@@ -3542,7 +3623,7 @@
         <f t="shared" si="9"/>
         <v>44.490025000000003</v>
       </c>
-      <c r="M16" s="136"/>
+      <c r="M16" s="137"/>
       <c r="N16" s="13">
         <v>280</v>
       </c>
@@ -3601,7 +3682,7 @@
         <f t="shared" si="9"/>
         <v>37.925675000000012</v>
       </c>
-      <c r="M17" s="136"/>
+      <c r="M17" s="137"/>
       <c r="N17" s="13"/>
       <c r="O17" s="11"/>
       <c r="P17" s="12">
@@ -3656,7 +3737,7 @@
         <f t="shared" si="9"/>
         <v>43.87612500000003</v>
       </c>
-      <c r="M18" s="136"/>
+      <c r="M18" s="137"/>
       <c r="N18" s="13">
         <v>330</v>
       </c>
@@ -3715,7 +3796,7 @@
         <f t="shared" si="9"/>
         <v>66.467662500000017</v>
       </c>
-      <c r="M19" s="136"/>
+      <c r="M19" s="137"/>
       <c r="N19" s="13">
         <v>520</v>
       </c>
@@ -3774,7 +3855,7 @@
         <f t="shared" si="9"/>
         <v>68.445300000000032</v>
       </c>
-      <c r="M20" s="136"/>
+      <c r="M20" s="137"/>
       <c r="N20" s="13"/>
       <c r="O20" s="11">
         <v>509</v>
@@ -3831,7 +3912,7 @@
         <f t="shared" si="9"/>
         <v>49.980050000000006</v>
       </c>
-      <c r="M21" s="136"/>
+      <c r="M21" s="137"/>
       <c r="N21" s="13">
         <v>450</v>
       </c>
@@ -3890,7 +3971,7 @@
         <f t="shared" si="9"/>
         <v>68.75225000000006</v>
       </c>
-      <c r="M22" s="136"/>
+      <c r="M22" s="137"/>
       <c r="N22" s="13"/>
       <c r="O22" s="11"/>
       <c r="P22" s="12">
@@ -3945,7 +4026,7 @@
         <f t="shared" si="9"/>
         <v>21.975225000000002</v>
       </c>
-      <c r="M23" s="136"/>
+      <c r="M23" s="137"/>
       <c r="N23" s="13"/>
       <c r="O23" s="11">
         <v>65</v>
@@ -4002,7 +4083,7 @@
         <f t="shared" si="9"/>
         <v>28.079149999999998</v>
       </c>
-      <c r="M24" s="136"/>
+      <c r="M24" s="137"/>
       <c r="N24" s="13">
         <v>180</v>
       </c>
@@ -4061,7 +4142,7 @@
         <f t="shared" si="9"/>
         <v>50.900900000000007</v>
       </c>
-      <c r="M25" s="136"/>
+      <c r="M25" s="137"/>
       <c r="N25" s="13">
         <v>340</v>
       </c>
@@ -4120,7 +4201,7 @@
         <f t="shared" si="9"/>
         <v>21.975225000000002</v>
       </c>
-      <c r="M26" s="136"/>
+      <c r="M26" s="137"/>
       <c r="N26" s="13"/>
       <c r="O26" s="11"/>
       <c r="P26" s="12">
@@ -4175,7 +4256,7 @@
         <f t="shared" si="9"/>
         <v>31.361325000000008</v>
       </c>
-      <c r="M27" s="136"/>
+      <c r="M27" s="137"/>
       <c r="N27" s="13">
         <v>220</v>
       </c>
@@ -4234,7 +4315,7 @@
         <f t="shared" si="9"/>
         <v>57.465249999999997</v>
       </c>
-      <c r="M28" s="137"/>
+      <c r="M28" s="138"/>
       <c r="N28" s="13">
         <v>360</v>
       </c>
@@ -4316,7 +4397,7 @@
         <f t="shared" ref="L30:L36" si="14">K30-I30</f>
         <v>72.494849999999985</v>
       </c>
-      <c r="M30" s="134" t="s">
+      <c r="M30" s="135" t="s">
         <v>46</v>
       </c>
       <c r="N30" s="13">
@@ -4372,7 +4453,7 @@
         <f t="shared" si="14"/>
         <v>100.96010000000001</v>
       </c>
-      <c r="M31" s="134"/>
+      <c r="M31" s="135"/>
       <c r="N31" s="13">
         <v>950</v>
       </c>
@@ -4426,7 +4507,7 @@
         <f t="shared" si="14"/>
         <v>59.366150000000005</v>
       </c>
-      <c r="M32" s="134"/>
+      <c r="M32" s="135"/>
       <c r="N32" s="13">
         <v>560</v>
       </c>
@@ -4480,7 +4561,7 @@
         <f t="shared" si="14"/>
         <v>73.341375000000028</v>
       </c>
-      <c r="M33" s="134"/>
+      <c r="M33" s="135"/>
       <c r="N33" s="13">
         <v>650</v>
       </c>
@@ -4534,7 +4615,7 @@
         <f t="shared" si="14"/>
         <v>47.465249999999997</v>
       </c>
-      <c r="M34" s="134"/>
+      <c r="M34" s="135"/>
       <c r="N34" s="13">
         <v>280</v>
       </c>
@@ -4586,7 +4667,7 @@
         <f t="shared" si="14"/>
         <v>39.519625000000019</v>
       </c>
-      <c r="M35" s="134"/>
+      <c r="M35" s="135"/>
       <c r="N35" s="13">
         <v>480</v>
       </c>
@@ -4640,7 +4721,7 @@
         <f t="shared" si="14"/>
         <v>55.930499999999995</v>
       </c>
-      <c r="M36" s="134"/>
+      <c r="M36" s="135"/>
       <c r="N36" s="13">
         <v>590</v>
       </c>
@@ -4717,7 +4798,7 @@
         <f t="shared" ref="L38:L43" si="17">K38-I38</f>
         <v>24.796975000000018</v>
       </c>
-      <c r="M38" s="134" t="s">
+      <c r="M38" s="135" t="s">
         <v>45</v>
       </c>
       <c r="N38" s="21">
@@ -4773,7 +4854,7 @@
         <f t="shared" si="17"/>
         <v>24.950450000000004</v>
       </c>
-      <c r="M39" s="134"/>
+      <c r="M39" s="135"/>
       <c r="N39" s="13">
         <v>160</v>
       </c>
@@ -4827,7 +4908,7 @@
         <f t="shared" si="17"/>
         <v>21.591537500000001</v>
       </c>
-      <c r="M40" s="134"/>
+      <c r="M40" s="135"/>
       <c r="N40" s="13"/>
       <c r="O40" s="11" t="s">
         <v>136</v>
@@ -4879,7 +4960,7 @@
         <f t="shared" si="17"/>
         <v>34.336550000000017</v>
       </c>
-      <c r="M41" s="134"/>
+      <c r="M41" s="135"/>
       <c r="N41" s="13">
         <v>340</v>
       </c>
@@ -4933,7 +5014,7 @@
         <f t="shared" si="17"/>
         <v>21.591537500000001</v>
       </c>
-      <c r="M42" s="134"/>
+      <c r="M42" s="135"/>
       <c r="N42" s="13"/>
       <c r="O42" s="11" t="s">
         <v>137</v>
@@ -4985,7 +5066,7 @@
         <f t="shared" si="17"/>
         <v>34.336550000000017</v>
       </c>
-      <c r="M43" s="134"/>
+      <c r="M43" s="135"/>
       <c r="N43" s="13">
         <v>340</v>
       </c>
@@ -5062,7 +5143,7 @@
         <f t="shared" ref="L45:L50" si="21">K45-I45</f>
         <v>61.054374999999993</v>
       </c>
-      <c r="M45" s="135" t="s">
+      <c r="M45" s="136" t="s">
         <v>141</v>
       </c>
       <c r="N45" s="13">
@@ -5116,7 +5197,7 @@
         <f t="shared" si="21"/>
         <v>37.158299999999997</v>
       </c>
-      <c r="M46" s="136"/>
+      <c r="M46" s="137"/>
       <c r="N46" s="13"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
@@ -5166,7 +5247,7 @@
         <f t="shared" si="21"/>
         <v>40.13352500000002</v>
       </c>
-      <c r="M47" s="136"/>
+      <c r="M47" s="137"/>
       <c r="N47" s="13">
         <v>320</v>
       </c>
@@ -5220,7 +5301,7 @@
         <f t="shared" si="21"/>
         <v>42.341375000000028</v>
       </c>
-      <c r="M48" s="136"/>
+      <c r="M48" s="137"/>
       <c r="N48" s="13">
         <v>560</v>
       </c>
@@ -5274,7 +5355,7 @@
         <f t="shared" si="21"/>
         <v>74.70270000000005</v>
       </c>
-      <c r="M49" s="136"/>
+      <c r="M49" s="137"/>
       <c r="N49" s="13">
         <v>780</v>
       </c>
@@ -5326,7 +5407,7 @@
         <f t="shared" si="21"/>
         <v>70.346200000000067</v>
       </c>
-      <c r="M50" s="136"/>
+      <c r="M50" s="137"/>
       <c r="N50" s="13">
         <v>1080</v>
       </c>
@@ -6059,7 +6140,7 @@
         <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M65" s="132" t="s">
+      <c r="M65" s="133" t="s">
         <v>154</v>
       </c>
       <c r="N65" s="13">
@@ -6115,7 +6196,7 @@
         <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M66" s="133"/>
+      <c r="M66" s="134"/>
       <c r="N66" s="13">
         <v>490</v>
       </c>
@@ -6169,7 +6250,7 @@
         <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M67" s="133"/>
+      <c r="M67" s="134"/>
       <c r="N67" s="13">
         <v>490</v>
       </c>
@@ -6223,7 +6304,7 @@
         <f t="shared" si="26"/>
         <v>75.470075000000065</v>
       </c>
-      <c r="M68" s="133"/>
+      <c r="M68" s="134"/>
       <c r="N68" s="27">
         <v>490</v>
       </c>
@@ -6300,14 +6381,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="138" t="s">
+      <c r="F1" s="139" t="s">
         <v>250</v>
       </c>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="139" t="s">
         <v>252</v>
       </c>
-      <c r="I1" s="138"/>
+      <c r="I1" s="139"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -7397,14 +7478,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="138"/>
-      <c r="H1" s="131" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="138"/>
+      <c r="I1" s="139"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -7497,7 +7578,7 @@
         <f t="shared" ref="N3:N16" si="4">L3-I3</f>
         <v>67.158299999999997</v>
       </c>
-      <c r="O3" s="139" t="s">
+      <c r="O3" s="140" t="s">
         <v>162</v>
       </c>
       <c r="P3" s="40"/>
@@ -7552,7 +7633,7 @@
         <f t="shared" si="4"/>
         <v>67.158299999999997</v>
       </c>
-      <c r="O4" s="139"/>
+      <c r="O4" s="140"/>
       <c r="P4" s="42"/>
       <c r="Q4" s="42" t="s">
         <v>175</v>
@@ -7605,7 +7686,7 @@
         <f t="shared" si="4"/>
         <v>37.465249999999997</v>
       </c>
-      <c r="O5" s="139"/>
+      <c r="O5" s="140"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="42" t="s">
         <v>176</v>
@@ -7658,7 +7739,7 @@
         <f t="shared" si="4"/>
         <v>63.108749999999986</v>
       </c>
-      <c r="O6" s="139"/>
+      <c r="O6" s="140"/>
       <c r="P6" s="42"/>
       <c r="Q6" s="42" t="s">
         <v>177</v>
@@ -7711,7 +7792,7 @@
         <f t="shared" si="4"/>
         <v>80.900900000000007</v>
       </c>
-      <c r="O7" s="139"/>
+      <c r="O7" s="140"/>
       <c r="P7" s="42"/>
       <c r="Q7" s="42" t="s">
         <v>178</v>
@@ -7764,7 +7845,7 @@
         <f t="shared" si="4"/>
         <v>67.158299999999997</v>
       </c>
-      <c r="O8" s="139"/>
+      <c r="O8" s="140"/>
       <c r="P8" s="42"/>
       <c r="Q8" s="42" t="s">
         <v>179</v>
@@ -7817,7 +7898,7 @@
         <f t="shared" si="4"/>
         <v>63.108749999999986</v>
       </c>
-      <c r="O9" s="139"/>
+      <c r="O9" s="140"/>
       <c r="P9" s="42"/>
       <c r="Q9" s="42" t="s">
         <v>180</v>
@@ -7870,7 +7951,7 @@
         <f t="shared" si="4"/>
         <v>47.465249999999997</v>
       </c>
-      <c r="O10" s="139"/>
+      <c r="O10" s="140"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="42" t="s">
         <v>175</v>
@@ -7923,7 +8004,7 @@
         <f t="shared" si="4"/>
         <v>63.108749999999986</v>
       </c>
-      <c r="O11" s="139"/>
+      <c r="O11" s="140"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="42">
         <v>400</v>
@@ -7976,7 +8057,7 @@
         <f t="shared" si="4"/>
         <v>61.514800000000008</v>
       </c>
-      <c r="O12" s="139"/>
+      <c r="O12" s="140"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="42" t="s">
         <v>181</v>
@@ -8029,7 +8110,7 @@
         <f t="shared" si="4"/>
         <v>61.514800000000008</v>
       </c>
-      <c r="O13" s="139"/>
+      <c r="O13" s="140"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="42" t="s">
         <v>175</v>
@@ -8065,7 +8146,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O14" s="139"/>
+      <c r="O14" s="140"/>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
       <c r="R14" s="46"/>
@@ -8096,7 +8177,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="139"/>
+      <c r="O15" s="140"/>
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
       <c r="R15" s="46"/>
@@ -8127,7 +8208,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O16" s="139"/>
+      <c r="O16" s="140"/>
       <c r="P16" s="45"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="46"/>
@@ -8187,14 +8268,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="138"/>
-      <c r="H1" s="131" t="s">
+      <c r="G1" s="139"/>
+      <c r="H1" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="138"/>
+      <c r="I1" s="139"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -9890,14 +9971,14 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="131"/>
+      <c r="I1" s="132"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -9988,7 +10069,7 @@
         <f t="shared" ref="L3:L17" si="3">K3-I3</f>
         <v>18.079149999999998</v>
       </c>
-      <c r="M3" s="139" t="s">
+      <c r="M3" s="140" t="s">
         <v>162</v>
       </c>
       <c r="N3" s="98">
@@ -10041,7 +10122,7 @@
         <f t="shared" si="3"/>
         <v>20.643500000000017</v>
       </c>
-      <c r="M4" s="139"/>
+      <c r="M4" s="140"/>
       <c r="N4" s="42"/>
       <c r="O4" s="99">
         <f t="shared" ref="O4:O17" si="5">N4*6.125*1.2+8</f>
@@ -10088,7 +10169,7 @@
         <f t="shared" si="3"/>
         <v>11.257400000000004</v>
       </c>
-      <c r="M5" s="139"/>
+      <c r="M5" s="140"/>
       <c r="N5" s="42"/>
       <c r="O5" s="99">
         <f t="shared" si="5"/>
@@ -10135,7 +10216,7 @@
         <f t="shared" si="3"/>
         <v>20.796975000000018</v>
       </c>
-      <c r="M6" s="139"/>
+      <c r="M6" s="140"/>
       <c r="N6" s="42"/>
       <c r="O6" s="99">
         <f t="shared" si="5"/>
@@ -10182,7 +10263,7 @@
         <f t="shared" si="3"/>
         <v>11.668275000000008</v>
       </c>
-      <c r="M7" s="139"/>
+      <c r="M7" s="140"/>
       <c r="N7" s="100">
         <v>11</v>
       </c>
@@ -10233,7 +10314,7 @@
         <f t="shared" si="3"/>
         <v>15.257400000000004</v>
       </c>
-      <c r="M8" s="139"/>
+      <c r="M8" s="140"/>
       <c r="N8" s="42"/>
       <c r="O8" s="99">
         <f t="shared" si="5"/>
@@ -10280,7 +10361,7 @@
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M9" s="139"/>
+      <c r="M9" s="140"/>
       <c r="N9" s="100">
         <v>11</v>
       </c>
@@ -10331,7 +10412,7 @@
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M10" s="139"/>
+      <c r="M10" s="140"/>
       <c r="N10" s="100">
         <v>11</v>
       </c>
@@ -10382,7 +10463,7 @@
         <f t="shared" si="3"/>
         <v>27.618725000000012</v>
       </c>
-      <c r="M11" s="139"/>
+      <c r="M11" s="140"/>
       <c r="N11" s="42"/>
       <c r="O11" s="99">
         <f t="shared" si="5"/>
@@ -10429,7 +10510,7 @@
         <f t="shared" si="3"/>
         <v>27.618725000000012</v>
       </c>
-      <c r="M12" s="139"/>
+      <c r="M12" s="140"/>
       <c r="N12" s="42"/>
       <c r="O12" s="99">
         <f t="shared" si="5"/>
@@ -10476,7 +10557,7 @@
         <f t="shared" si="3"/>
         <v>18.616312499999999</v>
       </c>
-      <c r="M13" s="139"/>
+      <c r="M13" s="140"/>
       <c r="N13" s="42"/>
       <c r="O13" s="99">
         <f t="shared" si="5"/>
@@ -10523,7 +10604,7 @@
         <f t="shared" si="3"/>
         <v>21.207850000000008</v>
       </c>
-      <c r="M14" s="139"/>
+      <c r="M14" s="140"/>
       <c r="N14" s="42"/>
       <c r="O14" s="99">
         <f t="shared" si="5"/>
@@ -10570,7 +10651,7 @@
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M15" s="139"/>
+      <c r="M15" s="140"/>
       <c r="N15" s="45"/>
       <c r="O15" s="99">
         <f t="shared" si="5"/>
@@ -10617,7 +10698,7 @@
         <f t="shared" si="3"/>
         <v>18.232624999999999</v>
       </c>
-      <c r="M16" s="139"/>
+      <c r="M16" s="140"/>
       <c r="N16" s="45"/>
       <c r="O16" s="99">
         <f t="shared" si="5"/>
@@ -10664,7 +10745,7 @@
         <f t="shared" si="3"/>
         <v>17.514800000000008</v>
       </c>
-      <c r="M17" s="139"/>
+      <c r="M17" s="140"/>
       <c r="N17" s="45"/>
       <c r="O17" s="99">
         <f t="shared" si="5"/>
@@ -10867,8 +10948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -10898,14 +10979,14 @@
       <c r="E1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="131"/>
+      <c r="I1" s="132"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -10996,7 +11077,7 @@
         <f t="shared" ref="L3:L18" si="3">K3-I3</f>
         <v>218.00900000000024</v>
       </c>
-      <c r="M3" s="139" t="s">
+      <c r="M3" s="140" t="s">
         <v>162</v>
       </c>
       <c r="N3" s="98"/>
@@ -11045,7 +11126,7 @@
         <f t="shared" si="3"/>
         <v>255.43499999999995</v>
       </c>
-      <c r="M4" s="139"/>
+      <c r="M4" s="140"/>
       <c r="N4" s="42"/>
       <c r="O4" s="99">
         <f t="shared" ref="O4:O17" si="5">N4*6.125*1.2+8</f>
@@ -11092,7 +11173,7 @@
         <f t="shared" si="3"/>
         <v>186.72199999999998</v>
       </c>
-      <c r="M5" s="139"/>
+      <c r="M5" s="140"/>
       <c r="N5" s="42"/>
       <c r="O5" s="99">
         <f t="shared" si="5"/>
@@ -11139,7 +11220,7 @@
         <f t="shared" si="3"/>
         <v>223.38062500000001</v>
       </c>
-      <c r="M6" s="139"/>
+      <c r="M6" s="140"/>
       <c r="N6" s="42"/>
       <c r="O6" s="99">
         <f t="shared" si="5"/>
@@ -11186,7 +11267,7 @@
         <f t="shared" si="3"/>
         <v>223.38062500000001</v>
       </c>
-      <c r="M7" s="139"/>
+      <c r="M7" s="140"/>
       <c r="N7" s="100"/>
       <c r="O7" s="99">
         <f t="shared" si="5"/>
@@ -11233,7 +11314,7 @@
         <f t="shared" si="3"/>
         <v>127.21749999999997</v>
       </c>
-      <c r="M8" s="139"/>
+      <c r="M8" s="140"/>
       <c r="N8" s="42"/>
       <c r="O8" s="99">
         <f t="shared" si="5"/>
@@ -11280,7 +11361,7 @@
         <f t="shared" si="3"/>
         <v>127.21749999999997</v>
       </c>
-      <c r="M9" s="139"/>
+      <c r="M9" s="140"/>
       <c r="N9" s="100"/>
       <c r="O9" s="99">
         <f t="shared" si="5"/>
@@ -11327,7 +11408,7 @@
         <f t="shared" si="3"/>
         <v>104.39575000000002</v>
       </c>
-      <c r="M10" s="139"/>
+      <c r="M10" s="140"/>
       <c r="N10" s="100">
         <v>60</v>
       </c>
@@ -11378,7 +11459,7 @@
         <f t="shared" si="3"/>
         <v>104.39575000000002</v>
       </c>
-      <c r="M11" s="139"/>
+      <c r="M11" s="140"/>
       <c r="N11" s="42">
         <v>60</v>
       </c>
@@ -11429,7 +11510,7 @@
         <f t="shared" si="3"/>
         <v>225.68275000000006</v>
       </c>
-      <c r="M12" s="139"/>
+      <c r="M12" s="140"/>
       <c r="N12" s="42">
         <v>80</v>
       </c>
@@ -11480,7 +11561,7 @@
         <f t="shared" si="3"/>
         <v>225.68275000000006</v>
       </c>
-      <c r="M13" s="139"/>
+      <c r="M13" s="140"/>
       <c r="N13" s="42">
         <v>80</v>
       </c>
@@ -11531,7 +11612,7 @@
         <f t="shared" si="3"/>
         <v>127.21749999999997</v>
       </c>
-      <c r="M14" s="139"/>
+      <c r="M14" s="140"/>
       <c r="N14" s="42"/>
       <c r="O14" s="99">
         <f t="shared" si="5"/>
@@ -11578,7 +11659,7 @@
         <f t="shared" si="3"/>
         <v>94.395750000000021</v>
       </c>
-      <c r="M15" s="139"/>
+      <c r="M15" s="140"/>
       <c r="N15" s="45">
         <v>60</v>
       </c>
@@ -11629,7 +11710,7 @@
         <f t="shared" si="3"/>
         <v>94.395750000000021</v>
       </c>
-      <c r="M16" s="139"/>
+      <c r="M16" s="140"/>
       <c r="N16" s="45">
         <v>60</v>
       </c>
@@ -11680,7 +11761,7 @@
         <f t="shared" si="3"/>
         <v>94.395750000000021</v>
       </c>
-      <c r="M17" s="139"/>
+      <c r="M17" s="140"/>
       <c r="N17" s="45">
         <v>60</v>
       </c>
@@ -12224,180 +12305,180 @@
     </row>
     <row r="32" spans="2:16" ht="22" customHeight="1">
       <c r="B32" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="C32" s="42">
+        <v>6301</v>
+      </c>
+      <c r="D32" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="C32" s="40">
-        <v>6301</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>334</v>
-      </c>
       <c r="E32" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="F32" s="40">
+        <v>331</v>
+      </c>
+      <c r="F32" s="42">
         <v>43</v>
       </c>
-      <c r="G32" s="66">
-        <f t="shared" ref="G32:G40" si="19">F32*6.135</f>
+      <c r="G32" s="62">
+        <f>F32*6.135</f>
         <v>263.80500000000001</v>
       </c>
-      <c r="H32" s="60">
-        <f t="shared" ref="H32:H40" si="20">F32*(1+0.095)</f>
+      <c r="H32" s="56">
+        <f>F32*(1+0.095)</f>
         <v>47.085000000000001</v>
       </c>
-      <c r="I32" s="66">
-        <f t="shared" ref="I32:I40" si="21">H32*6.135</f>
+      <c r="I32" s="62">
+        <f>H32*6.135</f>
         <v>288.86647499999998</v>
       </c>
       <c r="J32" s="81">
         <f>I32*1.15+8</f>
         <v>340.19644624999995</v>
       </c>
-      <c r="K32" s="101">
+      <c r="K32" s="102">
         <v>341</v>
       </c>
       <c r="L32" s="110">
-        <f t="shared" ref="L32:L40" si="22">K32-I32</f>
+        <f>K32-I32</f>
         <v>52.13352500000002</v>
       </c>
-      <c r="N32" s="98"/>
+      <c r="N32" s="42"/>
       <c r="O32" s="99">
         <f>N32*6.125*1.2+8</f>
         <v>8</v>
       </c>
-      <c r="P32" s="105"/>
+      <c r="P32" s="106"/>
     </row>
     <row r="33" spans="2:16" ht="22" customHeight="1">
       <c r="B33" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="C33" s="42">
+        <v>335</v>
+      </c>
+      <c r="C33" s="40">
         <v>6302</v>
       </c>
       <c r="D33" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>332</v>
+      </c>
+      <c r="F33" s="40">
+        <v>43</v>
+      </c>
+      <c r="G33" s="66">
+        <f t="shared" ref="G33:G40" si="19">F33*6.135</f>
+        <v>263.80500000000001</v>
+      </c>
+      <c r="H33" s="60">
+        <f t="shared" ref="H33:H40" si="20">F33*(1+0.095)</f>
+        <v>47.085000000000001</v>
+      </c>
+      <c r="I33" s="66">
+        <f t="shared" ref="I33:I40" si="21">H33*6.135</f>
+        <v>288.86647499999998</v>
+      </c>
+      <c r="J33" s="81">
+        <f>I33*1.15+8</f>
+        <v>340.19644624999995</v>
+      </c>
+      <c r="K33" s="101">
+        <v>341</v>
+      </c>
+      <c r="L33" s="110">
+        <f t="shared" ref="L33:L40" si="22">K33-I33</f>
+        <v>52.13352500000002</v>
+      </c>
+      <c r="N33" s="98"/>
+      <c r="O33" s="99">
+        <f>N33*6.125*1.2+8</f>
+        <v>8</v>
+      </c>
+      <c r="P33" s="105"/>
+    </row>
+    <row r="34" spans="2:16" ht="22" customHeight="1">
+      <c r="B34" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="C34" s="42">
+        <v>6303</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>354</v>
+      </c>
+      <c r="E34" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F34" s="42">
         <v>43</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G34" s="62">
         <f t="shared" si="19"/>
         <v>263.80500000000001</v>
       </c>
-      <c r="H33" s="56">
+      <c r="H34" s="56">
         <f t="shared" si="20"/>
         <v>47.085000000000001</v>
       </c>
-      <c r="I33" s="62">
+      <c r="I34" s="62">
         <f t="shared" si="21"/>
         <v>288.86647499999998</v>
       </c>
-      <c r="J33" s="81">
-        <f t="shared" ref="J33:J40" si="23">I33*1.15+8</f>
+      <c r="J34" s="81">
+        <f t="shared" ref="J34:J40" si="23">I34*1.15+8</f>
         <v>340.19644624999995</v>
       </c>
-      <c r="K33" s="102">
+      <c r="K34" s="102">
         <v>341</v>
       </c>
-      <c r="L33" s="110">
+      <c r="L34" s="110">
         <f t="shared" si="22"/>
         <v>52.13352500000002</v>
       </c>
-      <c r="N33" s="42"/>
-      <c r="O33" s="99">
-        <f t="shared" ref="O33:O40" si="24">N33*6.125*1.2+8</f>
+      <c r="N34" s="42"/>
+      <c r="O34" s="99">
+        <f t="shared" ref="O34:O40" si="24">N34*6.125*1.2+8</f>
         <v>8</v>
       </c>
-      <c r="P33" s="106"/>
-    </row>
-    <row r="34" spans="2:16" ht="22" customHeight="1">
-      <c r="B34" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="C34" s="40">
-        <v>6303</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="E34" s="40" t="s">
+      <c r="P34" s="106"/>
+    </row>
+    <row r="35" spans="2:16" ht="22" customHeight="1">
+      <c r="B35" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="40">
+        <v>6304</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="E35" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F35" s="42">
         <v>50</v>
       </c>
-      <c r="G34" s="62">
+      <c r="G35" s="62">
         <f t="shared" si="19"/>
         <v>306.75</v>
       </c>
-      <c r="H34" s="56">
+      <c r="H35" s="56">
         <f t="shared" si="20"/>
         <v>54.75</v>
       </c>
-      <c r="I34" s="62">
+      <c r="I35" s="62">
         <f t="shared" si="21"/>
         <v>335.89125000000001</v>
       </c>
-      <c r="J34" s="81">
+      <c r="J35" s="81">
         <f t="shared" si="23"/>
         <v>394.27493749999996</v>
       </c>
-      <c r="K34" s="102">
+      <c r="K35" s="102">
         <v>399</v>
       </c>
-      <c r="L34" s="110">
+      <c r="L35" s="110">
         <f t="shared" si="22"/>
         <v>63.108749999999986</v>
-      </c>
-      <c r="N34" s="42"/>
-      <c r="O34" s="99">
-        <f t="shared" si="24"/>
-        <v>8</v>
-      </c>
-      <c r="P34" s="106"/>
-    </row>
-    <row r="35" spans="2:16" ht="22" customHeight="1">
-      <c r="B35" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="C35" s="42">
-        <v>6304</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="F35" s="42">
-        <v>43</v>
-      </c>
-      <c r="G35" s="62">
-        <f t="shared" si="19"/>
-        <v>263.80500000000001</v>
-      </c>
-      <c r="H35" s="56">
-        <f t="shared" si="20"/>
-        <v>47.085000000000001</v>
-      </c>
-      <c r="I35" s="62">
-        <f t="shared" si="21"/>
-        <v>288.86647499999998</v>
-      </c>
-      <c r="J35" s="81">
-        <f t="shared" si="23"/>
-        <v>340.19644624999995</v>
-      </c>
-      <c r="K35" s="102">
-        <v>341</v>
-      </c>
-      <c r="L35" s="110">
-        <f t="shared" si="22"/>
-        <v>52.13352500000002</v>
       </c>
       <c r="N35" s="42"/>
       <c r="O35" s="99">
@@ -12408,13 +12489,13 @@
     </row>
     <row r="36" spans="2:16" ht="22" customHeight="1">
       <c r="B36" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C36" s="40">
         <v>6305</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="E36" s="40" t="s">
         <v>331</v>
@@ -12454,13 +12535,13 @@
     </row>
     <row r="37" spans="2:16" ht="22" customHeight="1">
       <c r="B37" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" s="42">
         <v>6306</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>331</v>
@@ -12500,13 +12581,13 @@
     </row>
     <row r="38" spans="2:16" ht="22" customHeight="1">
       <c r="B38" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C38" s="40">
         <v>6307</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E38" s="40" t="s">
         <v>331</v>
@@ -12546,13 +12627,13 @@
     </row>
     <row r="39" spans="2:16" ht="22" customHeight="1">
       <c r="B39" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C39" s="42">
         <v>6308</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="E39" s="40" t="s">
         <v>331</v>
@@ -12592,13 +12673,13 @@
     </row>
     <row r="40" spans="2:16" ht="22" customHeight="1">
       <c r="B40" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C40" s="40">
         <v>6309</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E40" s="40" t="s">
         <v>331</v>
@@ -12638,13 +12719,13 @@
     </row>
     <row r="41" spans="2:16" ht="22" customHeight="1">
       <c r="B41" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C41" s="42">
         <v>6310</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E41" s="40" t="s">
         <v>332</v>
@@ -12684,13 +12765,13 @@
     </row>
     <row r="42" spans="2:16" ht="22" customHeight="1">
       <c r="B42" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C42" s="40">
         <v>6311</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E42" s="40" t="s">
         <v>333</v>
@@ -12730,13 +12811,13 @@
     </row>
     <row r="43" spans="2:16" ht="22" customHeight="1">
       <c r="B43" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C43" s="42">
         <v>6312</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E43" s="40" t="s">
         <v>331</v>
@@ -12776,13 +12857,13 @@
     </row>
     <row r="44" spans="2:16" ht="22" customHeight="1">
       <c r="B44" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C44" s="40">
         <v>6313</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E44" s="40" t="s">
         <v>331</v>
@@ -12821,7 +12902,7 @@
       <c r="P44" s="106"/>
     </row>
     <row r="45" spans="2:16" ht="22" customHeight="1">
-      <c r="B45" s="140"/>
+      <c r="B45" s="131"/>
       <c r="J45" s="81">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12984,15 +13065,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P12"/>
+  <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="65" customHeight="1">
@@ -13008,14 +13093,14 @@
       <c r="E1" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="I1" s="131"/>
+      <c r="I1" s="132"/>
       <c r="J1" s="80" t="s">
         <v>258</v>
       </c>
@@ -13069,16 +13154,16 @@
     </row>
     <row r="3" spans="2:16" ht="22" customHeight="1">
       <c r="B3" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C3" s="40">
         <v>7101</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F3" s="40">
         <v>79</v>
@@ -13119,16 +13204,16 @@
     </row>
     <row r="4" spans="2:16" ht="22" customHeight="1">
       <c r="B4" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C4" s="42">
         <v>7102</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F4" s="42">
         <v>79</v>
@@ -13169,16 +13254,16 @@
     </row>
     <row r="5" spans="2:16" ht="22" customHeight="1">
       <c r="B5" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C5" s="40">
         <v>7103</v>
       </c>
       <c r="D5" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>351</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>358</v>
       </c>
       <c r="F5" s="42">
         <v>79</v>
@@ -13219,16 +13304,16 @@
     </row>
     <row r="6" spans="2:16" ht="22" customHeight="1">
       <c r="B6" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C6" s="42">
         <v>7104</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F6" s="42">
         <v>79</v>
@@ -13269,16 +13354,16 @@
     </row>
     <row r="7" spans="2:16" ht="22" customHeight="1">
       <c r="B7" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C7" s="40">
         <v>7105</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F7" s="42">
         <v>129</v>
@@ -13315,16 +13400,16 @@
     </row>
     <row r="8" spans="2:16" ht="22" customHeight="1">
       <c r="B8" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C8" s="42">
         <v>7106</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F8" s="42">
         <v>129</v>
@@ -13361,16 +13446,16 @@
     </row>
     <row r="9" spans="2:16" ht="22" customHeight="1">
       <c r="B9" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C9" s="40">
         <v>7107</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F9" s="42">
         <v>129</v>
@@ -13407,16 +13492,16 @@
     </row>
     <row r="10" spans="2:16" ht="22" customHeight="1">
       <c r="B10" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C10" s="42">
         <v>7108</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F10" s="42">
         <v>129</v>
@@ -13453,16 +13538,16 @@
     </row>
     <row r="11" spans="2:16" ht="22" customHeight="1">
       <c r="B11" s="39" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C11" s="40">
         <v>7109</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F11" s="42">
         <v>129</v>
@@ -13503,15 +13588,457 @@
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
       <c r="F12" s="42"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="62"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="87"/>
       <c r="J12" s="81"/>
       <c r="K12" s="102"/>
       <c r="L12" s="110"/>
       <c r="N12" s="42"/>
       <c r="O12" s="99"/>
       <c r="P12" s="106"/>
+    </row>
+    <row r="13" spans="2:16" ht="22" customHeight="1">
+      <c r="B13" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="40">
+        <v>7201</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" s="40">
+        <v>200</v>
+      </c>
+      <c r="G13" s="66">
+        <f t="shared" ref="G13" si="6">F13*6.135</f>
+        <v>1227</v>
+      </c>
+      <c r="H13" s="60">
+        <f t="shared" ref="H13" si="7">F13*(1+0.095)</f>
+        <v>219</v>
+      </c>
+      <c r="I13" s="66">
+        <f t="shared" ref="I13" si="8">H13*6.135</f>
+        <v>1343.5650000000001</v>
+      </c>
+      <c r="J13" s="81">
+        <f>I13*1.15+8</f>
+        <v>1553.0997499999999</v>
+      </c>
+      <c r="K13" s="101">
+        <v>1559</v>
+      </c>
+      <c r="L13" s="110">
+        <f t="shared" ref="L13" si="9">K13-I13</f>
+        <v>215.43499999999995</v>
+      </c>
+      <c r="N13" s="98">
+        <v>59</v>
+      </c>
+      <c r="O13" s="99">
+        <f>N13*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P13" s="105">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="22" customHeight="1">
+      <c r="B14" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="40">
+        <v>7202</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" s="40">
+        <v>245</v>
+      </c>
+      <c r="G14" s="66">
+        <f>F14*6.135</f>
+        <v>1503.075</v>
+      </c>
+      <c r="H14" s="60">
+        <f>F14*(1+0.095)</f>
+        <v>268.27499999999998</v>
+      </c>
+      <c r="I14" s="66">
+        <f>H14*6.135</f>
+        <v>1645.8671249999998</v>
+      </c>
+      <c r="J14" s="81">
+        <f>I14*1.15+8</f>
+        <v>1900.7471937499995</v>
+      </c>
+      <c r="K14" s="101">
+        <v>1899</v>
+      </c>
+      <c r="L14" s="110">
+        <f>K14-I14</f>
+        <v>253.13287500000024</v>
+      </c>
+      <c r="N14" s="98">
+        <v>59</v>
+      </c>
+      <c r="O14" s="99">
+        <f>N14*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P14" s="105">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="22" customHeight="1">
+      <c r="B15" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" s="40">
+        <v>7202</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="F15" s="40">
+        <v>245</v>
+      </c>
+      <c r="G15" s="66">
+        <f>F15*6.135</f>
+        <v>1503.075</v>
+      </c>
+      <c r="H15" s="60">
+        <f>F15*(1+0.095)</f>
+        <v>268.27499999999998</v>
+      </c>
+      <c r="I15" s="66">
+        <f>H15*6.135</f>
+        <v>1645.8671249999998</v>
+      </c>
+      <c r="J15" s="81">
+        <f>I15*1.15+8</f>
+        <v>1900.7471937499995</v>
+      </c>
+      <c r="K15" s="101">
+        <v>1899</v>
+      </c>
+      <c r="L15" s="110">
+        <f>K15-I15</f>
+        <v>253.13287500000024</v>
+      </c>
+      <c r="N15" s="98">
+        <v>59</v>
+      </c>
+      <c r="O15" s="99">
+        <f>N15*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P15" s="105">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="22" customHeight="1">
+      <c r="B16" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="40">
+        <v>7203</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="F16" s="40">
+        <v>160</v>
+      </c>
+      <c r="G16" s="66">
+        <f t="shared" ref="G16:G21" si="10">F16*6.135</f>
+        <v>981.59999999999991</v>
+      </c>
+      <c r="H16" s="60">
+        <f t="shared" ref="H16:H21" si="11">F16*(1+0.095)</f>
+        <v>175.2</v>
+      </c>
+      <c r="I16" s="66">
+        <f t="shared" ref="I16:I21" si="12">H16*6.135</f>
+        <v>1074.8519999999999</v>
+      </c>
+      <c r="J16" s="81">
+        <f>I16*1.15+8</f>
+        <v>1244.0797999999998</v>
+      </c>
+      <c r="K16" s="101">
+        <v>1259</v>
+      </c>
+      <c r="L16" s="110">
+        <f t="shared" ref="L16:L21" si="13">K16-I16</f>
+        <v>184.14800000000014</v>
+      </c>
+      <c r="N16" s="98">
+        <v>59</v>
+      </c>
+      <c r="O16" s="99">
+        <f>N16*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P16" s="105">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="22" customHeight="1">
+      <c r="B17" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="40">
+        <v>7204</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="F17" s="40">
+        <v>205</v>
+      </c>
+      <c r="G17" s="66">
+        <f t="shared" si="10"/>
+        <v>1257.675</v>
+      </c>
+      <c r="H17" s="60">
+        <f t="shared" si="11"/>
+        <v>224.47499999999999</v>
+      </c>
+      <c r="I17" s="66">
+        <f t="shared" si="12"/>
+        <v>1377.154125</v>
+      </c>
+      <c r="J17" s="81">
+        <f>I17*1.15+8</f>
+        <v>1591.7272437499998</v>
+      </c>
+      <c r="K17" s="101">
+        <v>1599</v>
+      </c>
+      <c r="L17" s="110">
+        <f t="shared" si="13"/>
+        <v>221.84587499999998</v>
+      </c>
+      <c r="N17" s="98">
+        <v>59</v>
+      </c>
+      <c r="O17" s="99">
+        <f>N17*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P17" s="105">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="22" customHeight="1">
+      <c r="B18" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="40">
+        <v>7205</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="F18" s="40">
+        <v>170</v>
+      </c>
+      <c r="G18" s="66">
+        <f t="shared" si="10"/>
+        <v>1042.95</v>
+      </c>
+      <c r="H18" s="60">
+        <f t="shared" si="11"/>
+        <v>186.15</v>
+      </c>
+      <c r="I18" s="66">
+        <f t="shared" si="12"/>
+        <v>1142.03025</v>
+      </c>
+      <c r="J18" s="81">
+        <f>I18*1.15+8</f>
+        <v>1321.3347874999999</v>
+      </c>
+      <c r="K18" s="101">
+        <v>1359</v>
+      </c>
+      <c r="L18" s="110">
+        <f t="shared" si="13"/>
+        <v>216.96974999999998</v>
+      </c>
+      <c r="N18" s="98">
+        <v>59</v>
+      </c>
+      <c r="O18" s="99">
+        <f>N18*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P18" s="105">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="22" customHeight="1">
+      <c r="B19" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="40">
+        <v>7206</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="F19" s="40">
+        <v>170</v>
+      </c>
+      <c r="G19" s="66">
+        <f t="shared" si="10"/>
+        <v>1042.95</v>
+      </c>
+      <c r="H19" s="60">
+        <f t="shared" si="11"/>
+        <v>186.15</v>
+      </c>
+      <c r="I19" s="66">
+        <f t="shared" si="12"/>
+        <v>1142.03025</v>
+      </c>
+      <c r="J19" s="81">
+        <f>I19*1.15+8</f>
+        <v>1321.3347874999999</v>
+      </c>
+      <c r="K19" s="101">
+        <v>1359</v>
+      </c>
+      <c r="L19" s="110">
+        <f t="shared" si="13"/>
+        <v>216.96974999999998</v>
+      </c>
+      <c r="N19" s="98">
+        <v>59</v>
+      </c>
+      <c r="O19" s="99">
+        <f>N19*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P19" s="105">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="22" customHeight="1">
+      <c r="B20" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C20" s="40">
+        <v>7207</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="60">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="81">
+        <f>I20*1.15+8</f>
+        <v>8</v>
+      </c>
+      <c r="K20" s="101">
+        <v>619</v>
+      </c>
+      <c r="L20" s="110">
+        <f t="shared" si="13"/>
+        <v>619</v>
+      </c>
+      <c r="N20" s="98">
+        <v>59</v>
+      </c>
+      <c r="O20" s="99">
+        <f>N20*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P20" s="105">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="22" customHeight="1">
+      <c r="B21" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="40">
+        <v>7208</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="66">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="60">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="66">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="81">
+        <f>I21*1.15+8</f>
+        <v>8</v>
+      </c>
+      <c r="K21" s="101">
+        <v>619</v>
+      </c>
+      <c r="L21" s="110">
+        <f t="shared" si="13"/>
+        <v>619</v>
+      </c>
+      <c r="N21" s="98">
+        <v>59</v>
+      </c>
+      <c r="O21" s="99">
+        <f>N21*6.125*1.2+8</f>
+        <v>441.65</v>
+      </c>
+      <c r="P21" s="105">
+        <v>459</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Logpie.xlsx
+++ b/Logpie.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="护肤品1000" sheetId="1" r:id="rId1"/>
@@ -1512,8 +1512,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
     <numFmt numFmtId="176" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1898,7 +1899,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2309,6 +2310,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -2743,10 +2747,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -4807,12 +4811,17 @@
       <c r="O38" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="P38" s="11"/>
+      <c r="P38" s="141">
+        <f>F38*0.8</f>
+        <v>13.600000000000001</v>
+      </c>
       <c r="Q38" s="11">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R38" s="113"/>
+        <v>107.96000000000001</v>
+      </c>
+      <c r="R38" s="113">
+        <v>109</v>
+      </c>
       <c r="S38" s="14"/>
     </row>
     <row r="39" spans="2:19" ht="22" customHeight="1">
@@ -4861,12 +4870,17 @@
       <c r="O39" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="P39" s="11"/>
+      <c r="P39" s="141">
+        <f t="shared" ref="P39:P43" si="18">F39*0.8</f>
+        <v>11.200000000000001</v>
+      </c>
       <c r="Q39" s="11">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R39" s="113"/>
+        <v>90.320000000000007</v>
+      </c>
+      <c r="R39" s="113">
+        <v>89</v>
+      </c>
       <c r="S39" s="14"/>
     </row>
     <row r="40" spans="2:19" ht="22" customHeight="1">
@@ -4913,12 +4927,17 @@
       <c r="O40" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="P40" s="11"/>
+      <c r="P40" s="141">
+        <f t="shared" si="18"/>
+        <v>11.600000000000001</v>
+      </c>
       <c r="Q40" s="11">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R40" s="113"/>
+        <v>93.26</v>
+      </c>
+      <c r="R40" s="113">
+        <v>95</v>
+      </c>
       <c r="S40" s="14"/>
     </row>
     <row r="41" spans="2:19" ht="22" customHeight="1">
@@ -4967,12 +4986,17 @@
       <c r="O41" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="P41" s="11"/>
+      <c r="P41" s="141">
+        <f t="shared" si="18"/>
+        <v>20.8</v>
+      </c>
       <c r="Q41" s="11">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R41" s="113"/>
+        <v>160.88</v>
+      </c>
+      <c r="R41" s="113">
+        <v>159</v>
+      </c>
       <c r="S41" s="14"/>
     </row>
     <row r="42" spans="2:19" ht="22" customHeight="1">
@@ -5019,12 +5043,17 @@
       <c r="O42" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="P42" s="11"/>
+      <c r="P42" s="141">
+        <f t="shared" si="18"/>
+        <v>11.600000000000001</v>
+      </c>
       <c r="Q42" s="11">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R42" s="113"/>
+        <v>93.26</v>
+      </c>
+      <c r="R42" s="113">
+        <v>95</v>
+      </c>
       <c r="S42" s="14"/>
     </row>
     <row r="43" spans="2:19" ht="22" customHeight="1">
@@ -5073,12 +5102,17 @@
       <c r="O43" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="P43" s="11"/>
+      <c r="P43" s="141">
+        <f t="shared" si="18"/>
+        <v>20.8</v>
+      </c>
       <c r="Q43" s="11">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="R43" s="113"/>
+        <v>160.88</v>
+      </c>
+      <c r="R43" s="113">
+        <v>159</v>
+      </c>
       <c r="S43" s="14"/>
     </row>
     <row r="44" spans="2:19" ht="22" customHeight="1">
@@ -5121,15 +5155,15 @@
         <v>25</v>
       </c>
       <c r="G45" s="13">
-        <f t="shared" ref="G45:G50" si="18">F45*6.135</f>
+        <f t="shared" ref="G45:G50" si="19">F45*6.135</f>
         <v>153.375</v>
       </c>
       <c r="H45" s="12">
-        <f t="shared" ref="H45:H50" si="19">F45*(1+0.095)</f>
+        <f t="shared" ref="H45:H50" si="20">F45*(1+0.095)</f>
         <v>27.375</v>
       </c>
       <c r="I45" s="13">
-        <f t="shared" ref="I45:I50" si="20">H45*6.135</f>
+        <f t="shared" ref="I45:I50" si="21">H45*6.135</f>
         <v>167.94562500000001</v>
       </c>
       <c r="J45" s="81">
@@ -5140,7 +5174,7 @@
         <v>229</v>
       </c>
       <c r="L45" s="78">
-        <f t="shared" ref="L45:L50" si="21">K45-I45</f>
+        <f t="shared" ref="L45:L50" si="22">K45-I45</f>
         <v>61.054374999999993</v>
       </c>
       <c r="M45" s="136" t="s">
@@ -5175,15 +5209,15 @@
         <v>36</v>
       </c>
       <c r="G46" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>220.85999999999999</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>39.42</v>
       </c>
       <c r="I46" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>241.8417</v>
       </c>
       <c r="J46" s="81">
@@ -5194,7 +5228,7 @@
         <v>279</v>
       </c>
       <c r="L46" s="78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>37.158299999999997</v>
       </c>
       <c r="M46" s="137"/>
@@ -5225,15 +5259,15 @@
         <v>43</v>
       </c>
       <c r="G47" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>263.80500000000001</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>47.085000000000001</v>
       </c>
       <c r="I47" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>288.86647499999998</v>
       </c>
       <c r="J47" s="81">
@@ -5244,7 +5278,7 @@
         <v>329</v>
       </c>
       <c r="L47" s="78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>40.13352500000002</v>
       </c>
       <c r="M47" s="137"/>
@@ -5279,15 +5313,15 @@
         <v>65</v>
       </c>
       <c r="G48" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>398.77499999999998</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>71.174999999999997</v>
       </c>
       <c r="I48" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>436.65862499999997</v>
       </c>
       <c r="J48" s="81">
@@ -5298,7 +5332,7 @@
         <v>479</v>
       </c>
       <c r="L48" s="78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>42.341375000000028</v>
       </c>
       <c r="M48" s="137"/>
@@ -5333,15 +5367,15 @@
         <v>84</v>
       </c>
       <c r="G49" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>515.34</v>
       </c>
       <c r="H49" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>91.98</v>
       </c>
       <c r="I49" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>564.29729999999995</v>
       </c>
       <c r="J49" s="81">
@@ -5352,7 +5386,7 @@
         <v>639</v>
       </c>
       <c r="L49" s="78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>74.70270000000005</v>
       </c>
       <c r="M49" s="137"/>
@@ -5385,15 +5419,15 @@
         <v>104</v>
       </c>
       <c r="G50" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>638.04</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>113.88</v>
       </c>
       <c r="I50" s="13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>698.65379999999993</v>
       </c>
       <c r="J50" s="81">
@@ -5404,7 +5438,7 @@
         <v>769</v>
       </c>
       <c r="L50" s="78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>70.346200000000067</v>
       </c>
       <c r="M50" s="137"/>
@@ -5546,7 +5580,7 @@
         <v>143</v>
       </c>
       <c r="P53" s="12">
-        <f t="shared" ref="P53:P55" si="22">H53*0.8</f>
+        <f t="shared" ref="P53:P55" si="23">H53*0.8</f>
         <v>20.148</v>
       </c>
       <c r="Q53" s="11">
@@ -5603,7 +5637,7 @@
       </c>
       <c r="O54" s="11"/>
       <c r="P54" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>26.28</v>
       </c>
       <c r="Q54" s="11">
@@ -5662,7 +5696,7 @@
         <v>144</v>
       </c>
       <c r="P55" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>36.792000000000002</v>
       </c>
       <c r="Q55" s="11">
@@ -5711,15 +5745,15 @@
         <v>25</v>
       </c>
       <c r="G57" s="13">
-        <f t="shared" ref="G57:G63" si="23">F57*6.135</f>
+        <f t="shared" ref="G57:G63" si="24">F57*6.135</f>
         <v>153.375</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" ref="H57:H63" si="24">F57*(1+0.095)</f>
+        <f t="shared" ref="H57:H63" si="25">F57*(1+0.095)</f>
         <v>27.375</v>
       </c>
       <c r="I57" s="13">
-        <f t="shared" ref="I57:I63" si="25">H57*6.135</f>
+        <f t="shared" ref="I57:I63" si="26">H57*6.135</f>
         <v>167.94562500000001</v>
       </c>
       <c r="J57" s="81">
@@ -5730,7 +5764,7 @@
         <v>209</v>
       </c>
       <c r="L57" s="78">
-        <f t="shared" ref="L57:L68" si="26">K57-I57</f>
+        <f t="shared" ref="L57:L68" si="27">K57-I57</f>
         <v>41.054374999999993</v>
       </c>
       <c r="M57" s="11"/>
@@ -5765,15 +5799,15 @@
         <v>25</v>
       </c>
       <c r="G58" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>153.375</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>27.375</v>
       </c>
       <c r="I58" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>167.94562500000001</v>
       </c>
       <c r="J58" s="81">
@@ -5784,7 +5818,7 @@
         <v>209</v>
       </c>
       <c r="L58" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>41.054374999999993</v>
       </c>
       <c r="M58" s="11"/>
@@ -5819,15 +5853,15 @@
         <v>25</v>
       </c>
       <c r="G59" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>153.375</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>27.375</v>
       </c>
       <c r="I59" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>167.94562500000001</v>
       </c>
       <c r="J59" s="81">
@@ -5838,7 +5872,7 @@
         <v>209</v>
       </c>
       <c r="L59" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>41.054374999999993</v>
       </c>
       <c r="M59" s="11"/>
@@ -5873,15 +5907,15 @@
         <v>31</v>
       </c>
       <c r="G60" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>190.185</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>33.945</v>
       </c>
       <c r="I60" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>208.25257500000001</v>
       </c>
       <c r="J60" s="81">
@@ -5892,7 +5926,7 @@
         <v>249</v>
       </c>
       <c r="L60" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>40.747424999999993</v>
       </c>
       <c r="M60" s="11"/>
@@ -5927,15 +5961,15 @@
         <v>41</v>
       </c>
       <c r="G61" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>251.535</v>
       </c>
       <c r="H61" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>44.894999999999996</v>
       </c>
       <c r="I61" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>275.43082499999997</v>
       </c>
       <c r="J61" s="81">
@@ -5946,7 +5980,7 @@
         <v>329</v>
       </c>
       <c r="L61" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>53.56917500000003</v>
       </c>
       <c r="M61" s="11"/>
@@ -5981,15 +6015,15 @@
         <v>41</v>
       </c>
       <c r="G62" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>251.535</v>
       </c>
       <c r="H62" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>44.894999999999996</v>
       </c>
       <c r="I62" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>275.43082499999997</v>
       </c>
       <c r="J62" s="81">
@@ -6000,7 +6034,7 @@
         <v>329</v>
       </c>
       <c r="L62" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>53.56917500000003</v>
       </c>
       <c r="M62" s="11"/>
@@ -6035,15 +6069,15 @@
         <v>53</v>
       </c>
       <c r="G63" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>162.57749999999999</v>
       </c>
       <c r="H63" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>29.017499999999998</v>
       </c>
       <c r="I63" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>178.02236249999999</v>
       </c>
       <c r="J63" s="81">
@@ -6054,7 +6088,7 @@
         <v>219</v>
       </c>
       <c r="L63" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>40.977637500000014</v>
       </c>
       <c r="M63" s="11"/>
@@ -6087,7 +6121,7 @@
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M64" s="11"/>
@@ -6137,7 +6171,7 @@
         <v>539</v>
       </c>
       <c r="L65" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>75.470075000000065</v>
       </c>
       <c r="M65" s="133" t="s">
@@ -6193,7 +6227,7 @@
         <v>539</v>
       </c>
       <c r="L66" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>75.470075000000065</v>
       </c>
       <c r="M66" s="134"/>
@@ -6247,7 +6281,7 @@
         <v>539</v>
       </c>
       <c r="L67" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>75.470075000000065</v>
       </c>
       <c r="M67" s="134"/>
@@ -6294,14 +6328,14 @@
         <v>463.52992499999993</v>
       </c>
       <c r="J68" s="81">
-        <f t="shared" ref="J68" si="27">I68*1.15+8</f>
+        <f t="shared" ref="J68" si="28">I68*1.15+8</f>
         <v>541.05941374999986</v>
       </c>
       <c r="K68" s="85">
         <v>539</v>
       </c>
       <c r="L68" s="78">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>75.470075000000065</v>
       </c>
       <c r="M68" s="134"/>
@@ -6313,7 +6347,7 @@
       </c>
       <c r="P68" s="11"/>
       <c r="Q68" s="11">
-        <f t="shared" ref="Q68" si="28">P68*6.125*1.2+8</f>
+        <f t="shared" ref="Q68" si="29">P68*6.125*1.2+8</f>
         <v>8</v>
       </c>
       <c r="R68" s="113"/>
@@ -13067,7 +13101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -13627,21 +13661,21 @@
         <v>1343.5650000000001</v>
       </c>
       <c r="J13" s="81">
-        <f>I13*1.15+8</f>
+        <f t="shared" ref="J13:J21" si="9">I13*1.15+8</f>
         <v>1553.0997499999999</v>
       </c>
       <c r="K13" s="101">
         <v>1559</v>
       </c>
       <c r="L13" s="110">
-        <f t="shared" ref="L13" si="9">K13-I13</f>
+        <f t="shared" ref="L13" si="10">K13-I13</f>
         <v>215.43499999999995</v>
       </c>
       <c r="N13" s="98">
         <v>59</v>
       </c>
       <c r="O13" s="99">
-        <f>N13*6.125*1.2+8</f>
+        <f t="shared" ref="O13:O21" si="11">N13*6.125*1.2+8</f>
         <v>441.65</v>
       </c>
       <c r="P13" s="105">
@@ -13677,7 +13711,7 @@
         <v>1645.8671249999998</v>
       </c>
       <c r="J14" s="81">
-        <f>I14*1.15+8</f>
+        <f t="shared" si="9"/>
         <v>1900.7471937499995</v>
       </c>
       <c r="K14" s="101">
@@ -13691,7 +13725,7 @@
         <v>59</v>
       </c>
       <c r="O14" s="99">
-        <f>N14*6.125*1.2+8</f>
+        <f t="shared" si="11"/>
         <v>441.65</v>
       </c>
       <c r="P14" s="105">
@@ -13727,7 +13761,7 @@
         <v>1645.8671249999998</v>
       </c>
       <c r="J15" s="81">
-        <f>I15*1.15+8</f>
+        <f t="shared" si="9"/>
         <v>1900.7471937499995</v>
       </c>
       <c r="K15" s="101">
@@ -13741,7 +13775,7 @@
         <v>59</v>
       </c>
       <c r="O15" s="99">
-        <f>N15*6.125*1.2+8</f>
+        <f t="shared" si="11"/>
         <v>441.65</v>
       </c>
       <c r="P15" s="105">
@@ -13765,33 +13799,33 @@
         <v>160</v>
       </c>
       <c r="G16" s="66">
-        <f t="shared" ref="G16:G21" si="10">F16*6.135</f>
+        <f t="shared" ref="G16:G21" si="12">F16*6.135</f>
         <v>981.59999999999991</v>
       </c>
       <c r="H16" s="60">
-        <f t="shared" ref="H16:H21" si="11">F16*(1+0.095)</f>
+        <f t="shared" ref="H16:H21" si="13">F16*(1+0.095)</f>
         <v>175.2</v>
       </c>
       <c r="I16" s="66">
-        <f t="shared" ref="I16:I21" si="12">H16*6.135</f>
+        <f t="shared" ref="I16:I21" si="14">H16*6.135</f>
         <v>1074.8519999999999</v>
       </c>
       <c r="J16" s="81">
-        <f>I16*1.15+8</f>
+        <f t="shared" si="9"/>
         <v>1244.0797999999998</v>
       </c>
       <c r="K16" s="101">
         <v>1259</v>
       </c>
       <c r="L16" s="110">
-        <f t="shared" ref="L16:L21" si="13">K16-I16</f>
+        <f t="shared" ref="L16:L21" si="15">K16-I16</f>
         <v>184.14800000000014</v>
       </c>
       <c r="N16" s="98">
         <v>59</v>
       </c>
       <c r="O16" s="99">
-        <f>N16*6.125*1.2+8</f>
+        <f t="shared" si="11"/>
         <v>441.65</v>
       </c>
       <c r="P16" s="105">
@@ -13815,33 +13849,33 @@
         <v>205</v>
       </c>
       <c r="G17" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1257.675</v>
       </c>
       <c r="H17" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>224.47499999999999</v>
       </c>
       <c r="I17" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1377.154125</v>
       </c>
       <c r="J17" s="81">
-        <f>I17*1.15+8</f>
+        <f t="shared" si="9"/>
         <v>1591.7272437499998</v>
       </c>
       <c r="K17" s="101">
         <v>1599</v>
       </c>
       <c r="L17" s="110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>221.84587499999998</v>
       </c>
       <c r="N17" s="98">
         <v>59</v>
       </c>
       <c r="O17" s="99">
-        <f>N17*6.125*1.2+8</f>
+        <f t="shared" si="11"/>
         <v>441.65</v>
       </c>
       <c r="P17" s="105">
@@ -13865,33 +13899,33 @@
         <v>170</v>
       </c>
       <c r="G18" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1042.95</v>
       </c>
       <c r="H18" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>186.15</v>
       </c>
       <c r="I18" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1142.03025</v>
       </c>
       <c r="J18" s="81">
-        <f>I18*1.15+8</f>
+        <f t="shared" si="9"/>
         <v>1321.3347874999999</v>
       </c>
       <c r="K18" s="101">
         <v>1359</v>
       </c>
       <c r="L18" s="110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>216.96974999999998</v>
       </c>
       <c r="N18" s="98">
         <v>59</v>
       </c>
       <c r="O18" s="99">
-        <f>N18*6.125*1.2+8</f>
+        <f t="shared" si="11"/>
         <v>441.65</v>
       </c>
       <c r="P18" s="105">
@@ -13915,33 +13949,33 @@
         <v>170</v>
       </c>
       <c r="G19" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1042.95</v>
       </c>
       <c r="H19" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>186.15</v>
       </c>
       <c r="I19" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1142.03025</v>
       </c>
       <c r="J19" s="81">
-        <f>I19*1.15+8</f>
+        <f t="shared" si="9"/>
         <v>1321.3347874999999</v>
       </c>
       <c r="K19" s="101">
         <v>1359</v>
       </c>
       <c r="L19" s="110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>216.96974999999998</v>
       </c>
       <c r="N19" s="98">
         <v>59</v>
       </c>
       <c r="O19" s="99">
-        <f>N19*6.125*1.2+8</f>
+        <f t="shared" si="11"/>
         <v>441.65</v>
       </c>
       <c r="P19" s="105">
@@ -13961,33 +13995,33 @@
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H20" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I20" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J20" s="81">
-        <f>I20*1.15+8</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="K20" s="101">
         <v>619</v>
       </c>
       <c r="L20" s="110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>619</v>
       </c>
       <c r="N20" s="98">
         <v>59</v>
       </c>
       <c r="O20" s="99">
-        <f>N20*6.125*1.2+8</f>
+        <f t="shared" si="11"/>
         <v>441.65</v>
       </c>
       <c r="P20" s="105">
@@ -14007,33 +14041,33 @@
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H21" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I21" s="66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J21" s="81">
-        <f>I21*1.15+8</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="K21" s="101">
         <v>619</v>
       </c>
       <c r="L21" s="110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>619</v>
       </c>
       <c r="N21" s="98">
         <v>59</v>
       </c>
       <c r="O21" s="99">
-        <f>N21*6.125*1.2+8</f>
+        <f t="shared" si="11"/>
         <v>441.65</v>
       </c>
       <c r="P21" s="105">
